--- a/DOWNLOADS/master.xlsx
+++ b/DOWNLOADS/master.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c062993eaa45f7e/.vscode/arte_/sheets/EDITAL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c062993eaa45f7e/.vscode/arte_/DOWNLOADS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_4A8D00EAB6D3893A5F2D4C07F52F07FB78793233" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CA4E6CD-77A5-422A-8578-00531AA92109}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_0DFD21F004BB8F21232C4CA9D56C168178795E1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BCB754E-88F1-40CD-AB5B-EB2EFEEFD6C1}"/>
   <bookViews>
-    <workbookView xWindow="-16308" yWindow="-15180" windowWidth="16416" windowHeight="28296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="236">
   <si>
     <t>ARQUIVO</t>
   </si>
@@ -47,6 +50,687 @@
   </si>
   <si>
     <t>INTERVALO_LANCES</t>
+  </si>
+  <si>
+    <t>Arquivo</t>
+  </si>
+  <si>
+    <t>Planilha</t>
+  </si>
+  <si>
+    <t>U_120016_E_900652025_04-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_120631_E_900532025_02-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_153010_E_900312025_09-09-2025_10h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_153164_E_901112025_08-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_158125_E_900362025_08-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_158380_E_900012025_01-09-2025_10h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_160237_E_900082025_09-09-2025_10h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_380128_E_900162025_10-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_380195_E_900212025_02-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_389209_E_900052025_09-09-2025_08h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_788310_E_900242025_10-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_90147_E_900342025_15-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_925457_E_900042025_09-09-2025_10h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_928239_E_900042025_04-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_928591_E_916362025_01-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_930622_E_900762025_08-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_980107_E_900262025_02-09-2025_11h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_980403_E_900142025_02-09-2025_12h30m.xlsx</t>
+  </si>
+  <si>
+    <t>U_983495_E_900792025_16-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_984865_E_901002025_03-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_985693_E_900482025_10-09-2025_13h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_987425_E_900552025_04-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_987427_E_900912025_05-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_987427_E_900942025_12-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_987805_E_900482025_04-09-2025_08h30m.xlsx</t>
+  </si>
+  <si>
+    <t>U_989301_E_900602025_08-09-2025_08h30m.xlsx</t>
+  </si>
+  <si>
+    <t>Estante - partitura Estante - Partitura Material: Metal, Tipo: Desmontável, Largura: 500MM, Altura: 1500MM</t>
+  </si>
+  <si>
+    <t>Microfone Microfone Tipo: Sem Fio, Alimentação: Pilha, Resposta Freqüência: 60HZ, Tipo Receptor: Uhf, Alcance: 60M</t>
+  </si>
+  <si>
+    <t>Caixa som Caixa Som Potência: 700W, Voltagem: 110/220V, Aplicação: Computador, Características Adicionais: Som Polifônico, Com Controle Remoto Multifuncional</t>
+  </si>
+  <si>
+    <t>ISOLADOR PEDESTAL ISOLADOR SUPORTE PORCELANA PEDESTAL 15KV-INTERNO C/PRENSA FIO - CATMAT 623918</t>
+  </si>
+  <si>
+    <t>TRILHO SUPORTE PAINEL TRILHO DIN GALVANIZADO COM 2 METROS, PERFURADO BAIXO TS 35X7,5MM - CATMAT 486554</t>
+  </si>
+  <si>
+    <t>Amplificador De Áudio Amplificador De Áudio Tipo: Amplificador Portátil Auxiliar De Voz, Potência Saída: 18W, Tempo Recarga: 10 Horas, Características Adicionais: Digital Portátil Com Microfone E Adaptador De Ener</t>
+  </si>
+  <si>
+    <t>Caixa Som Caixa Som Potência: 40W, Voltagem: 12V, Tipo Fonte: Interna, Aplicação: Sala De Aula, Características Adicionais: Modelo Portátil Com Alça Para Transporte, Componentes Adicionais: Bluetooth4 Drives E 2 Radiadores De Graves Entra</t>
+  </si>
+  <si>
+    <t>Pedal De Instrumento Musical Pedal De Instrumento Musical Comprimento: 130MM, Largura: 156MM, Altura: 42MM, Peso: 340G, Características Adicionais: Pedaleira Para Guitarra</t>
+  </si>
+  <si>
+    <t>Pedestal banner Pedestal Banner Material Estrutura: Alumínio, Altura Máxima: 2,20 M, Características Adicionais: Tripé Base Articulada E Regulagem Altura, Haste Te</t>
+  </si>
+  <si>
+    <t>Fone ouvido Fone Ouvido Tipo: Headset, Impedância: 32OHM, Comprimento Fio: Mínimo 1,5M, Tipo Fone: Biauricular, Características Adicionais: Microfone E Aro Ajustável, Sensibilidade: 89DB, Cor: Preta, Aplicação: Computador, Conector: P3</t>
+  </si>
+  <si>
+    <t>Piano Piano Tipo: Digital, Modelo: Vertical / Armário, Tecla: 88 Teclas, Tipo Som: Polifonia 256, Acessórios: C/ Banqueta E Pedal</t>
+  </si>
+  <si>
+    <t>Estante - partitura Estante - Partitura Material: Metal, Tipo: Desmontável, Comprimento: 430 MM, Largura: 220 MM, Características Adicionais: Acabamento Na Cor Preta</t>
+  </si>
+  <si>
+    <t>Microfone Microfone Tipo: Sem Fio, Alimentação: 02 Pilhas Aa, Resposta Freqüência: 516-558HZ, Tipo Receptor: 2 Antenas, Características Adicionais: Até 12 Canais Programáveis, Impedância: 40OHMS, Alcance: 100M, Alimentação Receptor: 12 VdcV, Dimensão: 190 X 212 X 43MM, Padrão: Polar Cardióide, Sensibilidade: 2.1MV/PA, Material: Metal, Modulação: Banda Larga Fm, Temperatura Operação: -10 A  55C</t>
+  </si>
+  <si>
+    <t>Caixa acústica Caixa Acústica Potência: 400W, Tamanho Alto-Falante: 15POL, Características Adicionais: Bluetooth, Usb, Sd Card, Aplicação: Propagação Som</t>
+  </si>
+  <si>
+    <t>Pedestal microfone Pedestal Microfone Material Base Sustentação: Liga De Plástico, Tipo: Girafa, Formato Base: Tripé, Acabamento Superficial: Pintura A Pó, Cor: Preta, Tipo Haste: Telescópica, Comprimento Haste: 185CM, Características Adicionais: Fivela, Grampo De Microfone Removível</t>
+  </si>
+  <si>
+    <t>Pedestal caixa acústica Pedestal Caixa Acústica Material Haste: Aço Carbono, Cor: Preta, Altura: Aberto Máx. 1,90m Fechado Máx. 1,60M</t>
+  </si>
+  <si>
+    <t>Suporte de videocassete / televisao Suporte De Videocassete / Televisao Material: Metal, Tipo: Pedestal, Tamanho: Para Tv De 32 Até 75, Cor: Preta</t>
+  </si>
+  <si>
+    <t>Óleo Lubrificante Óleo Lubrificante Uso: Motores 2 Tempos, Tipo: Mineral, Classificação: Api Tc, Viscosidade: Cst 100ºc</t>
+  </si>
+  <si>
+    <t>Caixa Som Caixa Som Potência: 10W, Voltagem: Usb 5v Ou Dc 5v.V, Aplicação: Sala De Aula, Características Adicionais: Especificações Alto Falante: 2x2.Conexão: Usb E P2, Resposta Freqüência: 200</t>
+  </si>
+  <si>
+    <t>Tela Projeção Tela Projeção Material Estrutura: Alumínio Extrudado, Tipo Ajuste Tela: Elétrico/Retrátil Com Controle Remoto, Tipo Acabamento: Pintura Eletrostática, Material: Vinil, Cor Acabamento: Branca, Tipo Fixação: Parede/Teto, Cor: Branca, Altura: 2,28M, Largura: 3,05M, Características Adicionais: Controle Remoto, Ponteira, Mancal Em Termoplástico, Tipo Tela: Retrátil, Tensão Entrada: 110/220V, Tamanho Tela: 150POL</t>
+  </si>
+  <si>
+    <t>Microfone Microfone Tipo: Lapela Sem Fio, Alimentação: Bateria / Pilha, Resposta Freqüência: 50 Hz A 18 KhzKHZ, Aplicação: Sonorização, Padrão: Omnidirecional, Sensibilidade: -39DB, Cor: Preta, Referência Fabricante: Boya By-Xm6-S1</t>
+  </si>
+  <si>
+    <t>Óleo Lubrificante. Óleo Lubrificante. Apresentação: Líquido Viscoso, Origem: Mineral, Viscosidade: Sae 15w40, Uso: Motor A Diesel</t>
+  </si>
+  <si>
+    <t>Óleo Lubrificante Óleo Lubrificante Uso: Para Caminhão, Tipo: Mineral, Classificação: Api Ch-4, Viscosidade: Sae 15w-40</t>
+  </si>
+  <si>
+    <t>Telefone cabeça Telefone Cabeça Tipo: Headset Com Cabo Qd (Quiq-Disconet), Tipo Acionamento: Liga/Desliga Com Um Toque, Características Adicionais: Conexão Headset Ao Computador, Tipo Conector: Usb</t>
+  </si>
+  <si>
+    <t>Projetor Multimídia Projetor Multimídia Tipo Lâmpada: Mercúrio, Potência Lâmpada: 215W, Voltagem: BivoltV, Quantidade Entrada Rgb: 15 PinosUN, Quantidade Entradas Vídeo: Mínimo 5UN, Tamanho Mínimo Imagem: 30POL, Tipo Zoom: Manual, Tipo: Portátil, Capacidade Projeção Cor: 2.300.000PX, Capacidade Conexão: Compatível Vários Padrões Monitores/Computadores, Luminosidade Mínima: 3.200LM, Tipo Projeção: Frontal/Traseiro/Teto/Mesa, Tipo Tecnologia: 3lcd, Compatibilidade Resolução: Xga, Resolução: 1.024 X 768</t>
+  </si>
+  <si>
+    <t>Projetor Multimídia Projetor Multimídia Distância Mínima Tela: 90CM, Distância Máxima Tela: 10M, Tipo Lâmpada: Uhe, Potência Lâmpada: 210W, Voltagem: BivoltV, Freqüência: 50/60HZ, Quantidade Entradas Vídeo: 2UN, Tipo Zoom: Óptico, Potência Autofalantes: 5W, Quantidade Autofalantes: 1UN, Tipo: Teto E Mesa, Capacidade Conexão: Conexão: Rj45, Características Adicionais: Conexão Rj45, Hdmi, D-Sub15 Pin, Rca, Usb A E B, S, Luminosidade Mínima: 3.800LM, Tipo Foco: Manual, Tipo Projeção: Frontral / Traseiro / Teto, Tipo Tecnologia: Rj45, Resolução Mínima: 1.280 X 800DPI, Resolução: 1.280 X 800, Contraste Mínimo: 16.000, Tipo Controle: Remoto, Sem Fio</t>
+  </si>
+  <si>
+    <t>Tela Projeção Tela Projeção Material Estrutura: Aço, Tipo Ajuste Tela: Acionamento Retrátil E Funcionamento Rolo, Tipo Acabamento: Pintura Eletrostática, Material: Vinil, Cor: Branca, Altura: 150CM, Largura: 2,70M, Tipo Tela: Retrátil, Tamanho Tela: 120POL</t>
+  </si>
+  <si>
+    <t>Projetor Multimídia Projetor Multimídia Tipo Lâmpada: Led, Voltagem: BivoltV, Quantidade Entradas Vídeo: 4UN, Tipo Zoom: Digital, Tipo: Interativo, Características Adicionais: Conexão: Hdmi, Usb, Wi-Fi, Luminosidade Mínima: 4.000LM, Tipo Projeção: Frontal, Resolução: 1.280 X 800</t>
+  </si>
+  <si>
+    <t>Caixa Acústica Caixa Acústica Tipo: Amplificada, Potência: 900WRMS, Tamanho Alto-Falante: 15POL, Largura: 54,8CM, Altura: 71,4CM, Profundidade: 312MM, Voltagem: BivoltV, Aplicação: Propagação Som</t>
+  </si>
+  <si>
+    <t>Tarol Tarol Material: Alumínio, Diâmetro: 14 POL, Tamanho: 6 CM, Características Adicionais: Caixa Aro Pintura Epóxi, Aro Bola, 6 Tirantes, Pe-</t>
+  </si>
+  <si>
+    <t>Cabo extensor Cabo extensor Tipo: Flexível, Comprimento: 25 M, Aplicação: Comunicação De Dados Plug Canon</t>
+  </si>
+  <si>
+    <t>Estante - partitura Estante - partitura Material: Metal, Tipo: Desmontável, Largura: 500 MM, Altura: 1500 MM</t>
+  </si>
+  <si>
+    <t>Cabo audiofrequência Cabo audiofrequência Diâmetro Máximo Fios: 0,30 MM, Quantidade Condutores: 3, Características Adicionais: Fio Balanceado Almax Para Microfone Stéreo, Aplicação: Eletronica, Material Condutor: Cobre Estanhado</t>
+  </si>
+  <si>
+    <t>Pele instrumento musical Pele instrumento musical Material: Náilon, Diâmetro: 14 POL, Aplicação: Tarol</t>
+  </si>
+  <si>
+    <t>Pele instrumento musical Pele instrumento musical Material: Náilon, Comprimento: 30 CM, Largura: 22 CM, Aplicação: Bombo</t>
+  </si>
+  <si>
+    <t>Instrumento musical Instrumento musical Tipo: Kit De Sinos Coloridos Com Haste Para Segurar., Quantidade De Peças: 8 UN, Material Estrutura: Metal Diatônico, Características Adicionais: Com Notas Sonora: Dó, Re, Mi, Fa, Sol, Lá, Si, Dó, Tipo De Uso: Infantil</t>
+  </si>
+  <si>
+    <t>Memória flash Memória Flash Capacidade: 32GB, Tipo: Pen Drive, Interface: Usb 2.0 E Windows Xp/Vista/7, Características Adicionais: Acabamento Emborrachado/Resistente À Agua, Acessórios: Cabo Extensor Usb 2.0</t>
+  </si>
+  <si>
+    <t>Caixa Som Caixa Som Potência: 11W, Cor: Preta, Voltagem: 5V, Aplicação: Computador, Características Adicionais: Subwoofer</t>
+  </si>
+  <si>
+    <t>Localizador Cabo Localizador Cabo Componentes: Caneta Indutiva, Pinças, Fone De Ouvido, Tensão Bateria: 9V, Características Adicionais: Acompanha Um Estojo E Duas Baterias Instaladas, Referência: Fepro-Tc300 Marca Exbom, Aplicação: Rastrear Fios E Cabos</t>
+  </si>
+  <si>
+    <t>Microfone Microfone Tipo: Profissional, Características Adicionais: Estéreo Chave Liga/Desliga, Aplicação: Sistema De Som, Acessórios: Conexão Xlr/P10 (6,3 Mm),Cabos De 6 M Comprimento</t>
+  </si>
+  <si>
+    <t>Microfone Microfone Tipo: Sem Fio, Alimentação: Pilha, Resposta Freqüência: 60hz - 18KHZ, Alcance: 50M, Aplicação: Auditório</t>
+  </si>
+  <si>
+    <t>Projetor Multimídia Projetor Multimídia Voltagem: 100/240V, Quantidade Entradas Vídeo: 2UN, Tipo Zoom: 1.2x, Tipo: Com Controle Remoto, Capacidade Projeção Cor: 1.07 Bilhões De CoresPX, Características Adicionais: Projetor De Curta Distância (Short-Throw), Luminosidade Mínima: 3.200LM, Tipo Projeção: Frontal, Tipo Tecnologia: Dlp, Resolução: Xga (1024 X 768), Contraste Mínimo: 13000:1</t>
+  </si>
+  <si>
+    <t>Tela projeção Tela Projeção Tipo Ajuste Tela: Acionamento Retrátil E Funcionamento Rolo, Material: Vinil, Tipo Fixação: Teto, Cor: Branca, Altura: 150CM, Largura: 150CM</t>
+  </si>
+  <si>
+    <t>Caixa Acústica Caixa Acústica Tipo: Amplificada, Potência: 300WRMS, Tamanho Alto-Falante: 8POL, Largura: 280MM, Altura: 43,5CM, Profundidade: 230MM, Voltagem: 110/220V, Aplicação: Propagação Som</t>
+  </si>
+  <si>
+    <t>Suporte fixação projetor Suporte Fixação Projetor Material: Aço Carbono, Tipo: Universal, Tratamento Superficial: Anticorrosivo, Acabamento Superficial: Pintura Eletrostática, Cor: Branca, Características Adicionais: Sistema Anti-Furto, Aplicação: Fixação Projetor Multimídia, Altura: 30 A 80CM</t>
+  </si>
+  <si>
+    <t>Piano Piano Tipo: Digital, Modelo: Portátil, Tecla: 88 Teclas, Tipo Som: Polifonia 256, Acessórios: S/ Banqueta, C/ Pedal</t>
+  </si>
+  <si>
+    <t>Caixa Som Caixa Som Potência: 700W, Cor: Preta, Voltagem: 110/220V, Aplicação: Sala De Aula E Eventos Em Laboratório, Características Adicionais: Som Estéreo Com Controle De Volume</t>
+  </si>
+  <si>
+    <t>Projetor multimídia Projetor Multimídia Distância Mínima Tela: 90CM, Distância Máxima Tela: 10M, Tipo Lâmpada: Uhe, Potência Lâmpada: 210W, Voltagem: BivoltV, Freqüência: 50/60HZ, Quantidade Entradas Vídeo: 2UN, Tipo Zoom: Óptico, Potência Autofalantes: 5W, Quantidade Autofalantes: 1UN, Tipo: Teto E Mesa, Capacidade Conexão: Conexão: Rj45, Características Adicionais: Conexão Rj45, Hdmi, D-Sub15 Pin, Rca, Usb A E B, S, Luminosidade Mínima: 3.800LM, Tipo Foco: Manual, Tipo Projeção: Frontral / Traseiro / Teto, Tipo Tecnologia: Rj45, Resolução Mínima: 1.280 X 800DPI, Resolução: 1.280 X 800, Contraste Mínimo: 16.000, Tipo Controle: Remoto, Sem Fio</t>
+  </si>
+  <si>
+    <t>Tela projeção Tela Projeção Material Estrutura: Madeira Mdf, Tipo Acabamento: Coberta Com Tecido De Algodão Cru, Cor Acabamento: Conforme Orientação Da Contratant, Altura: 125CM, Largura: 210CM, Espessura: 10MM</t>
+  </si>
+  <si>
+    <t>Instrumento Musical Instrumento Musical Tipo: Kit De Sinos Coloridos Com Haste Para Segurar., Quantidade De Peças: 8UN, Material Estrutura: Metal Diatônico, Características Adicionais: Com Notas Sonora: Dó, Re, Mi, Fa, Sol, Lá, Si, Dó, Tipo De Uso: Infantil</t>
+  </si>
+  <si>
+    <t>Caixa som Caixa Som Potência: 1.300W, Cor: Preta, Voltagem: 110/220V, Aplicação: Sala De Aula E Eventos Em Laboratório, Características Adicionais: Possui Conectividade Bluetooth, Componentes Adicionais: Controle Remoto, Entrada Usb</t>
+  </si>
+  <si>
+    <t>Microfone Microfone Tipo: Microfone De Caixa E Tons, Resposta Freqüência: 40 - 15.000 HzHZ, Impedância: Saída 310 OhmOHMS, Aplicação: Bateria, Padrão: Polar Cadióide Dinâmico, Cor: Preta</t>
+  </si>
+  <si>
+    <t>Cabo extensor Cabo Extensor Tipo: Extensor Hdmi, Tipo Saída: Hdmi Macho X Hdmi Macho, Comprimento: 2M, Aplicação: Acessório Para Equipamentos De Audiovisual, Características Adicionais: Resolução Full Hd 1080p, 1080i, 720p, 480p E 480i, Tipo Cabo: Dados, Padrão: Hdmi 2.0, Cor Da Cobertura: Preta</t>
+  </si>
+  <si>
+    <t>Cabo extensor Cabo Extensor Tipo Saída: Hdmi, Comprimento: 100M, Aplicação: Transmissão Sinal Hdmi 1080p  Ir Até 100 Metros, Características Adicionais: Suporte Hdcp E Edid, Categoria: 5e, Componentes: 1 Transmissor Hdmi 1 Receptor Hdmi 2 Cabos Hdmi De</t>
+  </si>
+  <si>
+    <t>Jogo</t>
+  </si>
+  <si>
+    <t>Unidade</t>
+  </si>
+  <si>
+    <t>UNIDADE</t>
+  </si>
+  <si>
+    <t>Embalagem</t>
+  </si>
+  <si>
+    <t>Par</t>
+  </si>
+  <si>
+    <t>Galão</t>
+  </si>
+  <si>
+    <t>São José dos Campos/SP</t>
+  </si>
+  <si>
+    <t>Natal/RN</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro/RJ</t>
+  </si>
+  <si>
+    <t>Palmeira das Missões/RS</t>
+  </si>
+  <si>
+    <t>Blumenau/SC</t>
+  </si>
+  <si>
+    <t>Marechal Deodoro/AL</t>
+  </si>
+  <si>
+    <t>Jaguaribe/CE</t>
+  </si>
+  <si>
+    <t>Fortaleza/CE</t>
+  </si>
+  <si>
+    <t>Monteiro/PB</t>
+  </si>
+  <si>
+    <t>Presidente Bernardes/SP</t>
+  </si>
+  <si>
+    <t>Potim/SP</t>
+  </si>
+  <si>
+    <t>Palmas/TO</t>
+  </si>
+  <si>
+    <t>Manaus/AM</t>
+  </si>
+  <si>
+    <t>Lins/SP</t>
+  </si>
+  <si>
+    <t>Curitiba/PR</t>
+  </si>
+  <si>
+    <t>Joinville/SC</t>
+  </si>
+  <si>
+    <t>Paranavaí/PR</t>
+  </si>
+  <si>
+    <t>Cruzeiro do Sul/AC</t>
+  </si>
+  <si>
+    <t>Acará/PA</t>
+  </si>
+  <si>
+    <t>Cruz das Almas/BA</t>
+  </si>
+  <si>
+    <t>Montes Claros/MG</t>
+  </si>
+  <si>
+    <t>São Gabriel da Palha/ES</t>
+  </si>
+  <si>
+    <t>Apucarana/PR</t>
+  </si>
+  <si>
+    <t>Arapongas/PR</t>
+  </si>
+  <si>
+    <t>Realeza/PR</t>
+  </si>
+  <si>
+    <t>Catalão/GO</t>
+  </si>
+  <si>
+    <t>0,01</t>
+  </si>
+  <si>
+    <t>1,00</t>
+  </si>
+  <si>
+    <t>0,10</t>
+  </si>
+  <si>
+    <t>0,50</t>
+  </si>
+  <si>
+    <t>0,05</t>
+  </si>
+  <si>
+    <t>10,00</t>
+  </si>
+  <si>
+    <t>3,00</t>
+  </si>
+  <si>
+    <t>Corda Componentes: Com 4 Cordas E Capa, Tipo: Ukulele</t>
+  </si>
+  <si>
+    <t>Corda Componentes: Com 5 Cordas E Estojo, Tipo: Contrabaixo Elétrico</t>
+  </si>
+  <si>
+    <t>corda Componentes: Com 6 Cordas E Estojo, Comprimento: 1,05 M, Tipo: Violão</t>
+  </si>
+  <si>
+    <t>Corda Componentes: Com 6 Cordas, Nylon, Afinador Digital, Tipo: Violão Eletroacústico</t>
+  </si>
+  <si>
+    <t>Corda Componentes: Corpo Em Alder Em Rosewood Com 25.5 (648 Mm),Esca, Tipo: Guitarra Elétrica</t>
+  </si>
+  <si>
+    <t>Corda Componentes: Verga De Biriba, Arame De Aço, Barbantes, Cabeça,, Comprimento: 1,55 M, Tipo: Berimbau</t>
+  </si>
+  <si>
+    <t>Tipo: Bombardino, Acabamento Superficial: Folheado A Prata, Características Adicionais: Sib</t>
+  </si>
+  <si>
+    <t>Tipo: Clarinete, Acabamento Superficial: Abs, Características Adicionais: 17 Chaves E 06 Anéis</t>
+  </si>
+  <si>
+    <t>Tipo: Clarone Em Bb, Acabamento Superficial: Abs, Características Adicionais: Espigão Regulável</t>
+  </si>
+  <si>
+    <t>Tipo: Corne Inglês, Características Adicionais: Madeira</t>
+  </si>
+  <si>
+    <t>Tipo: Corneta, Tamanho: Curta, Acabamento Superficial: Sib Niquelado</t>
+  </si>
+  <si>
+    <t>Tipo: Escaleta, Acabamento Superficial: Plástico, Características Adicionais: 37 Teclas, Bocal, Extensão, Case</t>
+  </si>
+  <si>
+    <t>Tipo: Flauta Doce, Acabamento Superficial: Resina, Características Adicionais: Barroca</t>
+  </si>
+  <si>
+    <t>Tipo: Flauta Doce, Acabamento Superficial: Resina, Características Adicionais: Germânica</t>
+  </si>
+  <si>
+    <t>Tipo: Flauta Transversal, Acabamento Superficial: Prata Maciça</t>
+  </si>
+  <si>
+    <t>Tipo: Flauta, Acabamento Superficial: Prateado, Características Adicionais: Afinação Em Do</t>
+  </si>
+  <si>
+    <t>Tipo: Saxofone Alto, Acabamento Superficial: Laqueado, Características Adicionais: Chave De F Agudo</t>
+  </si>
+  <si>
+    <t>Tipo: Saxofone Tenor, Acabamento Superficial: Laqueado, Características Adicionais: Chave De F Agudo</t>
+  </si>
+  <si>
+    <t>Tipo: Saxofone, Acabamento Superficial: Laqueado, Características Adicionais: Barítono Mib</t>
+  </si>
+  <si>
+    <t>Tipo: Saxofone, Acabamento Superficial: Laqueado, Características Adicionais: Soprano Sib</t>
+  </si>
+  <si>
+    <t>Tipo: Sousafone, Acabamento Superficial: Campana Em Resina E Corpo Em Frp, Características Adicionais: (Clear Lacquer) Todo Acabamento Na Cor Branca</t>
+  </si>
+  <si>
+    <t>Tipo: Trombone Baixo, Tamanho: Diâmentro Da Campana:241mm(9 1/2), Calibre:Ll:14, Características Adicionais: Afinação: Bb/F/EbAcabamento Em Verniz Dourado Com</t>
+  </si>
+  <si>
+    <t>Tipo: Trombone Tenor, Tamanho: Médio Largo, Acabamento Superficial: Laqueado, Características Adicionais: Pescoço Fino</t>
+  </si>
+  <si>
+    <t>Tipo: Trombone, Acabamento Superficial: Bronze</t>
+  </si>
+  <si>
+    <t>Tipo: Trompa Dupla Bb/F, Tamanho: Médio Largo, Acabamento Superficial: Laqueado, Características Adicionais: Com Estojo</t>
+  </si>
+  <si>
+    <t>Tipo: Trompa, Acabamento Superficial: Laqueado, Características Adicionais: Sib</t>
+  </si>
+  <si>
+    <t>Tipo: Trompete, Acabamento Superficial: Laqueado</t>
+  </si>
+  <si>
+    <t>Tipo: Trompete, Tamanho: 3/4, Acabamento Superficial: Laqueado</t>
+  </si>
+  <si>
+    <t>Tipo: Tuba, Tamanho: 3/4, Acabamento Superficial: Laqueado, Características Adicionais: Modelo Intermediário, 04 Válvulas Rotativas De</t>
+  </si>
+  <si>
+    <t>Adesivo Protetor De Boquilha, Aplicação: Clarinete Sib</t>
+  </si>
+  <si>
+    <t>Bag Para Bateria, Aplicação: Instrumentos Musicais, Características Adicionais: Nylon 600, Revestimento Interno: Eva, Com Puxador</t>
+  </si>
+  <si>
+    <t>Baqueta, Aplicação: Bateria, Características Adicionais: Madeira Modelo 5a</t>
+  </si>
+  <si>
+    <t>Baqueta, Aplicação: Bateria, Características Adicionais: Madeira Modelo 7a</t>
+  </si>
+  <si>
+    <t>Baqueta, Aplicação: Bateria, Características Adicionais: Ponta Madeira</t>
+  </si>
+  <si>
+    <t>Baqueta, Aplicação: Bombo</t>
+  </si>
+  <si>
+    <t>Baqueta, Aplicação: Tamborim</t>
+  </si>
+  <si>
+    <t>Boquilha, Aplicação: Saxofone</t>
+  </si>
+  <si>
+    <t>Caixa, Aplicação: Bateria, Características Adicionais: 8mm De Espessura Aros De 1.6mm Esteira Com 20 Fios</t>
+  </si>
+  <si>
+    <t>Clave, Aplicação: Instrumentos Musicais, Características Adicionais: Em Madeira Jatobá</t>
+  </si>
+  <si>
+    <t>Corda, Aplicação: Violão</t>
+  </si>
+  <si>
+    <t>Creme Sintético, Aplicação: Instrumentos De Sopro, Características Adicionais: Greaze Para Cortiça</t>
+  </si>
+  <si>
+    <t>Creme, Aplicação: Trombone Á Vara</t>
+  </si>
+  <si>
+    <t>Encordoamento, Aplicação: Baixo, Características Adicionais: Para Contrabaixo Elétrico De 5 Cordas</t>
+  </si>
+  <si>
+    <t>Encordoamento, Aplicação: Violão</t>
+  </si>
+  <si>
+    <t>Kit De Ferragens, Aplicação: Bateria, Características Adicionais: Estante De Prato: Reta, Girafa E Caixa Chimbal E</t>
+  </si>
+  <si>
+    <t>Mesa Para Percussão, Aplicação: Instrumentos Musicais, Características Adicionais: Madeira, Regulável</t>
+  </si>
+  <si>
+    <t>Óleo Lubrificante, Aplicação: Para Pistos</t>
+  </si>
+  <si>
+    <t>Palheta, Aplicação: Clarineta, Características Adicionais: Nº 2 1/2</t>
+  </si>
+  <si>
+    <t>Palheta, Aplicação: Clarineta, Características Adicionais: Nº 3</t>
+  </si>
+  <si>
+    <t>Palheta, Aplicação: Clarineta, Características Adicionais: Nº 3 1/2</t>
+  </si>
+  <si>
+    <t>Palheta, Aplicação: Clarone Sib, Características Adicionais: Cana De Origem Francesa Nº 3</t>
+  </si>
+  <si>
+    <t>Palheta, Aplicação: Oboé, Características Adicionais 1: Raspagem Americana - Soft</t>
+  </si>
+  <si>
+    <t>Palheta, Aplicação: Sax Barítono, Características Adicionais: Nº 2 1/2</t>
+  </si>
+  <si>
+    <t>Palheta, Aplicação: Sax Tenor 2,5</t>
+  </si>
+  <si>
+    <t>Palheta, Aplicação: Saxofone Alto, Características Adicionais: Nº 2</t>
+  </si>
+  <si>
+    <t>Palheta, Aplicação: Saxofone Alto, Características Adicionais: Nº 2,5</t>
+  </si>
+  <si>
+    <t>Palheta, Aplicação: Saxofone Soprano, Características Adicionais: Nº 2,5</t>
+  </si>
+  <si>
+    <t>Palheta, Aplicação: Saxofone Tenor Sib, Características Adicionais: Cana De Origem Francesa Nº 2,5</t>
+  </si>
+  <si>
+    <t>Palheta, Aplicação: Saxofone Tenor, Características Adicionais: Nº 3</t>
+  </si>
+  <si>
+    <t>Pele, Aplicação: Bumbo, Características Adicionais: Couro Animal Em Aro Alumínio De 22</t>
+  </si>
+  <si>
+    <t>Pele, Aplicação: Caixa De Bateria 14, Características Adicionais: Porosa</t>
+  </si>
+  <si>
+    <t>Pele, Aplicação: Caixa Resposta, Características Adicionais: Eon314sa</t>
+  </si>
+  <si>
+    <t>Suporte De Solo, Aplicação: Violão, Características Adicionais: Carga Mínimo 5 Kg, Com Apoio Emborrachado</t>
+  </si>
+  <si>
+    <t>Suporte/Estante, Aplicação: Piano Eletrônico, Características Adicionais: Metal, Em X, Ajuste De Altura, Carga 80 Kg</t>
+  </si>
+  <si>
+    <t>Talabarte, Aplicação: Bumbo, Características Adicionais: Material:Nylon Cor: Preto Comprimento 190cm(Max)</t>
+  </si>
+  <si>
+    <t>Talabarte, Aplicação: Caixa De Guerra, Características Adicionais: Cor Preta Com Gancho</t>
+  </si>
+  <si>
+    <t>Talabarte, Aplicação: Surdo, Características Adicionais: Nylon, C X L: 1,80m X 4,5cm</t>
+  </si>
+  <si>
+    <t>Talabarte, Aplicação: Surdo, Características Adicionais: Nylon, C X L: 82cm X 5cm</t>
+  </si>
+  <si>
+    <t>Tarraxa, Aplicação: Violão, Características Adicionais 1: Pino Grosso, Tradicional Cromada</t>
+  </si>
+  <si>
+    <t>Teclado, Aplicação: Musical, Características Adicionais: Digital, 61 Teclas</t>
+  </si>
+  <si>
+    <t>Agogo, Material: Metal, Componentes: 2 Cones E 1 Haste, Tamanho: 35 X 9 CM</t>
+  </si>
+  <si>
+    <t>Bateria, Componentes: 1 Pad De Caixa, 3 Pads De Tons, 2 Pads De Pratos,, Características Adicionais: Eletrônica, Com Suporte/Estante, Com Pedal, Com Es</t>
+  </si>
+  <si>
+    <t>Bateria, Componentes: 3 Tons E 2 Surdos Set Up: Tons: 8 / 10 / 12, Características Adicionais: Com Banco, Com Estante, 2 Girafas, Com Pratos</t>
+  </si>
+  <si>
+    <t>Bateria, Componentes: Tons -8x7, 10x8 E 12x9/ Surdo - 14x14/ Bumbo:, Características Adicionais: Profissional, Com Banco, Com Estantes, Com Máquina</t>
+  </si>
+  <si>
+    <t>Bombo, Material: Aço Inox, Componentes: Talabartes E Baquetas, Tamanho: 22 X 30 CM, Características Adicionais: Aro Bola Cromado E Pele Leitosa</t>
+  </si>
+  <si>
+    <t>Bombo, Material: Aço Inox, Componentes: Talabartes E Baquetas, Tamanho: 22 X 30CM, Características Adicionais: Aro Bola Cromado E Pele Leitosa</t>
+  </si>
+  <si>
+    <t>Bombo, Material: Alumínio, Componentes: Com Talabarte, Tamanho: 22 X 30CM</t>
+  </si>
+  <si>
+    <t>Bongô, Material: Madeira, Tamanho: 7 X 8 POL, Características Adicionais: Pele Em Couro, Cromado</t>
+  </si>
+  <si>
+    <t>Bongô, Material: Madeira, Tamanho: 7 X 8POL, Características Adicionais: Pele Em Couro, Cromado</t>
+  </si>
+  <si>
+    <t>Caixa De Guerra, Material: Alumínio, Componentes: 06 Afinadores Cromados, Pele Porosa, Pele Resposta, Tamanho: 14 X 15 CM</t>
+  </si>
+  <si>
+    <t>Caixa Half Shell, Material: Metal, Componentes: 12 Afinações, Com Colete E Ferragens, Tamanho: 14 X 6POL</t>
+  </si>
+  <si>
+    <t>Caxixi, Material: Palha, Tamanho: 21 X 10CM, Características Adicionais: Envernizado</t>
+  </si>
+  <si>
+    <t>Címbalo, Material: Latão, Componentes: 2 Pratos, Tamanho: 7,0 A 7,5CM, Características Adicionais: Cordão Em Couro Tamanho: 45 Cm</t>
+  </si>
+  <si>
+    <t>Cuíca, Material: Alumínio E Couro, Tamanho: 8 POL</t>
+  </si>
+  <si>
+    <t>Ganzá, Material: Alumínio, Tamanho: 21 X 5,5CM</t>
+  </si>
+  <si>
+    <t>Ganzá, Material: Plástico, Tamanho: 5,5 CM</t>
+  </si>
+  <si>
+    <t>Maracá, Material: Madeira, Tamanho: 10 X 10 X 35 CM</t>
+  </si>
+  <si>
+    <t>Maracá, Material: Madeira, Tamanho: 10 X 10 X 35CM</t>
+  </si>
+  <si>
+    <t>Metalofone, Material: Alumínio, Componentes: Um Par De Baquetas, Tamanho: 68 X 20 X 18 CM, Características Adicionais: 13 Lâminas</t>
+  </si>
+  <si>
+    <t>Pandeiro, Material: Madeira, Couro E Metal, Tamanho: 10 POL</t>
+  </si>
+  <si>
+    <t>Pandeiro, Material: Madeira, Couro E Metal, Tamanho: 8 POL</t>
+  </si>
+  <si>
+    <t>Pandeiro, Material: Sintético, Tamanho: 10 POL, Características Adicionais: Meia Lua</t>
+  </si>
+  <si>
+    <t>Prato, Material: Bronze, Componentes: 2 Pratos, Tamanho: 14 POL, Características Adicionais: Modelo: Ziltannan</t>
+  </si>
+  <si>
+    <t>Prato, Material: Bronze, Componentes: 2 Pratos, Tamanho: 14POL, Características Adicionais: Modelo: Ziltannan</t>
+  </si>
+  <si>
+    <t>Prato, Material: Bronze, Componentes: 3, Tamanho: 20 X 16 X 14POL</t>
+  </si>
+  <si>
+    <t>Reco-Reco, Material: Madeira / Bambu, Tamanho: 35 X 6 CM</t>
+  </si>
+  <si>
+    <t>Reco-Reco, Material: Madeira / Bambu, Tamanho: 35 X 6CM</t>
+  </si>
+  <si>
+    <t>Surdo, Material: Alumínio/Pele, Componentes: Resposta E Tripé, Tamanho: 16 POL</t>
+  </si>
+  <si>
+    <t>Tambor De Mola, Efeito Percussão, Material: Ploter Gráfico Amadeirado, Componentes: 1 Mola, 1 Tubo, Tamanho: 20CM, Características Adicionais: Imita Som De Trovão</t>
+  </si>
+  <si>
+    <t>Tambor, Material: Madeira/Couro, Tamanho: 14 POL</t>
+  </si>
+  <si>
+    <t>Tambor, Material: Madeira/Couro, Tamanho: 16POL</t>
+  </si>
+  <si>
+    <t>Tantan, Material: Madeira/Couro, Componentes: Com Chave E Capa De Proteção, Tamanho: 14 X 70 CM</t>
+  </si>
+  <si>
+    <t>Triângulo, Material: Aço Cromado, Componentes: Batedor E Corda, Tamanho: 25 CM, Características Adicionais: Batedor Com Cabo Revestido</t>
+  </si>
+  <si>
+    <t>Triângulo, Material: Aço Cromado, Componentes: Batedor E Corda, Tamanho: 25CM, Características Adicionais: Batedor Com Cabo Revestido</t>
+  </si>
+  <si>
+    <t>Tumbadora Conga 11, 12, Material: Madeira, Couro E Metal, Características Adicionais: Com Suporte</t>
+  </si>
+  <si>
+    <t>Xilofone, Material: Metal, Componentes: Um Par De Baquetas, Tamanho: 62 X 16,5 X 15 CM, Características Adicionais: 16 Lâminas</t>
   </si>
 </sst>
 </file>
@@ -105,11 +789,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,6 +810,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,26 +1103,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="111" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +1144,6544 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>483.95</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1451.85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4">
+        <v>102</v>
+      </c>
+      <c r="F4" s="2">
+        <v>366.8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>37413.599999999999</v>
+      </c>
+      <c r="H4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5">
+        <v>108</v>
+      </c>
+      <c r="F5" s="2">
+        <v>310.73</v>
+      </c>
+      <c r="G5" s="2">
+        <v>33558.839999999997</v>
+      </c>
+      <c r="H5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+      <c r="F6" s="2">
+        <v>30.19</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3622.8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G8" s="2">
+        <v>16800</v>
+      </c>
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9">
+        <v>93</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1192.47</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1192.47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4800</v>
+      </c>
+      <c r="H11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13" s="2">
+        <v>43.94</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4394</v>
+      </c>
+      <c r="H13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>714.32</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1428.64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>952.38</v>
+      </c>
+      <c r="G15" s="2">
+        <v>952.38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>722.27</v>
+      </c>
+      <c r="G16" s="2">
+        <v>7222.7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>56000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>7809.97</v>
+      </c>
+      <c r="G18" s="2">
+        <v>15619.94</v>
+      </c>
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19">
+        <v>150</v>
+      </c>
+      <c r="F19" s="2">
+        <v>836.7</v>
+      </c>
+      <c r="G19" s="2">
+        <v>125505</v>
+      </c>
+      <c r="H19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2">
+        <v>836.7</v>
+      </c>
+      <c r="G20" s="2">
+        <v>41835</v>
+      </c>
+      <c r="H20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22">
+        <v>60</v>
+      </c>
+      <c r="F22" s="2">
+        <v>58.71</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3522.6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23">
+        <v>71</v>
+      </c>
+      <c r="F23" s="2">
+        <v>95</v>
+      </c>
+      <c r="G23" s="2">
+        <v>6745</v>
+      </c>
+      <c r="H23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1199.28</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1199.28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>9532.09</v>
+      </c>
+      <c r="G25" s="2">
+        <v>28596.27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28">
+        <v>38</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4544.91</v>
+      </c>
+      <c r="G28" s="2">
+        <v>172706.58</v>
+      </c>
+      <c r="H28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4544.91</v>
+      </c>
+      <c r="G29" s="2">
+        <v>54538.92</v>
+      </c>
+      <c r="H29" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1399.59</v>
+      </c>
+      <c r="G30" s="2">
+        <v>6997.95</v>
+      </c>
+      <c r="H30" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2">
+        <v>11278.97</v>
+      </c>
+      <c r="G31" s="2">
+        <v>67673.820000000007</v>
+      </c>
+      <c r="H31" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>11278.97</v>
+      </c>
+      <c r="G32" s="2">
+        <v>22557.94</v>
+      </c>
+      <c r="H32" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33" s="2">
+        <v>274.67</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2197.36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2">
+        <v>160.66999999999999</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1606.7</v>
+      </c>
+      <c r="H34" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>4501.71</v>
+      </c>
+      <c r="G37" s="2">
+        <v>4501.71</v>
+      </c>
+      <c r="H37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38" s="2">
+        <v>11499.67</v>
+      </c>
+      <c r="G38" s="2">
+        <v>68998.02</v>
+      </c>
+      <c r="H38" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39">
+        <v>50</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>115</v>
+      </c>
+      <c r="I39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>554.66999999999996</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1109.3399999999999</v>
+      </c>
+      <c r="H40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2566.33</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2566.33</v>
+      </c>
+      <c r="H41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2">
+        <v>3278.33</v>
+      </c>
+      <c r="G42" s="2">
+        <v>6556.66</v>
+      </c>
+      <c r="H42" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2599.33</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2599.33</v>
+      </c>
+      <c r="H43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2808</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2808</v>
+      </c>
+      <c r="H44" t="s">
+        <v>114</v>
+      </c>
+      <c r="I44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2">
+        <v>823.37</v>
+      </c>
+      <c r="G45" s="2">
+        <v>4940.22</v>
+      </c>
+      <c r="H45" t="s">
+        <v>102</v>
+      </c>
+      <c r="I45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>115</v>
+      </c>
+      <c r="I46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>536.59</v>
+      </c>
+      <c r="G47" s="2">
+        <v>536.59</v>
+      </c>
+      <c r="H47" t="s">
+        <v>99</v>
+      </c>
+      <c r="I47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2803.33</v>
+      </c>
+      <c r="G48" s="2">
+        <v>19623.310000000001</v>
+      </c>
+      <c r="H48" t="s">
+        <v>102</v>
+      </c>
+      <c r="I48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2">
+        <v>4633.33</v>
+      </c>
+      <c r="G49" s="2">
+        <v>18533.32</v>
+      </c>
+      <c r="H49" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>350</v>
+      </c>
+      <c r="G50" s="2">
+        <v>350</v>
+      </c>
+      <c r="H50" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51">
+        <v>45</v>
+      </c>
+      <c r="F51" s="2">
+        <v>85</v>
+      </c>
+      <c r="G51" s="2">
+        <v>3825</v>
+      </c>
+      <c r="H51" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <v>37</v>
+      </c>
+      <c r="C52" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52" s="2">
+        <v>482.07</v>
+      </c>
+      <c r="G52" s="2">
+        <v>2410.35</v>
+      </c>
+      <c r="H52" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" s="2">
+        <v>64.45</v>
+      </c>
+      <c r="G53" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="H53" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="F54" s="2">
+        <v>165.97</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1327.76</v>
+      </c>
+      <c r="H54" t="s">
+        <v>102</v>
+      </c>
+      <c r="I54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>49</v>
+      </c>
+      <c r="C55" t="s">
+        <v>216</v>
+      </c>
+      <c r="D55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55">
+        <v>16</v>
+      </c>
+      <c r="F55" s="2">
+        <v>198.33</v>
+      </c>
+      <c r="G55" s="2">
+        <v>3173.28</v>
+      </c>
+      <c r="H55" t="s">
+        <v>102</v>
+      </c>
+      <c r="I55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56">
+        <v>120</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>115</v>
+      </c>
+      <c r="I56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>163</v>
+      </c>
+      <c r="G57" s="2">
+        <v>163</v>
+      </c>
+      <c r="H57" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58">
+        <v>50</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>115</v>
+      </c>
+      <c r="I58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>219</v>
+      </c>
+      <c r="D59" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59" s="2">
+        <v>261</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1566</v>
+      </c>
+      <c r="H59" t="s">
+        <v>104</v>
+      </c>
+      <c r="I59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60">
+        <v>15</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>115</v>
+      </c>
+      <c r="I60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61">
+        <v>51</v>
+      </c>
+      <c r="C61" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61" s="2">
+        <v>63.99</v>
+      </c>
+      <c r="G61" s="2">
+        <v>255.96</v>
+      </c>
+      <c r="H61" t="s">
+        <v>102</v>
+      </c>
+      <c r="I61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62">
+        <v>25</v>
+      </c>
+      <c r="C62" t="s">
+        <v>221</v>
+      </c>
+      <c r="D62" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62">
+        <v>100</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>115</v>
+      </c>
+      <c r="I62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63">
+        <v>100</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>115</v>
+      </c>
+      <c r="I63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64">
+        <v>36</v>
+      </c>
+      <c r="C64" t="s">
+        <v>222</v>
+      </c>
+      <c r="D64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64">
+        <v>80</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>115</v>
+      </c>
+      <c r="I64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65">
+        <v>100</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>115</v>
+      </c>
+      <c r="I65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" s="2">
+        <v>974.17</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1948.34</v>
+      </c>
+      <c r="H66" t="s">
+        <v>102</v>
+      </c>
+      <c r="I66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>224</v>
+      </c>
+      <c r="D67" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1020</v>
+      </c>
+      <c r="G67" s="2">
+        <v>4080</v>
+      </c>
+      <c r="H67" t="s">
+        <v>114</v>
+      </c>
+      <c r="I67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68">
+        <v>38</v>
+      </c>
+      <c r="C68" t="s">
+        <v>225</v>
+      </c>
+      <c r="D68" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68">
+        <v>80</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>115</v>
+      </c>
+      <c r="I68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <v>80</v>
+      </c>
+      <c r="G69" s="2">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s">
+        <v>99</v>
+      </c>
+      <c r="I69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70">
+        <v>43</v>
+      </c>
+      <c r="C70" t="s">
+        <v>227</v>
+      </c>
+      <c r="D70" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70">
+        <v>50</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>115</v>
+      </c>
+      <c r="I70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>228</v>
+      </c>
+      <c r="D71" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>4615</v>
+      </c>
+      <c r="G71" s="2">
+        <v>4615</v>
+      </c>
+      <c r="H71" t="s">
+        <v>114</v>
+      </c>
+      <c r="I71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72">
+        <v>45</v>
+      </c>
+      <c r="C72" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72">
+        <v>120</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>115</v>
+      </c>
+      <c r="I72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73">
+        <v>53</v>
+      </c>
+      <c r="C73" t="s">
+        <v>230</v>
+      </c>
+      <c r="D73" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73">
+        <v>18</v>
+      </c>
+      <c r="F73" s="2">
+        <v>374.17</v>
+      </c>
+      <c r="G73" s="2">
+        <v>6735.06</v>
+      </c>
+      <c r="H73" t="s">
+        <v>102</v>
+      </c>
+      <c r="I73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74">
+        <v>36</v>
+      </c>
+      <c r="C74" t="s">
+        <v>231</v>
+      </c>
+      <c r="D74" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74" s="2">
+        <v>439.39</v>
+      </c>
+      <c r="G74" s="2">
+        <v>2196.9499999999998</v>
+      </c>
+      <c r="H74" t="s">
+        <v>103</v>
+      </c>
+      <c r="I74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75">
+        <v>46</v>
+      </c>
+      <c r="C75" t="s">
+        <v>231</v>
+      </c>
+      <c r="D75" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75">
+        <v>8</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>115</v>
+      </c>
+      <c r="I75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76">
+        <v>49</v>
+      </c>
+      <c r="C76" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76">
+        <v>120</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>115</v>
+      </c>
+      <c r="I76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" t="s">
+        <v>92</v>
+      </c>
+      <c r="E77">
+        <v>15</v>
+      </c>
+      <c r="F77" s="2">
+        <v>82.67</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1240.05</v>
+      </c>
+      <c r="H77" t="s">
+        <v>104</v>
+      </c>
+      <c r="I77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78">
+        <v>34</v>
+      </c>
+      <c r="C78" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <v>3143</v>
+      </c>
+      <c r="G78" s="2">
+        <v>3143</v>
+      </c>
+      <c r="H78" t="s">
+        <v>102</v>
+      </c>
+      <c r="I78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>234</v>
+      </c>
+      <c r="D79" t="s">
+        <v>92</v>
+      </c>
+      <c r="E79">
+        <v>8</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>115</v>
+      </c>
+      <c r="I79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80">
+        <v>54</v>
+      </c>
+      <c r="C80" t="s">
+        <v>235</v>
+      </c>
+      <c r="D80" t="s">
+        <v>92</v>
+      </c>
+      <c r="E80">
+        <v>120</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>115</v>
+      </c>
+      <c r="I80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81" s="2">
+        <v>6968.34</v>
+      </c>
+      <c r="G81" s="2">
+        <v>13936.68</v>
+      </c>
+      <c r="H81" t="s">
+        <v>114</v>
+      </c>
+      <c r="I81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" t="s">
+        <v>92</v>
+      </c>
+      <c r="E82">
+        <v>8</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>115</v>
+      </c>
+      <c r="I82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83">
+        <v>39</v>
+      </c>
+      <c r="C83" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83">
+        <v>35</v>
+      </c>
+      <c r="F83" s="2">
+        <v>5193.16</v>
+      </c>
+      <c r="G83" s="2">
+        <v>181760.6</v>
+      </c>
+      <c r="H83" t="s">
+        <v>102</v>
+      </c>
+      <c r="I83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84">
+        <v>61</v>
+      </c>
+      <c r="C84" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84">
+        <v>11</v>
+      </c>
+      <c r="F84" s="2">
+        <v>5193.16</v>
+      </c>
+      <c r="G84" s="2">
+        <v>57124.76</v>
+      </c>
+      <c r="H84" t="s">
+        <v>103</v>
+      </c>
+      <c r="I84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1695.67</v>
+      </c>
+      <c r="G85" s="2">
+        <v>8478.35</v>
+      </c>
+      <c r="H85" t="s">
+        <v>114</v>
+      </c>
+      <c r="I85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>137</v>
+      </c>
+      <c r="D86" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86">
+        <v>8</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>115</v>
+      </c>
+      <c r="I86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87">
+        <v>40</v>
+      </c>
+      <c r="C87" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87" s="2">
+        <v>73440</v>
+      </c>
+      <c r="G87" s="2">
+        <v>293760</v>
+      </c>
+      <c r="H87" t="s">
+        <v>102</v>
+      </c>
+      <c r="I87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88">
+        <v>66</v>
+      </c>
+      <c r="C88" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>73440</v>
+      </c>
+      <c r="G88" s="2">
+        <v>73440</v>
+      </c>
+      <c r="H88" t="s">
+        <v>105</v>
+      </c>
+      <c r="I88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89" s="2">
+        <v>2283.34</v>
+      </c>
+      <c r="G89" s="2">
+        <v>4566.68</v>
+      </c>
+      <c r="H89" t="s">
+        <v>114</v>
+      </c>
+      <c r="I89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90">
+        <v>26</v>
+      </c>
+      <c r="C90" t="s">
+        <v>140</v>
+      </c>
+      <c r="D90" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1193.3399999999999</v>
+      </c>
+      <c r="G90" s="2">
+        <v>11933.4</v>
+      </c>
+      <c r="H90" t="s">
+        <v>97</v>
+      </c>
+      <c r="I90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>140</v>
+      </c>
+      <c r="D91" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91">
+        <v>50</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>115</v>
+      </c>
+      <c r="I91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92">
+        <v>18</v>
+      </c>
+      <c r="C92" t="s">
+        <v>141</v>
+      </c>
+      <c r="D92" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92">
+        <v>40</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>115</v>
+      </c>
+      <c r="I92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93">
+        <v>21</v>
+      </c>
+      <c r="C93" t="s">
+        <v>142</v>
+      </c>
+      <c r="D93" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93" s="2">
+        <v>671.72</v>
+      </c>
+      <c r="G93" s="2">
+        <v>6717.2</v>
+      </c>
+      <c r="H93" t="s">
+        <v>102</v>
+      </c>
+      <c r="I93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94">
+        <v>45</v>
+      </c>
+      <c r="C94" t="s">
+        <v>142</v>
+      </c>
+      <c r="D94" t="s">
+        <v>92</v>
+      </c>
+      <c r="E94">
+        <v>10</v>
+      </c>
+      <c r="F94" s="2">
+        <v>262.67</v>
+      </c>
+      <c r="G94" s="2">
+        <v>2626.7</v>
+      </c>
+      <c r="H94" t="s">
+        <v>102</v>
+      </c>
+      <c r="I94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95">
+        <v>47</v>
+      </c>
+      <c r="C95" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95" s="2">
+        <v>747.97</v>
+      </c>
+      <c r="G95" s="2">
+        <v>7479.7</v>
+      </c>
+      <c r="H95" t="s">
+        <v>102</v>
+      </c>
+      <c r="I95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96">
+        <v>48</v>
+      </c>
+      <c r="C96" t="s">
+        <v>142</v>
+      </c>
+      <c r="D96" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96" s="2">
+        <v>3489.02</v>
+      </c>
+      <c r="G96" s="2">
+        <v>34890.199999999997</v>
+      </c>
+      <c r="H96" t="s">
+        <v>102</v>
+      </c>
+      <c r="I96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>142</v>
+      </c>
+      <c r="D97" t="s">
+        <v>92</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97" s="2">
+        <v>2329</v>
+      </c>
+      <c r="G97" s="2">
+        <v>4658</v>
+      </c>
+      <c r="H97" t="s">
+        <v>114</v>
+      </c>
+      <c r="I97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" t="s">
+        <v>92</v>
+      </c>
+      <c r="E98">
+        <v>800</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>115</v>
+      </c>
+      <c r="I98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>143</v>
+      </c>
+      <c r="D99" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99">
+        <v>15</v>
+      </c>
+      <c r="F99" s="2">
+        <v>44.08</v>
+      </c>
+      <c r="G99" s="2">
+        <v>661.2</v>
+      </c>
+      <c r="H99" t="s">
+        <v>118</v>
+      </c>
+      <c r="I99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100">
+        <v>46</v>
+      </c>
+      <c r="C100" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100" t="s">
+        <v>92</v>
+      </c>
+      <c r="E100">
+        <v>9</v>
+      </c>
+      <c r="F100" s="2">
+        <v>12048.77</v>
+      </c>
+      <c r="G100" s="2">
+        <v>108438.93</v>
+      </c>
+      <c r="H100" t="s">
+        <v>102</v>
+      </c>
+      <c r="I100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101">
+        <v>67</v>
+      </c>
+      <c r="C101" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" t="s">
+        <v>92</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101" s="2">
+        <v>12048.77</v>
+      </c>
+      <c r="G101" s="2">
+        <v>36146.31</v>
+      </c>
+      <c r="H101" t="s">
+        <v>105</v>
+      </c>
+      <c r="I101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102">
+        <v>23</v>
+      </c>
+      <c r="C102" t="s">
+        <v>145</v>
+      </c>
+      <c r="D102" t="s">
+        <v>92</v>
+      </c>
+      <c r="E102">
+        <v>15</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>115</v>
+      </c>
+      <c r="I102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>146</v>
+      </c>
+      <c r="D103" t="s">
+        <v>92</v>
+      </c>
+      <c r="E103">
+        <v>15</v>
+      </c>
+      <c r="F103" s="2">
+        <v>15099</v>
+      </c>
+      <c r="G103" s="2">
+        <v>226485</v>
+      </c>
+      <c r="H103" t="s">
+        <v>102</v>
+      </c>
+      <c r="I103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104">
+        <v>54</v>
+      </c>
+      <c r="C104" t="s">
+        <v>146</v>
+      </c>
+      <c r="D104" t="s">
+        <v>92</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="F104" s="2">
+        <v>15099</v>
+      </c>
+      <c r="G104" s="2">
+        <v>60396</v>
+      </c>
+      <c r="H104" t="s">
+        <v>105</v>
+      </c>
+      <c r="I104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105">
+        <v>39</v>
+      </c>
+      <c r="C105" t="s">
+        <v>146</v>
+      </c>
+      <c r="D105" t="s">
+        <v>92</v>
+      </c>
+      <c r="E105">
+        <v>8</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>115</v>
+      </c>
+      <c r="I105" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>147</v>
+      </c>
+      <c r="D106" t="s">
+        <v>92</v>
+      </c>
+      <c r="E106">
+        <v>11</v>
+      </c>
+      <c r="F106" s="2">
+        <v>15698.67</v>
+      </c>
+      <c r="G106" s="2">
+        <v>172685.37</v>
+      </c>
+      <c r="H106" t="s">
+        <v>102</v>
+      </c>
+      <c r="I106" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107">
+        <v>55</v>
+      </c>
+      <c r="C107" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" t="s">
+        <v>92</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107" s="2">
+        <v>15698.67</v>
+      </c>
+      <c r="G107" s="2">
+        <v>47096.01</v>
+      </c>
+      <c r="H107" t="s">
+        <v>102</v>
+      </c>
+      <c r="I107" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108">
+        <v>41</v>
+      </c>
+      <c r="C108" t="s">
+        <v>147</v>
+      </c>
+      <c r="D108" t="s">
+        <v>92</v>
+      </c>
+      <c r="E108">
+        <v>8</v>
+      </c>
+      <c r="F108" s="2">
+        <v>0</v>
+      </c>
+      <c r="G108" s="2">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>115</v>
+      </c>
+      <c r="I108" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>148</v>
+      </c>
+      <c r="D109" t="s">
+        <v>92</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="F109" s="2">
+        <v>12461</v>
+      </c>
+      <c r="G109" s="2">
+        <v>49844</v>
+      </c>
+      <c r="H109" t="s">
+        <v>102</v>
+      </c>
+      <c r="I109" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>148</v>
+      </c>
+      <c r="D110" t="s">
+        <v>92</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110" s="2">
+        <v>8007</v>
+      </c>
+      <c r="G110" s="2">
+        <v>16014</v>
+      </c>
+      <c r="H110" t="s">
+        <v>114</v>
+      </c>
+      <c r="I110" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>148</v>
+      </c>
+      <c r="D111" t="s">
+        <v>92</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111" s="2">
+        <v>11299.67</v>
+      </c>
+      <c r="G111" s="2">
+        <v>22599.34</v>
+      </c>
+      <c r="H111" t="s">
+        <v>114</v>
+      </c>
+      <c r="I111" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112">
+        <v>52</v>
+      </c>
+      <c r="C112" t="s">
+        <v>149</v>
+      </c>
+      <c r="D112" t="s">
+        <v>92</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+      <c r="F112" s="2">
+        <v>23099.11</v>
+      </c>
+      <c r="G112" s="2">
+        <v>115495.55</v>
+      </c>
+      <c r="H112" t="s">
+        <v>102</v>
+      </c>
+      <c r="I112" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113">
+        <v>69</v>
+      </c>
+      <c r="C113" t="s">
+        <v>149</v>
+      </c>
+      <c r="D113" t="s">
+        <v>92</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2">
+        <v>23099.11</v>
+      </c>
+      <c r="G113" s="2">
+        <v>23099.11</v>
+      </c>
+      <c r="H113" t="s">
+        <v>105</v>
+      </c>
+      <c r="I113" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>28</v>
+      </c>
+      <c r="B114">
+        <v>40</v>
+      </c>
+      <c r="C114" t="s">
+        <v>149</v>
+      </c>
+      <c r="D114" t="s">
+        <v>92</v>
+      </c>
+      <c r="E114">
+        <v>6</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>115</v>
+      </c>
+      <c r="I114" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>27</v>
+      </c>
+      <c r="B115">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>150</v>
+      </c>
+      <c r="D115" t="s">
+        <v>92</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115" s="2">
+        <v>22554</v>
+      </c>
+      <c r="G115" s="2">
+        <v>45108</v>
+      </c>
+      <c r="H115" t="s">
+        <v>114</v>
+      </c>
+      <c r="I115" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>151</v>
+      </c>
+      <c r="D116" t="s">
+        <v>92</v>
+      </c>
+      <c r="E116">
+        <v>13</v>
+      </c>
+      <c r="F116" s="2">
+        <v>45566.67</v>
+      </c>
+      <c r="G116" s="2">
+        <v>592366.71</v>
+      </c>
+      <c r="H116" t="s">
+        <v>102</v>
+      </c>
+      <c r="I116" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117">
+        <v>57</v>
+      </c>
+      <c r="C117" t="s">
+        <v>151</v>
+      </c>
+      <c r="D117" t="s">
+        <v>92</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" s="2">
+        <v>45566.67</v>
+      </c>
+      <c r="G117" s="2">
+        <v>45566.67</v>
+      </c>
+      <c r="H117" t="s">
+        <v>105</v>
+      </c>
+      <c r="I117" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>151</v>
+      </c>
+      <c r="D118" t="s">
+        <v>92</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+      <c r="F118" s="2">
+        <v>2999</v>
+      </c>
+      <c r="G118" s="2">
+        <v>11996</v>
+      </c>
+      <c r="H118" t="s">
+        <v>114</v>
+      </c>
+      <c r="I118" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>151</v>
+      </c>
+      <c r="D119" t="s">
+        <v>92</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119" s="2">
+        <v>2856.67</v>
+      </c>
+      <c r="G119" s="2">
+        <v>11426.68</v>
+      </c>
+      <c r="H119" t="s">
+        <v>114</v>
+      </c>
+      <c r="I119" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>152</v>
+      </c>
+      <c r="D120" t="s">
+        <v>92</v>
+      </c>
+      <c r="E120">
+        <v>23</v>
+      </c>
+      <c r="F120" s="2">
+        <v>27166.66</v>
+      </c>
+      <c r="G120" s="2">
+        <v>624833.18000000005</v>
+      </c>
+      <c r="H120" t="s">
+        <v>102</v>
+      </c>
+      <c r="I120" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121">
+        <v>56</v>
+      </c>
+      <c r="C121" t="s">
+        <v>152</v>
+      </c>
+      <c r="D121" t="s">
+        <v>92</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121" s="2">
+        <v>27166.66</v>
+      </c>
+      <c r="G121" s="2">
+        <v>54333.32</v>
+      </c>
+      <c r="H121" t="s">
+        <v>105</v>
+      </c>
+      <c r="I121" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122">
+        <v>50</v>
+      </c>
+      <c r="C122" t="s">
+        <v>153</v>
+      </c>
+      <c r="D122" t="s">
+        <v>92</v>
+      </c>
+      <c r="E122">
+        <v>8</v>
+      </c>
+      <c r="F122" s="2">
+        <v>0</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>115</v>
+      </c>
+      <c r="I122" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>154</v>
+      </c>
+      <c r="D123" t="s">
+        <v>92</v>
+      </c>
+      <c r="E123">
+        <v>13</v>
+      </c>
+      <c r="F123" s="2">
+        <v>38805.33</v>
+      </c>
+      <c r="G123" s="2">
+        <v>504469.29</v>
+      </c>
+      <c r="H123" t="s">
+        <v>102</v>
+      </c>
+      <c r="I123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124">
+        <v>59</v>
+      </c>
+      <c r="C124" t="s">
+        <v>154</v>
+      </c>
+      <c r="D124" t="s">
+        <v>92</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124" s="2">
+        <v>38805.33</v>
+      </c>
+      <c r="G124" s="2">
+        <v>77610.66</v>
+      </c>
+      <c r="H124" t="s">
+        <v>105</v>
+      </c>
+      <c r="I124" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>27</v>
+      </c>
+      <c r="B125">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>155</v>
+      </c>
+      <c r="D125" t="s">
+        <v>92</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125" s="2">
+        <v>7792.34</v>
+      </c>
+      <c r="G125" s="2">
+        <v>15584.68</v>
+      </c>
+      <c r="H125" t="s">
+        <v>114</v>
+      </c>
+      <c r="I125" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126">
+        <v>51</v>
+      </c>
+      <c r="C126" t="s">
+        <v>156</v>
+      </c>
+      <c r="D126" t="s">
+        <v>92</v>
+      </c>
+      <c r="E126">
+        <v>50</v>
+      </c>
+      <c r="F126" s="2">
+        <v>0</v>
+      </c>
+      <c r="G126" s="2">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>115</v>
+      </c>
+      <c r="I126" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>157</v>
+      </c>
+      <c r="D127" t="s">
+        <v>92</v>
+      </c>
+      <c r="E127">
+        <v>33</v>
+      </c>
+      <c r="F127" s="2">
+        <v>15695</v>
+      </c>
+      <c r="G127" s="2">
+        <v>517935</v>
+      </c>
+      <c r="H127" t="s">
+        <v>102</v>
+      </c>
+      <c r="I127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128">
+        <v>58</v>
+      </c>
+      <c r="C128" t="s">
+        <v>157</v>
+      </c>
+      <c r="D128" t="s">
+        <v>92</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
+      <c r="F128" s="2">
+        <v>15695</v>
+      </c>
+      <c r="G128" s="2">
+        <v>78475</v>
+      </c>
+      <c r="H128" t="s">
+        <v>105</v>
+      </c>
+      <c r="I128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>158</v>
+      </c>
+      <c r="D129" t="s">
+        <v>92</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+      <c r="F129" s="2">
+        <v>59806.33</v>
+      </c>
+      <c r="G129" s="2">
+        <v>239225.32</v>
+      </c>
+      <c r="H129" t="s">
+        <v>102</v>
+      </c>
+      <c r="I129" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130">
+        <v>63</v>
+      </c>
+      <c r="C130" t="s">
+        <v>158</v>
+      </c>
+      <c r="D130" t="s">
+        <v>92</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" s="2">
+        <v>59806.33</v>
+      </c>
+      <c r="G130" s="2">
+        <v>59806.33</v>
+      </c>
+      <c r="H130" t="s">
+        <v>105</v>
+      </c>
+      <c r="I130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>28</v>
+      </c>
+      <c r="B131">
+        <v>42</v>
+      </c>
+      <c r="C131" t="s">
+        <v>72</v>
+      </c>
+      <c r="D131" t="s">
+        <v>92</v>
+      </c>
+      <c r="E131">
+        <v>120</v>
+      </c>
+      <c r="F131" s="2">
+        <v>0</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>115</v>
+      </c>
+      <c r="I131" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>34</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>86</v>
+      </c>
+      <c r="D132" t="s">
+        <v>92</v>
+      </c>
+      <c r="E132">
+        <v>35</v>
+      </c>
+      <c r="F132" s="2">
+        <v>475.1</v>
+      </c>
+      <c r="G132" s="2">
+        <v>16628.5</v>
+      </c>
+      <c r="H132" t="s">
+        <v>120</v>
+      </c>
+      <c r="I132" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133">
+        <v>214</v>
+      </c>
+      <c r="C133" t="s">
+        <v>40</v>
+      </c>
+      <c r="D133" t="s">
+        <v>93</v>
+      </c>
+      <c r="E133">
+        <v>20</v>
+      </c>
+      <c r="F133" s="2">
+        <v>126.69</v>
+      </c>
+      <c r="G133" s="2">
+        <v>2533.8000000000002</v>
+      </c>
+      <c r="H133" t="s">
+        <v>98</v>
+      </c>
+      <c r="I133" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>29</v>
+      </c>
+      <c r="B134">
+        <v>48</v>
+      </c>
+      <c r="C134" t="s">
+        <v>75</v>
+      </c>
+      <c r="D134" t="s">
+        <v>92</v>
+      </c>
+      <c r="E134">
+        <v>30</v>
+      </c>
+      <c r="F134" s="2">
+        <v>141.88999999999999</v>
+      </c>
+      <c r="G134" s="2">
+        <v>4256.7</v>
+      </c>
+      <c r="H134" t="s">
+        <v>116</v>
+      </c>
+      <c r="I134" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>29</v>
+      </c>
+      <c r="B135">
+        <v>32</v>
+      </c>
+      <c r="C135" t="s">
+        <v>73</v>
+      </c>
+      <c r="D135" t="s">
+        <v>92</v>
+      </c>
+      <c r="E135">
+        <v>100</v>
+      </c>
+      <c r="F135" s="2">
+        <v>38</v>
+      </c>
+      <c r="G135" s="2">
+        <v>3800</v>
+      </c>
+      <c r="H135" t="s">
+        <v>116</v>
+      </c>
+      <c r="I135" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>57</v>
+      </c>
+      <c r="D136" t="s">
+        <v>92</v>
+      </c>
+      <c r="E136">
+        <v>200</v>
+      </c>
+      <c r="F136" s="2">
+        <v>468.5</v>
+      </c>
+      <c r="G136" s="2">
+        <v>93700</v>
+      </c>
+      <c r="H136" t="s">
+        <v>109</v>
+      </c>
+      <c r="I136" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>35</v>
+      </c>
+      <c r="B137">
+        <v>64</v>
+      </c>
+      <c r="C137" t="s">
+        <v>88</v>
+      </c>
+      <c r="D137" t="s">
+        <v>92</v>
+      </c>
+      <c r="E137">
+        <v>8</v>
+      </c>
+      <c r="F137" s="2">
+        <v>1147.5</v>
+      </c>
+      <c r="G137" s="2">
+        <v>9180</v>
+      </c>
+      <c r="H137" t="s">
+        <v>121</v>
+      </c>
+      <c r="I137" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>30</v>
+      </c>
+      <c r="B138">
+        <v>23</v>
+      </c>
+      <c r="C138" t="s">
+        <v>76</v>
+      </c>
+      <c r="D138" t="s">
+        <v>92</v>
+      </c>
+      <c r="E138">
+        <v>58</v>
+      </c>
+      <c r="F138" s="2">
+        <v>0</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>117</v>
+      </c>
+      <c r="I138" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>49</v>
+      </c>
+      <c r="D139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="F139" s="2">
+        <v>5200</v>
+      </c>
+      <c r="G139" s="2">
+        <v>15600</v>
+      </c>
+      <c r="H139" t="s">
+        <v>99</v>
+      </c>
+      <c r="I139" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>30</v>
+      </c>
+      <c r="B140">
+        <v>24</v>
+      </c>
+      <c r="C140" t="s">
+        <v>77</v>
+      </c>
+      <c r="D140" t="s">
+        <v>92</v>
+      </c>
+      <c r="E140">
+        <v>131</v>
+      </c>
+      <c r="F140" s="2">
+        <v>0</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>117</v>
+      </c>
+      <c r="I140" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141">
+        <v>25</v>
+      </c>
+      <c r="C141" t="s">
+        <v>38</v>
+      </c>
+      <c r="D141" t="s">
+        <v>92</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141" s="2">
+        <v>3941.84</v>
+      </c>
+      <c r="G141" s="2">
+        <v>7883.68</v>
+      </c>
+      <c r="H141" t="s">
+        <v>97</v>
+      </c>
+      <c r="I141" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>18</v>
+      </c>
+      <c r="B142">
+        <v>73</v>
+      </c>
+      <c r="C142" t="s">
+        <v>54</v>
+      </c>
+      <c r="D142" t="s">
+        <v>94</v>
+      </c>
+      <c r="E142">
+        <v>20</v>
+      </c>
+      <c r="F142" s="2">
+        <v>22</v>
+      </c>
+      <c r="G142" s="2">
+        <v>440</v>
+      </c>
+      <c r="H142" t="s">
+        <v>106</v>
+      </c>
+      <c r="I142" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B143">
+        <v>49</v>
+      </c>
+      <c r="C143" t="s">
+        <v>59</v>
+      </c>
+      <c r="D143" t="s">
+        <v>96</v>
+      </c>
+      <c r="E143">
+        <v>6</v>
+      </c>
+      <c r="F143" s="2">
+        <v>0</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>110</v>
+      </c>
+      <c r="I143" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>22</v>
+      </c>
+      <c r="B144">
+        <v>45</v>
+      </c>
+      <c r="C144" t="s">
+        <v>58</v>
+      </c>
+      <c r="D144" t="s">
+        <v>96</v>
+      </c>
+      <c r="E144">
+        <v>4</v>
+      </c>
+      <c r="F144" s="2">
+        <v>0</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0</v>
+      </c>
+      <c r="H144" t="s">
+        <v>110</v>
+      </c>
+      <c r="I144" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145">
+        <v>21</v>
+      </c>
+      <c r="C145" t="s">
+        <v>159</v>
+      </c>
+      <c r="D145" t="s">
+        <v>92</v>
+      </c>
+      <c r="E145">
+        <v>50</v>
+      </c>
+      <c r="F145" s="2">
+        <v>39.81</v>
+      </c>
+      <c r="G145" s="2">
+        <v>1990.5</v>
+      </c>
+      <c r="H145" t="s">
+        <v>97</v>
+      </c>
+      <c r="I145" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>160</v>
+      </c>
+      <c r="D146" t="s">
+        <v>92</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146" s="2">
+        <v>1338.03</v>
+      </c>
+      <c r="G146" s="2">
+        <v>2676.06</v>
+      </c>
+      <c r="H146" t="s">
+        <v>97</v>
+      </c>
+      <c r="I146" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147">
+        <v>14</v>
+      </c>
+      <c r="C147" t="s">
+        <v>160</v>
+      </c>
+      <c r="D147" t="s">
+        <v>92</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147" s="2">
+        <v>473.3</v>
+      </c>
+      <c r="G147" s="2">
+        <v>946.6</v>
+      </c>
+      <c r="H147" t="s">
+        <v>97</v>
+      </c>
+      <c r="I147" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>160</v>
+      </c>
+      <c r="D148" t="s">
+        <v>92</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+      <c r="F148" s="2">
+        <v>395.7</v>
+      </c>
+      <c r="G148" s="2">
+        <v>1187.0999999999999</v>
+      </c>
+      <c r="H148" t="s">
+        <v>97</v>
+      </c>
+      <c r="I148" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149">
+        <v>18</v>
+      </c>
+      <c r="C149" t="s">
+        <v>161</v>
+      </c>
+      <c r="D149" t="s">
+        <v>92</v>
+      </c>
+      <c r="E149">
+        <v>25</v>
+      </c>
+      <c r="F149" s="2">
+        <v>167.19</v>
+      </c>
+      <c r="G149" s="2">
+        <v>4179.75</v>
+      </c>
+      <c r="H149" t="s">
+        <v>97</v>
+      </c>
+      <c r="I149" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>16</v>
+      </c>
+      <c r="B150">
+        <v>17</v>
+      </c>
+      <c r="C150" t="s">
+        <v>161</v>
+      </c>
+      <c r="D150" t="s">
+        <v>91</v>
+      </c>
+      <c r="E150">
+        <v>25</v>
+      </c>
+      <c r="F150" s="2">
+        <v>129.63</v>
+      </c>
+      <c r="G150" s="2">
+        <v>3240.75</v>
+      </c>
+      <c r="H150" t="s">
+        <v>104</v>
+      </c>
+      <c r="I150" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151">
+        <v>17</v>
+      </c>
+      <c r="C151" t="s">
+        <v>162</v>
+      </c>
+      <c r="D151" t="s">
+        <v>92</v>
+      </c>
+      <c r="E151">
+        <v>15</v>
+      </c>
+      <c r="F151" s="2">
+        <v>99.63</v>
+      </c>
+      <c r="G151" s="2">
+        <v>1494.45</v>
+      </c>
+      <c r="H151" t="s">
+        <v>97</v>
+      </c>
+      <c r="I151" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152">
+        <v>18</v>
+      </c>
+      <c r="C152" t="s">
+        <v>162</v>
+      </c>
+      <c r="D152" t="s">
+        <v>91</v>
+      </c>
+      <c r="E152">
+        <v>37</v>
+      </c>
+      <c r="F152" s="2">
+        <v>51.3</v>
+      </c>
+      <c r="G152" s="2">
+        <v>1898.1</v>
+      </c>
+      <c r="H152" t="s">
+        <v>104</v>
+      </c>
+      <c r="I152" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153">
+        <v>43</v>
+      </c>
+      <c r="C153" t="s">
+        <v>163</v>
+      </c>
+      <c r="D153" t="s">
+        <v>91</v>
+      </c>
+      <c r="E153">
+        <v>22</v>
+      </c>
+      <c r="F153" s="2">
+        <v>28.97</v>
+      </c>
+      <c r="G153" s="2">
+        <v>637.34</v>
+      </c>
+      <c r="H153" t="s">
+        <v>102</v>
+      </c>
+      <c r="I153" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154">
+        <v>44</v>
+      </c>
+      <c r="C154" t="s">
+        <v>163</v>
+      </c>
+      <c r="D154" t="s">
+        <v>92</v>
+      </c>
+      <c r="E154">
+        <v>22</v>
+      </c>
+      <c r="F154" s="2">
+        <v>56.18</v>
+      </c>
+      <c r="G154" s="2">
+        <v>1235.96</v>
+      </c>
+      <c r="H154" t="s">
+        <v>102</v>
+      </c>
+      <c r="I154" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155">
+        <v>19</v>
+      </c>
+      <c r="C155" t="s">
+        <v>164</v>
+      </c>
+      <c r="D155" t="s">
+        <v>92</v>
+      </c>
+      <c r="E155">
+        <v>15</v>
+      </c>
+      <c r="F155" s="2">
+        <v>32.57</v>
+      </c>
+      <c r="G155" s="2">
+        <v>488.55</v>
+      </c>
+      <c r="H155" t="s">
+        <v>97</v>
+      </c>
+      <c r="I155" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>16</v>
+      </c>
+      <c r="B156">
+        <v>16</v>
+      </c>
+      <c r="C156" t="s">
+        <v>164</v>
+      </c>
+      <c r="D156" t="s">
+        <v>92</v>
+      </c>
+      <c r="E156">
+        <v>10</v>
+      </c>
+      <c r="F156" s="2">
+        <v>162.51</v>
+      </c>
+      <c r="G156" s="2">
+        <v>1625.1</v>
+      </c>
+      <c r="H156" t="s">
+        <v>104</v>
+      </c>
+      <c r="I156" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>164</v>
+      </c>
+      <c r="D157" t="s">
+        <v>91</v>
+      </c>
+      <c r="E157">
+        <v>100</v>
+      </c>
+      <c r="F157" s="2">
+        <v>0</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0</v>
+      </c>
+      <c r="H157" t="s">
+        <v>115</v>
+      </c>
+      <c r="I157" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>28</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158" t="s">
+        <v>165</v>
+      </c>
+      <c r="D158" t="s">
+        <v>91</v>
+      </c>
+      <c r="E158">
+        <v>300</v>
+      </c>
+      <c r="F158" s="2">
+        <v>0</v>
+      </c>
+      <c r="G158" s="2">
+        <v>0</v>
+      </c>
+      <c r="H158" t="s">
+        <v>115</v>
+      </c>
+      <c r="I158" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159">
+        <v>23</v>
+      </c>
+      <c r="C159" t="s">
+        <v>166</v>
+      </c>
+      <c r="D159" t="s">
+        <v>92</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159" s="2">
+        <v>1543.41</v>
+      </c>
+      <c r="G159" s="2">
+        <v>3086.82</v>
+      </c>
+      <c r="H159" t="s">
+        <v>97</v>
+      </c>
+      <c r="I159" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160">
+        <v>27</v>
+      </c>
+      <c r="C160" t="s">
+        <v>167</v>
+      </c>
+      <c r="D160" t="s">
+        <v>92</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160" s="2">
+        <v>1310.17</v>
+      </c>
+      <c r="G160" s="2">
+        <v>2620.34</v>
+      </c>
+      <c r="H160" t="s">
+        <v>97</v>
+      </c>
+      <c r="I160" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>28</v>
+      </c>
+      <c r="B161">
+        <v>20</v>
+      </c>
+      <c r="C161" t="s">
+        <v>167</v>
+      </c>
+      <c r="D161" t="s">
+        <v>92</v>
+      </c>
+      <c r="E161">
+        <v>100</v>
+      </c>
+      <c r="F161" s="2">
+        <v>0</v>
+      </c>
+      <c r="G161" s="2">
+        <v>0</v>
+      </c>
+      <c r="H161" t="s">
+        <v>115</v>
+      </c>
+      <c r="I161" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162">
+        <v>10</v>
+      </c>
+      <c r="C162" t="s">
+        <v>168</v>
+      </c>
+      <c r="D162" t="s">
+        <v>92</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162" s="2">
+        <v>68.3</v>
+      </c>
+      <c r="G162" s="2">
+        <v>136.6</v>
+      </c>
+      <c r="H162" t="s">
+        <v>99</v>
+      </c>
+      <c r="I162" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>28</v>
+      </c>
+      <c r="B163">
+        <v>14</v>
+      </c>
+      <c r="C163" t="s">
+        <v>169</v>
+      </c>
+      <c r="D163" t="s">
+        <v>92</v>
+      </c>
+      <c r="E163">
+        <v>50</v>
+      </c>
+      <c r="F163" s="2">
+        <v>0</v>
+      </c>
+      <c r="G163" s="2">
+        <v>0</v>
+      </c>
+      <c r="H163" t="s">
+        <v>115</v>
+      </c>
+      <c r="I163" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>28</v>
+      </c>
+      <c r="B164">
+        <v>15</v>
+      </c>
+      <c r="C164" t="s">
+        <v>169</v>
+      </c>
+      <c r="D164" t="s">
+        <v>92</v>
+      </c>
+      <c r="E164">
+        <v>20</v>
+      </c>
+      <c r="F164" s="2">
+        <v>0</v>
+      </c>
+      <c r="G164" s="2">
+        <v>0</v>
+      </c>
+      <c r="H164" t="s">
+        <v>115</v>
+      </c>
+      <c r="I164" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165">
+        <v>31</v>
+      </c>
+      <c r="C165" t="s">
+        <v>170</v>
+      </c>
+      <c r="D165" t="s">
+        <v>92</v>
+      </c>
+      <c r="E165">
+        <v>130</v>
+      </c>
+      <c r="F165" s="2">
+        <v>107</v>
+      </c>
+      <c r="G165" s="2">
+        <v>13910</v>
+      </c>
+      <c r="H165" t="s">
+        <v>102</v>
+      </c>
+      <c r="I165" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166">
+        <v>33</v>
+      </c>
+      <c r="C166" t="s">
+        <v>171</v>
+      </c>
+      <c r="D166" t="s">
+        <v>92</v>
+      </c>
+      <c r="E166">
+        <v>40</v>
+      </c>
+      <c r="F166" s="2">
+        <v>157.5</v>
+      </c>
+      <c r="G166" s="2">
+        <v>6300</v>
+      </c>
+      <c r="H166" t="s">
+        <v>102</v>
+      </c>
+      <c r="I166" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167">
+        <v>29</v>
+      </c>
+      <c r="C167" t="s">
+        <v>172</v>
+      </c>
+      <c r="D167" t="s">
+        <v>92</v>
+      </c>
+      <c r="E167">
+        <v>22</v>
+      </c>
+      <c r="F167" s="2">
+        <v>115.17</v>
+      </c>
+      <c r="G167" s="2">
+        <v>2533.7399999999998</v>
+      </c>
+      <c r="H167" t="s">
+        <v>102</v>
+      </c>
+      <c r="I167" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168">
+        <v>30</v>
+      </c>
+      <c r="C168" t="s">
+        <v>173</v>
+      </c>
+      <c r="D168" t="s">
+        <v>92</v>
+      </c>
+      <c r="E168">
+        <v>99</v>
+      </c>
+      <c r="F168" s="2">
+        <v>47.73</v>
+      </c>
+      <c r="G168" s="2">
+        <v>4725.2700000000004</v>
+      </c>
+      <c r="H168" t="s">
+        <v>104</v>
+      </c>
+      <c r="I168" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>28</v>
+      </c>
+      <c r="B169">
+        <v>17</v>
+      </c>
+      <c r="C169" t="s">
+        <v>174</v>
+      </c>
+      <c r="D169" t="s">
+        <v>92</v>
+      </c>
+      <c r="E169">
+        <v>8</v>
+      </c>
+      <c r="F169" s="2">
+        <v>0</v>
+      </c>
+      <c r="G169" s="2">
+        <v>0</v>
+      </c>
+      <c r="H169" t="s">
+        <v>115</v>
+      </c>
+      <c r="I169" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170">
+        <v>28</v>
+      </c>
+      <c r="C170" t="s">
+        <v>175</v>
+      </c>
+      <c r="D170" t="s">
+        <v>92</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170" s="2">
+        <v>630.45000000000005</v>
+      </c>
+      <c r="G170" s="2">
+        <v>1260.9000000000001</v>
+      </c>
+      <c r="H170" t="s">
+        <v>97</v>
+      </c>
+      <c r="I170" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>176</v>
+      </c>
+      <c r="D171" t="s">
+        <v>92</v>
+      </c>
+      <c r="E171">
+        <v>20</v>
+      </c>
+      <c r="F171" s="2">
+        <v>136.12</v>
+      </c>
+      <c r="G171" s="2">
+        <v>2722.4</v>
+      </c>
+      <c r="H171" t="s">
+        <v>97</v>
+      </c>
+      <c r="I171" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>16</v>
+      </c>
+      <c r="B172">
+        <v>32</v>
+      </c>
+      <c r="C172" t="s">
+        <v>176</v>
+      </c>
+      <c r="D172" t="s">
+        <v>92</v>
+      </c>
+      <c r="E172">
+        <v>50</v>
+      </c>
+      <c r="F172" s="2">
+        <v>141.27000000000001</v>
+      </c>
+      <c r="G172" s="2">
+        <v>7063.5</v>
+      </c>
+      <c r="H172" t="s">
+        <v>102</v>
+      </c>
+      <c r="I172" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173">
+        <v>50</v>
+      </c>
+      <c r="C173" t="s">
+        <v>177</v>
+      </c>
+      <c r="D173" t="s">
+        <v>92</v>
+      </c>
+      <c r="E173">
+        <v>285</v>
+      </c>
+      <c r="F173" s="2">
+        <v>340.7</v>
+      </c>
+      <c r="G173" s="2">
+        <v>97099.5</v>
+      </c>
+      <c r="H173" t="s">
+        <v>102</v>
+      </c>
+      <c r="I173" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>16</v>
+      </c>
+      <c r="B174">
+        <v>68</v>
+      </c>
+      <c r="C174" t="s">
+        <v>177</v>
+      </c>
+      <c r="D174" t="s">
+        <v>92</v>
+      </c>
+      <c r="E174">
+        <v>95</v>
+      </c>
+      <c r="F174" s="2">
+        <v>340.7</v>
+      </c>
+      <c r="G174" s="2">
+        <v>32366.5</v>
+      </c>
+      <c r="H174" t="s">
+        <v>105</v>
+      </c>
+      <c r="I174" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
+        <v>178</v>
+      </c>
+      <c r="D175" t="s">
+        <v>91</v>
+      </c>
+      <c r="E175">
+        <v>36</v>
+      </c>
+      <c r="F175" s="2">
+        <v>374.31</v>
+      </c>
+      <c r="G175" s="2">
+        <v>13475.16</v>
+      </c>
+      <c r="H175" t="s">
+        <v>97</v>
+      </c>
+      <c r="I175" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176" t="s">
+        <v>179</v>
+      </c>
+      <c r="D176" t="s">
+        <v>91</v>
+      </c>
+      <c r="E176">
+        <v>20</v>
+      </c>
+      <c r="F176" s="2">
+        <v>360.11</v>
+      </c>
+      <c r="G176" s="2">
+        <v>7202.2</v>
+      </c>
+      <c r="H176" t="s">
+        <v>97</v>
+      </c>
+      <c r="I176" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>180</v>
+      </c>
+      <c r="D177" t="s">
+        <v>91</v>
+      </c>
+      <c r="E177">
+        <v>12</v>
+      </c>
+      <c r="F177" s="2">
+        <v>315.7</v>
+      </c>
+      <c r="G177" s="2">
+        <v>3788.4</v>
+      </c>
+      <c r="H177" t="s">
+        <v>97</v>
+      </c>
+      <c r="I177" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178">
+        <v>7</v>
+      </c>
+      <c r="C178" t="s">
+        <v>181</v>
+      </c>
+      <c r="D178" t="s">
+        <v>92</v>
+      </c>
+      <c r="E178">
+        <v>40</v>
+      </c>
+      <c r="F178" s="2">
+        <v>358.53</v>
+      </c>
+      <c r="G178" s="2">
+        <v>14341.2</v>
+      </c>
+      <c r="H178" t="s">
+        <v>97</v>
+      </c>
+      <c r="I178" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179">
+        <v>6</v>
+      </c>
+      <c r="C179" t="s">
+        <v>182</v>
+      </c>
+      <c r="D179" t="s">
+        <v>91</v>
+      </c>
+      <c r="E179">
+        <v>12</v>
+      </c>
+      <c r="F179" s="2">
+        <v>486.42</v>
+      </c>
+      <c r="G179" s="2">
+        <v>5837.04</v>
+      </c>
+      <c r="H179" t="s">
+        <v>97</v>
+      </c>
+      <c r="I179" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>16</v>
+      </c>
+      <c r="B180">
+        <v>25</v>
+      </c>
+      <c r="C180" t="s">
+        <v>182</v>
+      </c>
+      <c r="D180" t="s">
+        <v>92</v>
+      </c>
+      <c r="E180">
+        <v>130</v>
+      </c>
+      <c r="F180" s="2">
+        <v>60.33</v>
+      </c>
+      <c r="G180" s="2">
+        <v>7842.9</v>
+      </c>
+      <c r="H180" t="s">
+        <v>102</v>
+      </c>
+      <c r="I180" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>183</v>
+      </c>
+      <c r="D181" t="s">
+        <v>91</v>
+      </c>
+      <c r="E181">
+        <v>36</v>
+      </c>
+      <c r="F181" s="2">
+        <v>341</v>
+      </c>
+      <c r="G181" s="2">
+        <v>12276</v>
+      </c>
+      <c r="H181" t="s">
+        <v>97</v>
+      </c>
+      <c r="I181" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>16</v>
+      </c>
+      <c r="B182">
+        <v>27</v>
+      </c>
+      <c r="C182" t="s">
+        <v>184</v>
+      </c>
+      <c r="D182" t="s">
+        <v>92</v>
+      </c>
+      <c r="E182">
+        <v>343</v>
+      </c>
+      <c r="F182" s="2">
+        <v>42.53</v>
+      </c>
+      <c r="G182" s="2">
+        <v>14587.79</v>
+      </c>
+      <c r="H182" t="s">
+        <v>103</v>
+      </c>
+      <c r="I182" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s">
+        <v>185</v>
+      </c>
+      <c r="D183" t="s">
+        <v>91</v>
+      </c>
+      <c r="E183">
+        <v>36</v>
+      </c>
+      <c r="F183" s="2">
+        <v>444.39</v>
+      </c>
+      <c r="G183" s="2">
+        <v>15998.04</v>
+      </c>
+      <c r="H183" t="s">
+        <v>97</v>
+      </c>
+      <c r="I183" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>28</v>
+      </c>
+      <c r="B184">
+        <v>27</v>
+      </c>
+      <c r="C184" t="s">
+        <v>185</v>
+      </c>
+      <c r="D184" t="s">
+        <v>92</v>
+      </c>
+      <c r="E184">
+        <v>25</v>
+      </c>
+      <c r="F184" s="2">
+        <v>0</v>
+      </c>
+      <c r="G184" s="2">
+        <v>0</v>
+      </c>
+      <c r="H184" t="s">
+        <v>115</v>
+      </c>
+      <c r="I184" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>16</v>
+      </c>
+      <c r="B185">
+        <v>28</v>
+      </c>
+      <c r="C185" t="s">
+        <v>186</v>
+      </c>
+      <c r="D185" t="s">
+        <v>92</v>
+      </c>
+      <c r="E185">
+        <v>220</v>
+      </c>
+      <c r="F185" s="2">
+        <v>58.33</v>
+      </c>
+      <c r="G185" s="2">
+        <v>12832.6</v>
+      </c>
+      <c r="H185" t="s">
+        <v>102</v>
+      </c>
+      <c r="I185" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>28</v>
+      </c>
+      <c r="B186">
+        <v>28</v>
+      </c>
+      <c r="C186" t="s">
+        <v>186</v>
+      </c>
+      <c r="D186" t="s">
+        <v>92</v>
+      </c>
+      <c r="E186">
+        <v>25</v>
+      </c>
+      <c r="F186" s="2">
+        <v>0</v>
+      </c>
+      <c r="G186" s="2">
+        <v>0</v>
+      </c>
+      <c r="H186" t="s">
+        <v>115</v>
+      </c>
+      <c r="I186" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>16</v>
+      </c>
+      <c r="B187">
+        <v>26</v>
+      </c>
+      <c r="C187" t="s">
+        <v>187</v>
+      </c>
+      <c r="D187" t="s">
+        <v>92</v>
+      </c>
+      <c r="E187">
+        <v>270</v>
+      </c>
+      <c r="F187" s="2">
+        <v>53.75</v>
+      </c>
+      <c r="G187" s="2">
+        <v>14512.5</v>
+      </c>
+      <c r="H187" t="s">
+        <v>102</v>
+      </c>
+      <c r="I187" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>28</v>
+      </c>
+      <c r="B188">
+        <v>29</v>
+      </c>
+      <c r="C188" t="s">
+        <v>188</v>
+      </c>
+      <c r="D188" t="s">
+        <v>92</v>
+      </c>
+      <c r="E188">
+        <v>25</v>
+      </c>
+      <c r="F188" s="2">
+        <v>0</v>
+      </c>
+      <c r="G188" s="2">
+        <v>0</v>
+      </c>
+      <c r="H188" t="s">
+        <v>115</v>
+      </c>
+      <c r="I188" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>11</v>
+      </c>
+      <c r="B189">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>189</v>
+      </c>
+      <c r="D189" t="s">
+        <v>92</v>
+      </c>
+      <c r="E189">
+        <v>20</v>
+      </c>
+      <c r="F189" s="2">
+        <v>270.85000000000002</v>
+      </c>
+      <c r="G189" s="2">
+        <v>5417</v>
+      </c>
+      <c r="H189" t="s">
+        <v>97</v>
+      </c>
+      <c r="I189" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190">
+        <v>10</v>
+      </c>
+      <c r="C190" t="s">
+        <v>190</v>
+      </c>
+      <c r="D190" t="s">
+        <v>92</v>
+      </c>
+      <c r="E190">
+        <v>30</v>
+      </c>
+      <c r="F190" s="2">
+        <v>241.52</v>
+      </c>
+      <c r="G190" s="2">
+        <v>7245.6</v>
+      </c>
+      <c r="H190" t="s">
+        <v>97</v>
+      </c>
+      <c r="I190" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191">
+        <v>9</v>
+      </c>
+      <c r="C191" t="s">
+        <v>191</v>
+      </c>
+      <c r="D191" t="s">
+        <v>92</v>
+      </c>
+      <c r="E191">
+        <v>20</v>
+      </c>
+      <c r="F191" s="2">
+        <v>73.11</v>
+      </c>
+      <c r="G191" s="2">
+        <v>1462.2</v>
+      </c>
+      <c r="H191" t="s">
+        <v>97</v>
+      </c>
+      <c r="I191" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>16</v>
+      </c>
+      <c r="B192">
+        <v>9</v>
+      </c>
+      <c r="C192" t="s">
+        <v>192</v>
+      </c>
+      <c r="D192" t="s">
+        <v>92</v>
+      </c>
+      <c r="E192">
+        <v>50</v>
+      </c>
+      <c r="F192" s="2">
+        <v>313</v>
+      </c>
+      <c r="G192" s="2">
+        <v>15650</v>
+      </c>
+      <c r="H192" t="s">
+        <v>102</v>
+      </c>
+      <c r="I192" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193">
+        <v>24</v>
+      </c>
+      <c r="C193" t="s">
+        <v>193</v>
+      </c>
+      <c r="D193" t="s">
+        <v>92</v>
+      </c>
+      <c r="E193">
+        <v>20</v>
+      </c>
+      <c r="F193" s="2">
+        <v>244.31</v>
+      </c>
+      <c r="G193" s="2">
+        <v>4886.2</v>
+      </c>
+      <c r="H193" t="s">
+        <v>97</v>
+      </c>
+      <c r="I193" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>11</v>
+      </c>
+      <c r="B194">
+        <v>16</v>
+      </c>
+      <c r="C194" t="s">
+        <v>194</v>
+      </c>
+      <c r="D194" t="s">
+        <v>92</v>
+      </c>
+      <c r="E194">
+        <v>10</v>
+      </c>
+      <c r="F194" s="2">
+        <v>46.13</v>
+      </c>
+      <c r="G194" s="2">
+        <v>461.3</v>
+      </c>
+      <c r="H194" t="s">
+        <v>97</v>
+      </c>
+      <c r="I194" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195">
+        <v>12</v>
+      </c>
+      <c r="C195" t="s">
+        <v>195</v>
+      </c>
+      <c r="D195" t="s">
+        <v>92</v>
+      </c>
+      <c r="E195">
+        <v>15</v>
+      </c>
+      <c r="F195" s="2">
+        <v>45.14</v>
+      </c>
+      <c r="G195" s="2">
+        <v>677.1</v>
+      </c>
+      <c r="H195" t="s">
+        <v>97</v>
+      </c>
+      <c r="I195" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>28</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>196</v>
+      </c>
+      <c r="D196" t="s">
+        <v>92</v>
+      </c>
+      <c r="E196">
+        <v>50</v>
+      </c>
+      <c r="F196" s="2">
+        <v>0</v>
+      </c>
+      <c r="G196" s="2">
+        <v>0</v>
+      </c>
+      <c r="H196" t="s">
+        <v>115</v>
+      </c>
+      <c r="I196" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>28</v>
+      </c>
+      <c r="B197">
+        <v>44</v>
+      </c>
+      <c r="C197" t="s">
+        <v>197</v>
+      </c>
+      <c r="D197" t="s">
+        <v>92</v>
+      </c>
+      <c r="E197">
+        <v>250</v>
+      </c>
+      <c r="F197" s="2">
+        <v>0</v>
+      </c>
+      <c r="G197" s="2">
+        <v>0</v>
+      </c>
+      <c r="H197" t="s">
+        <v>115</v>
+      </c>
+      <c r="I197" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>28</v>
+      </c>
+      <c r="B198">
+        <v>47</v>
+      </c>
+      <c r="C198" t="s">
+        <v>198</v>
+      </c>
+      <c r="D198" t="s">
+        <v>92</v>
+      </c>
+      <c r="E198">
+        <v>70</v>
+      </c>
+      <c r="F198" s="2">
+        <v>0</v>
+      </c>
+      <c r="G198" s="2">
+        <v>0</v>
+      </c>
+      <c r="H198" t="s">
+        <v>115</v>
+      </c>
+      <c r="I198" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>28</v>
+      </c>
+      <c r="B199">
+        <v>48</v>
+      </c>
+      <c r="C199" t="s">
+        <v>199</v>
+      </c>
+      <c r="D199" t="s">
+        <v>92</v>
+      </c>
+      <c r="E199">
+        <v>15</v>
+      </c>
+      <c r="F199" s="2">
+        <v>0</v>
+      </c>
+      <c r="G199" s="2">
+        <v>0</v>
+      </c>
+      <c r="H199" t="s">
+        <v>115</v>
+      </c>
+      <c r="I199" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
+      </c>
+      <c r="C200" t="s">
+        <v>44</v>
+      </c>
+      <c r="D200" t="s">
+        <v>92</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="F200" s="2">
+        <v>926.87</v>
+      </c>
+      <c r="G200" s="2">
+        <v>1853.74</v>
+      </c>
+      <c r="H200" t="s">
+        <v>99</v>
+      </c>
+      <c r="I200" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>14</v>
+      </c>
+      <c r="B201">
+        <v>56</v>
+      </c>
+      <c r="C201" t="s">
+        <v>45</v>
+      </c>
+      <c r="D201" t="s">
+        <v>92</v>
+      </c>
+      <c r="E201">
+        <v>10</v>
+      </c>
+      <c r="F201" s="2">
+        <v>86.05</v>
+      </c>
+      <c r="G201" s="2">
+        <v>860.5</v>
+      </c>
+      <c r="H201" t="s">
+        <v>100</v>
+      </c>
+      <c r="I201" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202">
+        <v>14</v>
+      </c>
+      <c r="C202" t="s">
+        <v>52</v>
+      </c>
+      <c r="D202" t="s">
+        <v>92</v>
+      </c>
+      <c r="E202">
+        <v>4</v>
+      </c>
+      <c r="F202" s="2">
+        <v>160</v>
+      </c>
+      <c r="G202" s="2">
+        <v>640</v>
+      </c>
+      <c r="H202" t="s">
+        <v>99</v>
+      </c>
+      <c r="I202" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>51</v>
+      </c>
+      <c r="D203" t="s">
+        <v>92</v>
+      </c>
+      <c r="E203">
+        <v>3</v>
+      </c>
+      <c r="F203" s="2">
+        <v>90</v>
+      </c>
+      <c r="G203" s="2">
+        <v>270</v>
+      </c>
+      <c r="H203" t="s">
+        <v>99</v>
+      </c>
+      <c r="I203" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>28</v>
+      </c>
+      <c r="B204">
+        <v>34</v>
+      </c>
+      <c r="C204" t="s">
+        <v>71</v>
+      </c>
+      <c r="D204" t="s">
+        <v>92</v>
+      </c>
+      <c r="E204">
+        <v>100</v>
+      </c>
+      <c r="F204" s="2">
+        <v>0</v>
+      </c>
+      <c r="G204" s="2">
+        <v>0</v>
+      </c>
+      <c r="H204" t="s">
+        <v>115</v>
+      </c>
+      <c r="I204" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>28</v>
+      </c>
+      <c r="B205">
+        <v>33</v>
+      </c>
+      <c r="C205" t="s">
+        <v>70</v>
+      </c>
+      <c r="D205" t="s">
+        <v>92</v>
+      </c>
+      <c r="E205">
+        <v>200</v>
+      </c>
+      <c r="F205" s="2">
+        <v>0</v>
+      </c>
+      <c r="G205" s="2">
+        <v>0</v>
+      </c>
+      <c r="H205" t="s">
+        <v>115</v>
+      </c>
+      <c r="I205" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>28</v>
+      </c>
+      <c r="B206">
+        <v>35</v>
+      </c>
+      <c r="C206" t="s">
+        <v>70</v>
+      </c>
+      <c r="D206" t="s">
+        <v>92</v>
+      </c>
+      <c r="E206">
+        <v>200</v>
+      </c>
+      <c r="F206" s="2">
+        <v>0</v>
+      </c>
+      <c r="G206" s="2">
+        <v>0</v>
+      </c>
+      <c r="H206" t="s">
+        <v>115</v>
+      </c>
+      <c r="I206" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>31</v>
+      </c>
+      <c r="B207">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>82</v>
+      </c>
+      <c r="D207" t="s">
+        <v>92</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207" s="2">
+        <v>1223.67</v>
+      </c>
+      <c r="G207" s="2">
+        <v>1223.67</v>
+      </c>
+      <c r="H207" t="s">
+        <v>118</v>
+      </c>
+      <c r="I207" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>16</v>
+      </c>
+      <c r="B208">
+        <v>10</v>
+      </c>
+      <c r="C208" t="s">
+        <v>47</v>
+      </c>
+      <c r="D208" t="s">
+        <v>92</v>
+      </c>
+      <c r="E208">
+        <v>3</v>
+      </c>
+      <c r="F208" s="2">
+        <v>64021.46</v>
+      </c>
+      <c r="G208" s="2">
+        <v>192064.38</v>
+      </c>
+      <c r="H208" t="s">
+        <v>102</v>
+      </c>
+      <c r="I208" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>16</v>
+      </c>
+      <c r="B209">
+        <v>64</v>
+      </c>
+      <c r="C209" t="s">
+        <v>47</v>
+      </c>
+      <c r="D209" t="s">
+        <v>92</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209" s="2">
+        <v>64021.46</v>
+      </c>
+      <c r="G209" s="2">
+        <v>64021.46</v>
+      </c>
+      <c r="H209" t="s">
+        <v>105</v>
+      </c>
+      <c r="I209" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>25</v>
+      </c>
+      <c r="B210">
+        <v>32</v>
+      </c>
+      <c r="C210" t="s">
+        <v>62</v>
+      </c>
+      <c r="D210" t="s">
+        <v>92</v>
+      </c>
+      <c r="E210">
+        <v>15</v>
+      </c>
+      <c r="F210" s="2">
+        <v>6396.33</v>
+      </c>
+      <c r="G210" s="2">
+        <v>95944.95</v>
+      </c>
+      <c r="H210" t="s">
+        <v>113</v>
+      </c>
+      <c r="I210" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>25</v>
+      </c>
+      <c r="B211">
+        <v>33</v>
+      </c>
+      <c r="C211" t="s">
+        <v>62</v>
+      </c>
+      <c r="D211" t="s">
+        <v>92</v>
+      </c>
+      <c r="E211">
+        <v>5</v>
+      </c>
+      <c r="F211" s="2">
+        <v>6396.33</v>
+      </c>
+      <c r="G211" s="2">
+        <v>31981.65</v>
+      </c>
+      <c r="H211" t="s">
+        <v>113</v>
+      </c>
+      <c r="I211" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>33</v>
+      </c>
+      <c r="B212">
+        <v>11</v>
+      </c>
+      <c r="C212" t="s">
+        <v>84</v>
+      </c>
+      <c r="D212" t="s">
+        <v>92</v>
+      </c>
+      <c r="E212">
+        <v>10</v>
+      </c>
+      <c r="F212" s="2">
+        <v>3753.33</v>
+      </c>
+      <c r="G212" s="2">
+        <v>37533.300000000003</v>
+      </c>
+      <c r="H212" t="s">
+        <v>120</v>
+      </c>
+      <c r="I212" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>35</v>
+      </c>
+      <c r="B213">
+        <v>88</v>
+      </c>
+      <c r="C213" t="s">
+        <v>84</v>
+      </c>
+      <c r="D213" t="s">
+        <v>92</v>
+      </c>
+      <c r="E213">
+        <v>14</v>
+      </c>
+      <c r="F213" s="2">
+        <v>3400</v>
+      </c>
+      <c r="G213" s="2">
+        <v>47600</v>
+      </c>
+      <c r="H213" t="s">
+        <v>121</v>
+      </c>
+      <c r="I213" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>26</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+      <c r="C214" t="s">
+        <v>64</v>
+      </c>
+      <c r="D214" t="s">
+        <v>92</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214" s="2">
+        <v>1350.39</v>
+      </c>
+      <c r="G214" s="2">
+        <v>1350.39</v>
+      </c>
+      <c r="H214" t="s">
+        <v>112</v>
+      </c>
+      <c r="I214" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>24</v>
+      </c>
+      <c r="B215">
+        <v>7</v>
+      </c>
+      <c r="C215" t="s">
+        <v>61</v>
+      </c>
+      <c r="D215" t="s">
+        <v>92</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215" s="2">
+        <v>3419.54</v>
+      </c>
+      <c r="G215" s="2">
+        <v>3419.54</v>
+      </c>
+      <c r="H215" t="s">
+        <v>112</v>
+      </c>
+      <c r="I215" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>30</v>
+      </c>
+      <c r="B216">
+        <v>25</v>
+      </c>
+      <c r="C216" t="s">
+        <v>78</v>
+      </c>
+      <c r="D216" t="s">
+        <v>92</v>
+      </c>
+      <c r="E216">
+        <v>47</v>
+      </c>
+      <c r="F216" s="2">
+        <v>0</v>
+      </c>
+      <c r="G216" s="2">
+        <v>0</v>
+      </c>
+      <c r="H216" t="s">
+        <v>117</v>
+      </c>
+      <c r="I216" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>17</v>
+      </c>
+      <c r="B217">
+        <v>23</v>
+      </c>
+      <c r="C217" t="s">
+        <v>53</v>
+      </c>
+      <c r="D217" t="s">
+        <v>92</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+      <c r="F217" s="2">
+        <v>900</v>
+      </c>
+      <c r="G217" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H217" t="s">
+        <v>99</v>
+      </c>
+      <c r="I217" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>31</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="C218" t="s">
+        <v>81</v>
+      </c>
+      <c r="D218" t="s">
+        <v>92</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218" s="2">
+        <v>252.76</v>
+      </c>
+      <c r="G218" s="2">
+        <v>252.76</v>
+      </c>
+      <c r="H218" t="s">
+        <v>118</v>
+      </c>
+      <c r="I218" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>28</v>
+      </c>
+      <c r="B219">
+        <v>8</v>
+      </c>
+      <c r="C219" t="s">
+        <v>66</v>
+      </c>
+      <c r="D219" t="s">
+        <v>92</v>
+      </c>
+      <c r="E219">
+        <v>100</v>
+      </c>
+      <c r="F219" s="2">
+        <v>0</v>
+      </c>
+      <c r="G219" s="2">
+        <v>0</v>
+      </c>
+      <c r="H219" t="s">
+        <v>115</v>
+      </c>
+      <c r="I219" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>28</v>
+      </c>
+      <c r="B220">
+        <v>9</v>
+      </c>
+      <c r="C220" t="s">
+        <v>66</v>
+      </c>
+      <c r="D220" t="s">
+        <v>92</v>
+      </c>
+      <c r="E220">
+        <v>60</v>
+      </c>
+      <c r="F220" s="2">
+        <v>0</v>
+      </c>
+      <c r="G220" s="2">
+        <v>0</v>
+      </c>
+      <c r="H220" t="s">
+        <v>115</v>
+      </c>
+      <c r="I220" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>25</v>
+      </c>
+      <c r="B221">
+        <v>38</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>92</v>
+      </c>
+      <c r="E221">
+        <v>20</v>
+      </c>
+      <c r="F221" s="2">
+        <v>910</v>
+      </c>
+      <c r="G221" s="2">
+        <v>18200</v>
+      </c>
+      <c r="H221" t="s">
+        <v>113</v>
+      </c>
+      <c r="I221" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>20</v>
+      </c>
+      <c r="B222">
+        <v>9</v>
+      </c>
+      <c r="C222" t="s">
+        <v>56</v>
+      </c>
+      <c r="D222" t="s">
+        <v>92</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222" s="2">
+        <v>2291.23</v>
+      </c>
+      <c r="G222" s="2">
+        <v>2291.23</v>
+      </c>
+      <c r="H222" t="s">
+        <v>108</v>
+      </c>
+      <c r="I222" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>33</v>
+      </c>
+      <c r="B223">
+        <v>12</v>
+      </c>
+      <c r="C223" t="s">
+        <v>85</v>
+      </c>
+      <c r="D223" t="s">
+        <v>92</v>
+      </c>
+      <c r="E223">
+        <v>10</v>
+      </c>
+      <c r="F223" s="2">
+        <v>822.89</v>
+      </c>
+      <c r="G223" s="2">
+        <v>8228.9</v>
+      </c>
+      <c r="H223" t="s">
+        <v>120</v>
+      </c>
+      <c r="I223" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>30</v>
+      </c>
+      <c r="B224">
+        <v>29</v>
+      </c>
+      <c r="C224" t="s">
+        <v>79</v>
+      </c>
+      <c r="D224" t="s">
+        <v>92</v>
+      </c>
+      <c r="E224">
+        <v>32</v>
+      </c>
+      <c r="F224" s="2">
+        <v>0</v>
+      </c>
+      <c r="G224" s="2">
+        <v>0</v>
+      </c>
+      <c r="H224" t="s">
+        <v>117</v>
+      </c>
+      <c r="I224" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>23</v>
+      </c>
+      <c r="B225">
+        <v>9</v>
+      </c>
+      <c r="C225" t="s">
+        <v>60</v>
+      </c>
+      <c r="D225" t="s">
+        <v>92</v>
+      </c>
+      <c r="E225">
+        <v>576</v>
+      </c>
+      <c r="F225" s="2">
+        <v>229.17</v>
+      </c>
+      <c r="G225" s="2">
+        <v>132001.92000000001</v>
+      </c>
+      <c r="H225" t="s">
+        <v>111</v>
+      </c>
+      <c r="I225" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>12</v>
+      </c>
+      <c r="B226">
+        <v>340</v>
+      </c>
+      <c r="C226" t="s">
+        <v>41</v>
+      </c>
+      <c r="D226" t="s">
+        <v>93</v>
+      </c>
+      <c r="E226">
+        <v>19</v>
+      </c>
+      <c r="F226" s="2">
+        <v>30.3</v>
+      </c>
+      <c r="G226" s="2">
+        <v>575.70000000000005</v>
+      </c>
+      <c r="H226" t="s">
+        <v>98</v>
+      </c>
+      <c r="I226" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K238">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DOWNLOADS/master.xlsx
+++ b/DOWNLOADS/master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="323">
   <si>
     <t>ARQUIVO</t>
   </si>
@@ -43,31 +43,184 @@
     <t>INTERVALO_LANCES</t>
   </si>
   <si>
-    <t>U_102150_E_902292025_18-09-2025_09h00m.xlsx</t>
-  </si>
-  <si>
-    <t>U_102328_E_900132025_18-09-2025_09h00m.xlsx</t>
-  </si>
-  <si>
-    <t>U_160251_E_900022025_11-09-2025_08h00m.xlsx</t>
-  </si>
-  <si>
-    <t>U_453330_E_900432025_19-09-2025_10h00m.xlsx</t>
-  </si>
-  <si>
-    <t>U_453747_E_900282025_23-09-2025_09h00m.xlsx</t>
+    <t>U_102150_E_902292025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DE_CIENCIA_TECNOL_E_INOVAÇÃO___ESP-HOSPITAL_UNIVERSITÁRIO_-_USP_18-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_157249_E_900032025_C_MINISTÉRIO_DA_EDUCAÇÃO___Hospital_Universitário_da_Universidade_Federal_de_Roraima_17-09-2025_10h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_158154_E_906062025_C_MINISTÉRIO_DA_EDUCAÇÃO___INSTITUTO_FEDERAL_DE_EDUCAÇÃO__CIÊNCIA_E_TECNOLOGIA_DE_SÃO_PAULO_18-09-2025_09h30m.xlsx</t>
+  </si>
+  <si>
+    <t>U_380167_E_900142025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DE_ADMINISTRACAO_PENITENCIARIA___ESP-PENIT__JOAO_B__DE_SANTANA_19-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_453330_E_900432025_C_PREFEITURA_DA_ESTANCIA_HIDROMINERAL_DE_POA_ESTADO_DE_SAO_PAULO_19-09-2025_10h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_453747_E_900282025_C_Governo_do_Estado_do_Maranhão___DEFENSORIA_PUBLICA_DO_ESTADO_MARANHÃO_23-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_765720_E_900222025_C_MINISTÉRIO_DA_DEFESA___COMANDO_DA_MARINHA___Hospital_Naval_Marcilio_Dias_18-09-2025_10h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_90145_E_900582025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DA_SAUDE___ESP-CAIS_-_PROF__CANTIDIO_DE_MOURA_CAMPOS_19-09-2025_08h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_982051_E_960412025_C_Governo_do_Estado_da_Paraíba___PREFEITURA_MUNICIPAL_DE_JOÃO_PESSOA_PB_22-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_985661_E_900202025_C_PREFEITURA_MUNICIPAL_DE_JERÔNIMO_MONTEIRO_ES_26-09-2025_08h30m.xlsx</t>
+  </si>
+  <si>
+    <t>U_985825_E_900282025_C_PREFEITURA_MUNICIPAL_DE_CASIMIRO_DE_ABREU_19-09-2025_10h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_987663_E_900802025_C_PREFEITURA_MUNICIPAL_DE_LOANDA_18-09-2025_09h00m.xlsx</t>
   </si>
   <si>
     <t>Caixa som Caixa Som Potência: Por Canal 3W, Voltagem: 5 VdcV, Aplicação: Computador, Características Adicionais: Áudio 2.0 Sáida Para Fone De Ouvido E Controle De</t>
   </si>
   <si>
-    <t>Conector Elétrico Conector Elétrico Voltagem: 12V, Características Adicionais: 3 Pinos Macho, Metálico, 32 M.A P/Microfone, Cone-</t>
-  </si>
-  <si>
-    <t>Projetor multimídia Projetor Multimídia Tipo Lâmpada: Led, Voltagem: BivoltV, Quantidade Entradas Vídeo: 2UN, Tipo Zoom: Digital, Tipo: Profissional, Características Adicionais: Hdmi, Vga, Conexão: Usb, Wi-Fi, Miracast, Luminosidade Mínima: 6.000LM, Tipo Projeção: Frontal, Resolução: 1920 X 1200</t>
-  </si>
-  <si>
-    <t>Equipamento videoconferência Equipamento Videoconferência Capacidade Zoom: 12X, Resolução Imagem: 15 Quadros/Segundo, Resolução Vídeo: 352 X 288 Pixels Em Fcif/175 X 144 Pixels Em Qcif, Tipo Áudio: Bidirecional, Função: Rastreamento Voz/Sistema Operacional Independente/, Freqüência: 47 A 63HZ, Tensão Operação: 90 A 260VCA, Capacidade Memória: 10 Posições Na Câmara, Características Adicionais: Microfone C/3 Elementos Captação/Câmara C/Controle</t>
+    <t>Suporte Suporte Tipo: Suporte Para Mesa Ou Bancada, Material: Aço Carbono, Aplicação: Suporte Para Caixa De Som E Monitor De Audio, Altura: 20CM, Largura: 180MM, Características Adicionais: Peso Suportado 10 Kg, Acabamento: Pintura Eletrostática Texturizada, Profundidade: 20CM</t>
+  </si>
+  <si>
+    <t>Estante - Partitura Estante - Partitura Material: Metal, Tipo: Desmontável, Largura: 500MM, Altura: 1500MM</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Metronomo Digital, Aplicação: Marcador De Compasso Musical, Características Adicionais: Visor Lcd Digital Alimentado Por 2 Pilhas Aaa</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Sopro Instrumento Musical - Sopro Tipo: Tubo Jg Boomwhackers, Características Adicionais: Escala Diatônica, 8 Tons</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Pandeiro, Material: Madeira/Pele, Tamanho: 6POL</t>
+  </si>
+  <si>
+    <t>Amplificador De Áudio Amplificador De Áudio Potência Saída: 63W, Características Adicionais: 01 Canal, Com Bluetooth, Frequência: 20 Hz A 20KHZ</t>
+  </si>
+  <si>
+    <t>Piano Piano Tipo: Digital, Modelo: Portátil, Tecla: 88 Teclas, Tipo Som: Polifonia 256, Acessórios: S/ Banqueta, C/ Pedal</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Sopro Instrumento Musical - Sopro Tipo: Flauta Doce, Acabamento Superficial: Resina, Características Adicionais: Barroca</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Sopro Instrumento Musical - Sopro Tipo: Escaleta, Acabamento Superficial: Plástico, Características Adicionais: 37 Teclas, Bocal, Extensão, Case</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Encordoamento, Aplicação: Harpa</t>
+  </si>
+  <si>
+    <t>Diapasão Diapasão Tipo: Afinador De Contato, Nível Afinação: /- 1 Centésimo, Características Adicionais: Clip-On, Visor Lcd, Bateria De Lítio, Aplicação: Instrumento Musical De Corda</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Xilofone, Material: Madeira/Metal, Componentes: 44 Teclas 3,5 Oitavas, Com Extensão De F4 A C8, Tamanho: 67 X 37 X 145CM, Características Adicionais: Suporte Com Travas Nas Rodas</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Metalofone, Material: Alumínio, Características Adicionais: Soprano, 11 Teclas</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Bateria, Componentes: 3 Tons E 2 Surdos Set Up: Tons: 8 / 10 / 12, Características Adicionais: Com Banco, Com Estante, 2 Girafas, Com Pratos</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Corda Instrumento Musical - Corda Componentes: Com 6 Cordas E Estojo, Comprimento: 1,05M, Tipo: Violão</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Corda Instrumento Musical - Corda Componentes: Com 4 Cordas Em Aço, Comprimento: 62CM, Tipo: Cavaquinho Elétrico</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Tambor De Mola, Efeito Percussão, Material: Ploter Gráfico Amadeirado, Componentes: 1 Mola, 1 Tubo, Tamanho: 20CM, Características Adicionais: Imita Som De Trovão</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Chocalho/Ovinho, Material: Plástico, Características Adicionais: Preenchido Com Contas De Aço</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Tamborim, Material: Alumínio, Componentes: 06 Afinadores, Pele De Nylon, Tamanho: 6POL</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Agogo, Material: Metal, Componentes: 2 Cones E 1 Haste, Tamanho: 35 X 9CM</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Tantan, Material: Madeira/Couro, Componentes: Com Chave E Capa De Proteção, Tamanho: 14 X 70CM</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Reco-Reco, Material: Madeira / Bambu, Tamanho: 35 X 6CM</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Tumbadora Conga 11, 12, Material: Madeira, Couro E Metal, Características Adicionais: Com Suporte</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Atabaque, Material: Barrica De Madeira, Couro, Corda E Metal, Tamanho: 100 X 30CM</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Bongô, Material: Madeira, Tamanho: 7 X 8POL, Características Adicionais: Pele Em Couro, Cromado</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Maracá, Material: Madeira, Tamanho: 10 X 10 X 35CM</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Afuxe/Afoxé, Material: Madeira/Aço Inox, Componentes: Cabo Em Madeira, Tampa Em Abs E Esferas Em Aço In, Características Adicionais: Coberto Por Pequenas Esferas</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Campana Tubular, Material: Prata, Componentes: 26 Tubos</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Cajon Acústico, Material: Hdf, Características Adicionais: Assento Eva, Pintura Automotiva, Personalizado</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Caxixi, Material: Palha, Tamanho: 6,50 X 14 X 6,50CM, Características Adicionais: Fundo Cabaça Tratada E Sementes</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Zabumba, Material: Madeira/Plástico, Componentes: Tambor, Talabarte, Baquetas, Chave De Afinação, Tamanho: 14POL</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Tambor, Material: Madeira/Couro, Tamanho: 14POL</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Corda Instrumento Musical - Corda Componentes: Verga De Biriba, Arame De Aço, Barbantes, Cabeça,, Comprimento: 1,55M, Tipo: Berimbau</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Triângulo, Material: Aço Cromado, Componentes: Batedor E Corda, Tamanho: 25CM, Características Adicionais: Batedor Com Cabo Revestido</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Bloco Sonoro Agudo, Material: Plástico, Componentes: Com Clamp Em Alumínio</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Malacacheta, Material: Alumínio, Características Adicionais: Pele Leitosa, 20cm X 12</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Xequerê, Material: Corpo Em Madeira, Componentes: 6 Afinadores, Tamanho: 10 X 24 Cm, Características Adicionais: Pele Em Couro</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Baqueta Padrão 2b, Aplicação: Bateria, Características Adicionais: Corpo Em Marfim , Ponta De Nylon</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Baqueta, Aplicação: Tamborim</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Baqueta, Aplicação: Bombo</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Baqueta, Aplicação: Alfaia</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Baqueta, Aplicação: Gongo Sinfônico</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Maçaneta, Aplicação: Bateria, Características Adicionais: Madeira 300 Mm X 25 Mm Com Feltro</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Maceta, Aplicação: Surdo De 1ª E 2ª, Características Adicionais: Com Vara De Madeira E Cabeça De Pelúcia</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Baqueta Padrão 5b, Aplicação: Bateria, Características Adicionais: Corpo Em Marfim , Ponta De Nylon</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Talabarte, Aplicação: Surdo, Características Adicionais: Nylon, C X L: 82cm X 5cm</t>
+  </si>
+  <si>
+    <t>Eletrodo Solda Eletrodo Solda Material Indicado: Aço Baixo E Médio Teor Carbono, Diâmetro: 2,50MM, Normas Técnicas: Aws A5.1/81, Classe E-6013</t>
   </si>
   <si>
     <t>Cabo extensor Cabo Extensor Tipo: Extensor Hdmi, Tipo Saída: Hdmi Macho X Hdmi Macho, Comprimento: 2M, Aplicação: Acessório Para Equipamentos De Audiovisual, Características Adicionais: Resolução Full Hd 1080p, 1080i, 720p, 480p E 480i, Tipo Cabo: Dados, Padrão: Hdmi 2.0, Cor Da Cobertura: Preta</t>
@@ -85,22 +238,286 @@
     <t>Monitor Imagem Monitor Imagem Tamanho Tela: 23POL, Tipo Tela: Led, Tensão Operação: 100 A 240VCA, Resolução Imagem: 1920 X 1080DPI, Tipo Entrada: Hdmi, Display Port, Usb-A, Usb-C, P2 Combo, Rj45, Características Adicionais: Webccam, Microfone E Autofalantes Integrados</t>
   </si>
   <si>
+    <t>Câmera Videoconferência Câmera Videoconferência Resolução: 1280 X 720, Tipo Lente: Foco AutomáticoX, Velocidade Transmissão Vídeo: 30FPS, Características Adicionais: Webcam Usb Com Microfone Embutido</t>
+  </si>
+  <si>
+    <t>Microfone Microfone Tipo: Condensador, Resposta Freqüência: 100 Hz - 16000 HzHZ, Aplicação: Estúdio, Palco E Auditório, Padrão: Polar Super-Cardióide, Sensibilidade: -35db A 1khzDB, Cor: Preta</t>
+  </si>
+  <si>
+    <t>Caixa Som Caixa Som Potência: 11W, Cor: Preta, Voltagem: 5V, Aplicação: Computador, Características Adicionais: Subwoofer</t>
+  </si>
+  <si>
+    <t>Cabo extensor Cabo Extensor Tipo: Extensor Hdmi, Tipo Saída: Hdmi Fêmea X Rj45 Fêmea, Comprimento: 60M, Aplicação: Transmissão De Vídeo À Distância</t>
+  </si>
+  <si>
+    <t>Cabo extensor Cabo Extensor Tipo: Extensor Hdmi, Comprimento: 50M, Aplicação: Áudio E Vídeo Incl.Dolby Truehd And Dts-HdMaster, Características Adicionais: Alimentação: Ac (50hz, 60hz) 100v-240v, Tipo Cabo: Vídeo Hdmi Hdmi E Hdcp 1.4/Áudio Dolby Truehd, Dts, Referência: Sumay</t>
+  </si>
+  <si>
+    <t>Projetor multimídia Projetor Multimídia Voltagem: 100/240V, Freqüência: 50 A 60HZ, Quantidade Entrada Rgb: 1 S-Vídeo/1rcaUN, Quantidade Entradas Vídeo: 01: Svideo E 04 Pinos RcaUN, Tipo Zoom: Manual/Digital, Tipo: Portátil, Capacidade Projeção Cor: 1.07 Bilhões De CoresPX, Características Adicionais: Conexão Hdmi, Rgb E Usb, Wifi, Seen Mirror/Sharing, Luminosidade Mínima: 3.600LM, Tipo Foco: Manual, Tipo Projeção: Frontal/Traseiro/Teto/Mesa, Resolução: Nativa 1920x1200</t>
+  </si>
+  <si>
+    <t>Caixa Som Caixa Som Potência: 10W, Voltagem: Usb 5v Ou Dc 5v.V, Aplicação: Sala De Aula, Características Adicionais: Especificações Alto Falante: 2x2.Conexão: Usb E P2, Resposta Freqüência: 200</t>
+  </si>
+  <si>
+    <t>Caixa som Caixa Som Potência: 250W, Voltagem: BivoltV, Aplicação: Sala De Aula, Características Adicionais: Bateria Interna De 4500 Mah - Bluetooth4.4.0 - Dis, Componentes Adicionais: 02 X Usb, 02 X Microfone E 01 X Aux In.</t>
+  </si>
+  <si>
+    <t>Microfone Microfone Tipo: De Mão, Resposta Freqüência: 55-18000HZ, Tipo Receptor: Padrão Rack 19 Polegadas Com 2 Antenas, Características Adicionais: Uhf, Kit De Montagem, Alcance: Mínimo 100M, Alimentação Externa Receptor: 110/220V, Alimentação Receptor: 3V, Aplicação: Auditório, Padrão: Polar Hipercardióide, Material: Corpo De Metal, Cor: Preta, Potência De Saída: Mínima 10MW, Referência Fabricante: Beyerdinamic Ne 900d, Relação Sinal / Ruido: Menor Que 110DB</t>
+  </si>
+  <si>
+    <t>Tela projeção Tela Projeção Material Estrutura: Alumínio, Tipo Tripé: Com Ajuste De Altura, Tipo Ajuste Tela: Acionamento Automático, Tipo Acabamento: Laminado Plástico Tipo Napa, Tipo Fixação: Tripé, Altura: 2M, Largura: 2M, Material Triplé: Alumínio, Características Adicionais: Levantamento Automático</t>
+  </si>
+  <si>
+    <t>Cabo áudio e vídeo Cabo Áudio E Vídeo Material Condutor: Cobre, Material Isolamento Condutor: Pvc, Aplicação: Microfone, Acessórios: Conector Xlr, Material Cobertura: Pvc Emborrachado, Comprimento: 5M</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Caixa Tenor, Tamanho: 14 X 12POL, Características Adicionais: Colete,Aro Duplo E 12 Afinações Com Carrier</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Quadriton, Material: Madeira, Componentes: 1 Colete 8-10-12-13, Características Adicionais: Acabamento Em Fórmica Branca</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Quinto Tom, Material: Metal, Componentes: Colete, Tambores De 6,8,10,12E 13</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Glockenspiel, Material: Aço, Componentes: 32 Teclas, Características Adicionais: Case De Madeira Tipo Valise, Teclas Free Floating</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Bombo, Material: Alumínio, Componentes: Com Talabarte, Tamanho: 22 X 30CM</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Prato, Material: Bronze, Componentes: 2 Pratos, Tamanho: 18POL, Características Adicionais: Correias Em Couro E Protetores De Mão.</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Baqueta, Aplicação: Lira</t>
+  </si>
+  <si>
+    <t>Suporte De Videocassete / Televisao Suporte De Videocassete / Televisao Material: Aço Carbono, Tipo: Pedestal, Tamanho: Televisores Lcd/Led/Plasma 32 A 75, Acabamento Superficial: Pintura Eletrostática A Pó, Cor: Preta, Características Adicionais: Altura Regulável, Rodízios E Bandeja P/Dvd/Noteboo</t>
+  </si>
+  <si>
+    <t>Caixa Som Caixa Som Potência: 1.300W, Cor: Preta, Voltagem: 110/220V, Aplicação: Sala De Aula E Eventos Em Laboratório, Características Adicionais: Possui Conectividade Bluetooth, Componentes Adicionais: Controle Remoto, Entrada Usb</t>
+  </si>
+  <si>
+    <t>Tela Projeção Tela Projeção Material Estrutura: Metal, Tipo Ajuste Tela: Automático De Parada, Tipo Acabamento: Pintura Eletrostática, Material: Vinil Blackout, Cor Acabamento: Branca, Tipo Fixação: Teto, Cor: Branca, Altura: 228,6CM, Largura: 304,8CM, Espessura: 2 A 3MM, Características Adicionais: Sensor De Corrente Para Acionamento Automático Ao, Tipo Tela: Motorizada</t>
+  </si>
+  <si>
+    <t>Tela Projeção Tela Projeção Material Estrutura: Aço, Tipo Ajuste Tela: Acionamento Retrátil E Funcionamento Rolo, Tipo Acabamento: Pintura Eletrostática, Material: Vinil, Cor: Branca, Altura: 150CM, Largura: 2,70M, Tipo Tela: Retrátil, Tamanho Tela: 120POL</t>
+  </si>
+  <si>
+    <t>Cadeira Cadeira Material: Polipropileno, Tipo Espaldar: Baixo, Cor: Variada, Características Adicionais: Estrutura Em Aço, Tipo: Concha</t>
+  </si>
+  <si>
+    <t>Fone Ouvido Fone Ouvido Tipo: Headset, Potência: 10MW, Impedância: 50OHMS, Freqüência: 50 A 16.000HZ, Comprimento Fio: 3M, Modelo: Profissional, Sensibilidade: 100DB, Cor: Preta, Acessórios: Antenas Externas, Tipo Cabo: Stereo, Distorção Harmônica Total: 0,1PER, Aplicação: Áudio, Alcance: 100M, Tipo Microfone: Omnidirecional, Equilíbrio Dos Canais: 3DB, Entrada Nominal: 40MW, Entrada Máxima: 100MW, Transdutor: Dinâmico, Acoplamento Auricular: Sobre As Orelhas, Peso(Sem Cabo): 120G, Conector: Compatível Usb 1.1, 2.0, 3.0</t>
+  </si>
+  <si>
+    <t>Garrafa Térmica Garrafa Térmica Material: Plástico, Capacidade: 5L, Características Adicionais: Com Torneira, Alça E Pés Dobráveis Em Baixo.</t>
+  </si>
+  <si>
+    <t>Eletrodo Solda Eletrodo Solda Material Indicado: Aço Baixo E Médio Teor Carbono, Forma: Vareta, Diâmetro: 3,25MM, Comprimento: 350MM, Normas Técnicas: Aws E 6013</t>
+  </si>
+  <si>
     <t>Unidade</t>
   </si>
   <si>
+    <t>Quilograma</t>
+  </si>
+  <si>
     <t>Lata</t>
   </si>
   <si>
+    <t>Par</t>
+  </si>
+  <si>
+    <t>Jogo</t>
+  </si>
+  <si>
     <t>0,00</t>
   </si>
   <si>
-    <t>4,08</t>
-  </si>
-  <si>
-    <t>6376,46</t>
-  </si>
-  <si>
-    <t>58068,50</t>
+    <t>153,33</t>
+  </si>
+  <si>
+    <t>182,37</t>
+  </si>
+  <si>
+    <t>780,67</t>
+  </si>
+  <si>
+    <t>569,50</t>
+  </si>
+  <si>
+    <t>57,00</t>
+  </si>
+  <si>
+    <t>5240,00</t>
+  </si>
+  <si>
+    <t>3346,75</t>
+  </si>
+  <si>
+    <t>49,06</t>
+  </si>
+  <si>
+    <t>174,15</t>
+  </si>
+  <si>
+    <t>222,43</t>
+  </si>
+  <si>
+    <t>64,49</t>
+  </si>
+  <si>
+    <t>6451,33</t>
+  </si>
+  <si>
+    <t>1707,50</t>
+  </si>
+  <si>
+    <t>3916,20</t>
+  </si>
+  <si>
+    <t>807,32</t>
+  </si>
+  <si>
+    <t>561,00</t>
+  </si>
+  <si>
+    <t>450,42</t>
+  </si>
+  <si>
+    <t>1082,25</t>
+  </si>
+  <si>
+    <t>358,52</t>
+  </si>
+  <si>
+    <t>165,67</t>
+  </si>
+  <si>
+    <t>158,67</t>
+  </si>
+  <si>
+    <t>166,64</t>
+  </si>
+  <si>
+    <t>139,83</t>
+  </si>
+  <si>
+    <t>852,94</t>
+  </si>
+  <si>
+    <t>355,33</t>
+  </si>
+  <si>
+    <t>478,41</t>
+  </si>
+  <si>
+    <t>224,73</t>
+  </si>
+  <si>
+    <t>100,10</t>
+  </si>
+  <si>
+    <t>308,67</t>
+  </si>
+  <si>
+    <t>3324,33</t>
+  </si>
+  <si>
+    <t>3112,32</t>
+  </si>
+  <si>
+    <t>569,77</t>
+  </si>
+  <si>
+    <t>274,77</t>
+  </si>
+  <si>
+    <t>82,51</t>
+  </si>
+  <si>
+    <t>369,10</t>
+  </si>
+  <si>
+    <t>1250,00</t>
+  </si>
+  <si>
+    <t>341,59</t>
+  </si>
+  <si>
+    <t>146,43</t>
+  </si>
+  <si>
+    <t>144,67</t>
+  </si>
+  <si>
+    <t>335,60</t>
+  </si>
+  <si>
+    <t>94,00</t>
+  </si>
+  <si>
+    <t>796,67</t>
+  </si>
+  <si>
+    <t>920,16</t>
+  </si>
+  <si>
+    <t>366,33</t>
+  </si>
+  <si>
+    <t>356,33</t>
+  </si>
+  <si>
+    <t>400,00</t>
+  </si>
+  <si>
+    <t>137,78</t>
+  </si>
+  <si>
+    <t>163,64</t>
+  </si>
+  <si>
+    <t>616,66</t>
+  </si>
+  <si>
+    <t>358,60</t>
+  </si>
+  <si>
+    <t>243,63</t>
+  </si>
+  <si>
+    <t>24,27</t>
+  </si>
+  <si>
+    <t>45,05</t>
+  </si>
+  <si>
+    <t>35,40</t>
+  </si>
+  <si>
+    <t>48,97</t>
+  </si>
+  <si>
+    <t>41,11</t>
+  </si>
+  <si>
+    <t>35,31</t>
+  </si>
+  <si>
+    <t>32,37</t>
+  </si>
+  <si>
+    <t>49,95</t>
+  </si>
+  <si>
+    <t>21,98</t>
+  </si>
+  <si>
+    <t>288,06</t>
+  </si>
+  <si>
+    <t>23,50</t>
   </si>
   <si>
     <t>30,49</t>
@@ -145,13 +562,247 @@
     <t>1446,25</t>
   </si>
   <si>
-    <t>408,00</t>
-  </si>
-  <si>
-    <t>624893,08</t>
-  </si>
-  <si>
-    <t>1974329,00</t>
+    <t>168,50</t>
+  </si>
+  <si>
+    <t>220,75</t>
+  </si>
+  <si>
+    <t>85,00</t>
+  </si>
+  <si>
+    <t>78,50</t>
+  </si>
+  <si>
+    <t>127,52</t>
+  </si>
+  <si>
+    <t>4176,64</t>
+  </si>
+  <si>
+    <t>6773,95</t>
+  </si>
+  <si>
+    <t>3568,97</t>
+  </si>
+  <si>
+    <t>3950,47</t>
+  </si>
+  <si>
+    <t>5052,33</t>
+  </si>
+  <si>
+    <t>3630,00</t>
+  </si>
+  <si>
+    <t>5238,00</t>
+  </si>
+  <si>
+    <t>4675,50</t>
+  </si>
+  <si>
+    <t>4693,25</t>
+  </si>
+  <si>
+    <t>4444,75</t>
+  </si>
+  <si>
+    <t>1973,27</t>
+  </si>
+  <si>
+    <t>1615,43</t>
+  </si>
+  <si>
+    <t>347,21</t>
+  </si>
+  <si>
+    <t>300,88</t>
+  </si>
+  <si>
+    <t>28,49</t>
+  </si>
+  <si>
+    <t>1265,75</t>
+  </si>
+  <si>
+    <t>498,36</t>
+  </si>
+  <si>
+    <t>929,59</t>
+  </si>
+  <si>
+    <t>809,64</t>
+  </si>
+  <si>
+    <t>786,33</t>
+  </si>
+  <si>
+    <t>133,65</t>
+  </si>
+  <si>
+    <t>74,75</t>
+  </si>
+  <si>
+    <t>48,73</t>
+  </si>
+  <si>
+    <t>33,49</t>
+  </si>
+  <si>
+    <t>3066,60</t>
+  </si>
+  <si>
+    <t>729,48</t>
+  </si>
+  <si>
+    <t>1139,00</t>
+  </si>
+  <si>
+    <t>228,00</t>
+  </si>
+  <si>
+    <t>2158,64</t>
+  </si>
+  <si>
+    <t>696,60</t>
+  </si>
+  <si>
+    <t>1779,44</t>
+  </si>
+  <si>
+    <t>257,96</t>
+  </si>
+  <si>
+    <t>1614,64</t>
+  </si>
+  <si>
+    <t>900,84</t>
+  </si>
+  <si>
+    <t>2164,50</t>
+  </si>
+  <si>
+    <t>717,04</t>
+  </si>
+  <si>
+    <t>662,68</t>
+  </si>
+  <si>
+    <t>1269,36</t>
+  </si>
+  <si>
+    <t>666,56</t>
+  </si>
+  <si>
+    <t>559,32</t>
+  </si>
+  <si>
+    <t>1913,64</t>
+  </si>
+  <si>
+    <t>898,92</t>
+  </si>
+  <si>
+    <t>200,20</t>
+  </si>
+  <si>
+    <t>617,34</t>
+  </si>
+  <si>
+    <t>6224,64</t>
+  </si>
+  <si>
+    <t>2279,08</t>
+  </si>
+  <si>
+    <t>1099,08</t>
+  </si>
+  <si>
+    <t>330,04</t>
+  </si>
+  <si>
+    <t>738,20</t>
+  </si>
+  <si>
+    <t>5000,00</t>
+  </si>
+  <si>
+    <t>683,18</t>
+  </si>
+  <si>
+    <t>585,72</t>
+  </si>
+  <si>
+    <t>289,34</t>
+  </si>
+  <si>
+    <t>1342,40</t>
+  </si>
+  <si>
+    <t>940,00</t>
+  </si>
+  <si>
+    <t>3186,68</t>
+  </si>
+  <si>
+    <t>3680,64</t>
+  </si>
+  <si>
+    <t>732,66</t>
+  </si>
+  <si>
+    <t>712,66</t>
+  </si>
+  <si>
+    <t>800,00</t>
+  </si>
+  <si>
+    <t>1102,24</t>
+  </si>
+  <si>
+    <t>654,56</t>
+  </si>
+  <si>
+    <t>1233,32</t>
+  </si>
+  <si>
+    <t>1434,40</t>
+  </si>
+  <si>
+    <t>974,52</t>
+  </si>
+  <si>
+    <t>388,32</t>
+  </si>
+  <si>
+    <t>225,25</t>
+  </si>
+  <si>
+    <t>283,20</t>
+  </si>
+  <si>
+    <t>293,82</t>
+  </si>
+  <si>
+    <t>82,22</t>
+  </si>
+  <si>
+    <t>141,24</t>
+  </si>
+  <si>
+    <t>258,96</t>
+  </si>
+  <si>
+    <t>199,80</t>
+  </si>
+  <si>
+    <t>351,68</t>
+  </si>
+  <si>
+    <t>1152,24</t>
+  </si>
+  <si>
+    <t>705,00</t>
   </si>
   <si>
     <t>609,80</t>
@@ -199,31 +850,139 @@
     <t>180781,25</t>
   </si>
   <si>
+    <t>3370,00</t>
+  </si>
+  <si>
+    <t>2649,00</t>
+  </si>
+  <si>
+    <t>1700,00</t>
+  </si>
+  <si>
+    <t>785,00</t>
+  </si>
+  <si>
+    <t>1275,20</t>
+  </si>
+  <si>
+    <t>54191,60</t>
+  </si>
+  <si>
+    <t>7137,94</t>
+  </si>
+  <si>
+    <t>7900,94</t>
+  </si>
+  <si>
+    <t>10104,66</t>
+  </si>
+  <si>
+    <t>54450,00</t>
+  </si>
+  <si>
+    <t>10476,00</t>
+  </si>
+  <si>
+    <t>18702,00</t>
+  </si>
+  <si>
+    <t>18773,00</t>
+  </si>
+  <si>
+    <t>17779,00</t>
+  </si>
+  <si>
+    <t>7893,08</t>
+  </si>
+  <si>
+    <t>6461,72</t>
+  </si>
+  <si>
+    <t>3472,10</t>
+  </si>
+  <si>
+    <t>3008,80</t>
+  </si>
+  <si>
+    <t>854,70</t>
+  </si>
+  <si>
+    <t>25315,00</t>
+  </si>
+  <si>
+    <t>1495,08</t>
+  </si>
+  <si>
+    <t>1859,18</t>
+  </si>
+  <si>
+    <t>2428,92</t>
+  </si>
+  <si>
+    <t>1572,66</t>
+  </si>
+  <si>
+    <t>1603,80</t>
+  </si>
+  <si>
+    <t>2616,25</t>
+  </si>
+  <si>
+    <t>4873,00</t>
+  </si>
+  <si>
+    <t>1172,15</t>
+  </si>
+  <si>
     <t>São Paulo/SP</t>
   </si>
   <si>
-    <t>Tupã/SP</t>
+    <t>Boa Vista/RR</t>
+  </si>
+  <si>
+    <t>Riolândia/SP</t>
+  </si>
+  <si>
+    <t>Poá/SP</t>
+  </si>
+  <si>
+    <t>São Luís/MA</t>
   </si>
   <si>
     <t>Rio de Janeiro/RJ</t>
   </si>
   <si>
-    <t>Poá/SP</t>
-  </si>
-  <si>
-    <t>São Luís/MA</t>
+    <t>Botucatu/SP</t>
+  </si>
+  <si>
+    <t>João Pessoa/PB</t>
+  </si>
+  <si>
+    <t>Jerônimo Monteiro/ES</t>
+  </si>
+  <si>
+    <t>Casimiro de Abreu/RJ</t>
+  </si>
+  <si>
+    <t>Loanda/PR</t>
   </si>
   <si>
     <t>0,70</t>
   </si>
   <si>
+    <t>0,75</t>
+  </si>
+  <si>
+    <t>0,01</t>
+  </si>
+  <si>
+    <t>0,02</t>
+  </si>
+  <si>
     <t>1,00</t>
   </si>
   <si>
-    <t>0,10</t>
-  </si>
-  <si>
-    <t>0,75</t>
+    <t>0,50</t>
   </si>
 </sst>
 </file>
@@ -581,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,25 +1383,25 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>306</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -650,28 +1409,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -679,28 +1438,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>306</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -708,463 +1467,3189 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>306</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E10">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>117</v>
-      </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E14">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E15">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E16">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E17">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E18">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E19">
-        <v>375</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>306</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" t="s">
+        <v>220</v>
+      </c>
+      <c r="H20" t="s">
+        <v>306</v>
+      </c>
+      <c r="I20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" t="s">
+        <v>221</v>
+      </c>
+      <c r="H21" t="s">
+        <v>306</v>
+      </c>
+      <c r="I21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" t="s">
+        <v>306</v>
+      </c>
+      <c r="I22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" t="s">
+        <v>306</v>
+      </c>
+      <c r="I23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" t="s">
+        <v>224</v>
+      </c>
+      <c r="H24" t="s">
+        <v>306</v>
+      </c>
+      <c r="I24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" t="s">
+        <v>225</v>
+      </c>
+      <c r="H25" t="s">
+        <v>306</v>
+      </c>
+      <c r="I25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" t="s">
+        <v>226</v>
+      </c>
+      <c r="H26" t="s">
+        <v>306</v>
+      </c>
+      <c r="I26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" t="s">
+        <v>306</v>
+      </c>
+      <c r="I27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" t="s">
+        <v>306</v>
+      </c>
+      <c r="I28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" t="s">
+        <v>306</v>
+      </c>
+      <c r="I29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" t="s">
+        <v>228</v>
+      </c>
+      <c r="H30" t="s">
+        <v>306</v>
+      </c>
+      <c r="I30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" t="s">
+        <v>229</v>
+      </c>
+      <c r="H31" t="s">
+        <v>306</v>
+      </c>
+      <c r="I31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" t="s">
+        <v>230</v>
+      </c>
+      <c r="H32" t="s">
+        <v>306</v>
+      </c>
+      <c r="I32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" t="s">
+        <v>306</v>
+      </c>
+      <c r="I33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" t="s">
+        <v>231</v>
+      </c>
+      <c r="H34" t="s">
+        <v>306</v>
+      </c>
+      <c r="I34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" t="s">
+        <v>232</v>
+      </c>
+      <c r="H35" t="s">
+        <v>306</v>
+      </c>
+      <c r="I35" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" t="s">
+        <v>233</v>
+      </c>
+      <c r="H36" t="s">
+        <v>306</v>
+      </c>
+      <c r="I36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" t="s">
+        <v>234</v>
+      </c>
+      <c r="H37" t="s">
+        <v>306</v>
+      </c>
+      <c r="I37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" t="s">
+        <v>235</v>
+      </c>
+      <c r="H38" t="s">
+        <v>306</v>
+      </c>
+      <c r="I38" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" t="s">
+        <v>236</v>
+      </c>
+      <c r="H39" t="s">
+        <v>306</v>
+      </c>
+      <c r="I39" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" t="s">
+        <v>237</v>
+      </c>
+      <c r="H40" t="s">
+        <v>306</v>
+      </c>
+      <c r="I40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H41" t="s">
+        <v>306</v>
+      </c>
+      <c r="I41" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" t="s">
+        <v>239</v>
+      </c>
+      <c r="H42" t="s">
+        <v>306</v>
+      </c>
+      <c r="I42" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" t="s">
+        <v>240</v>
+      </c>
+      <c r="H43" t="s">
+        <v>306</v>
+      </c>
+      <c r="I43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44" t="s">
+        <v>306</v>
+      </c>
+      <c r="I44" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" t="s">
+        <v>242</v>
+      </c>
+      <c r="H45" t="s">
+        <v>306</v>
+      </c>
+      <c r="I45" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>148</v>
+      </c>
+      <c r="G46" t="s">
+        <v>243</v>
+      </c>
+      <c r="H46" t="s">
+        <v>306</v>
+      </c>
+      <c r="I46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" t="s">
+        <v>244</v>
+      </c>
+      <c r="H47" t="s">
+        <v>306</v>
+      </c>
+      <c r="I47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" t="s">
+        <v>245</v>
+      </c>
+      <c r="H48" t="s">
+        <v>306</v>
+      </c>
+      <c r="I48" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>151</v>
+      </c>
+      <c r="G49" t="s">
+        <v>246</v>
+      </c>
+      <c r="H49" t="s">
+        <v>306</v>
+      </c>
+      <c r="I49" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" t="s">
+        <v>247</v>
+      </c>
+      <c r="H50" t="s">
+        <v>306</v>
+      </c>
+      <c r="I50" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" t="s">
+        <v>248</v>
+      </c>
+      <c r="H51" t="s">
+        <v>306</v>
+      </c>
+      <c r="I51" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" t="s">
+        <v>249</v>
+      </c>
+      <c r="H52" t="s">
+        <v>306</v>
+      </c>
+      <c r="I52" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53" t="s">
+        <v>250</v>
+      </c>
+      <c r="H53" t="s">
+        <v>306</v>
+      </c>
+      <c r="I53" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" t="s">
+        <v>251</v>
+      </c>
+      <c r="H54" t="s">
+        <v>306</v>
+      </c>
+      <c r="I54" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" t="s">
+        <v>252</v>
+      </c>
+      <c r="H55" t="s">
+        <v>306</v>
+      </c>
+      <c r="I55" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" t="s">
+        <v>253</v>
+      </c>
+      <c r="H56" t="s">
+        <v>306</v>
+      </c>
+      <c r="I56" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>159</v>
+      </c>
+      <c r="G57" t="s">
+        <v>254</v>
+      </c>
+      <c r="H57" t="s">
+        <v>306</v>
+      </c>
+      <c r="I57" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G58" t="s">
+        <v>255</v>
+      </c>
+      <c r="H58" t="s">
+        <v>306</v>
+      </c>
+      <c r="I58" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G59" t="s">
+        <v>256</v>
+      </c>
+      <c r="H59" t="s">
+        <v>306</v>
+      </c>
+      <c r="I59" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>162</v>
+      </c>
+      <c r="G60" t="s">
+        <v>257</v>
+      </c>
+      <c r="H60" t="s">
+        <v>306</v>
+      </c>
+      <c r="I60" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>163</v>
+      </c>
+      <c r="G61" t="s">
+        <v>258</v>
+      </c>
+      <c r="H61" t="s">
+        <v>306</v>
+      </c>
+      <c r="I61" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" t="s">
+        <v>259</v>
+      </c>
+      <c r="H62" t="s">
+        <v>306</v>
+      </c>
+      <c r="I62" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63">
+        <v>16</v>
+      </c>
+      <c r="F63" t="s">
+        <v>165</v>
+      </c>
+      <c r="G63" t="s">
+        <v>260</v>
+      </c>
+      <c r="H63" t="s">
+        <v>306</v>
+      </c>
+      <c r="I63" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>166</v>
+      </c>
+      <c r="G64" t="s">
+        <v>261</v>
+      </c>
+      <c r="H64" t="s">
+        <v>306</v>
+      </c>
+      <c r="I64" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65">
+        <v>30</v>
+      </c>
+      <c r="F65" t="s">
+        <v>167</v>
+      </c>
+      <c r="G65" t="s">
+        <v>262</v>
+      </c>
+      <c r="H65" t="s">
+        <v>308</v>
+      </c>
+      <c r="I65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
         <v>13</v>
       </c>
-      <c r="B20">
+      <c r="B66">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66">
+        <v>20</v>
+      </c>
+      <c r="F66" t="s">
+        <v>168</v>
+      </c>
+      <c r="G66" t="s">
+        <v>263</v>
+      </c>
+      <c r="H66" t="s">
+        <v>309</v>
+      </c>
+      <c r="I66" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>84</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>169</v>
+      </c>
+      <c r="G67" t="s">
+        <v>264</v>
+      </c>
+      <c r="H67" t="s">
+        <v>309</v>
+      </c>
+      <c r="I67" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68">
+        <v>85</v>
+      </c>
+      <c r="C68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>170</v>
+      </c>
+      <c r="G68" t="s">
+        <v>265</v>
+      </c>
+      <c r="H68" t="s">
+        <v>309</v>
+      </c>
+      <c r="I68" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>114</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69">
+        <v>200</v>
+      </c>
+      <c r="F69" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69" t="s">
+        <v>266</v>
+      </c>
+      <c r="H69" t="s">
+        <v>309</v>
+      </c>
+      <c r="I69" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>115</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70">
+        <v>200</v>
+      </c>
+      <c r="F70" t="s">
+        <v>172</v>
+      </c>
+      <c r="G70" t="s">
+        <v>267</v>
+      </c>
+      <c r="H70" t="s">
+        <v>309</v>
+      </c>
+      <c r="I70" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>116</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71">
+        <v>200</v>
+      </c>
+      <c r="F71" t="s">
+        <v>173</v>
+      </c>
+      <c r="G71" t="s">
+        <v>268</v>
+      </c>
+      <c r="H71" t="s">
+        <v>309</v>
+      </c>
+      <c r="I71" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72">
+        <v>117</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72">
+        <v>200</v>
+      </c>
+      <c r="F72" t="s">
+        <v>174</v>
+      </c>
+      <c r="G72" t="s">
+        <v>269</v>
+      </c>
+      <c r="H72" t="s">
+        <v>309</v>
+      </c>
+      <c r="I72" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73">
+        <v>118</v>
+      </c>
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73">
+        <v>200</v>
+      </c>
+      <c r="F73" t="s">
+        <v>175</v>
+      </c>
+      <c r="G73" t="s">
+        <v>270</v>
+      </c>
+      <c r="H73" t="s">
+        <v>309</v>
+      </c>
+      <c r="I73" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74">
+        <v>119</v>
+      </c>
+      <c r="C74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74">
+        <v>150</v>
+      </c>
+      <c r="F74" t="s">
+        <v>176</v>
+      </c>
+      <c r="G74" t="s">
+        <v>271</v>
+      </c>
+      <c r="H74" t="s">
+        <v>309</v>
+      </c>
+      <c r="I74" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>120</v>
+      </c>
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75">
+        <v>150</v>
+      </c>
+      <c r="F75" t="s">
+        <v>177</v>
+      </c>
+      <c r="G75" t="s">
+        <v>272</v>
+      </c>
+      <c r="H75" t="s">
+        <v>309</v>
+      </c>
+      <c r="I75" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>121</v>
+      </c>
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
+        <v>178</v>
+      </c>
+      <c r="G76" t="s">
+        <v>273</v>
+      </c>
+      <c r="H76" t="s">
+        <v>309</v>
+      </c>
+      <c r="I76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77">
+        <v>122</v>
+      </c>
+      <c r="C77" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E77">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
+        <v>179</v>
+      </c>
+      <c r="G77" t="s">
+        <v>274</v>
+      </c>
+      <c r="H77" t="s">
+        <v>309</v>
+      </c>
+      <c r="I77" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <v>123</v>
+      </c>
+      <c r="C78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" t="s">
+        <v>102</v>
+      </c>
+      <c r="E78">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
+        <v>180</v>
+      </c>
+      <c r="G78" t="s">
+        <v>275</v>
+      </c>
+      <c r="H78" t="s">
+        <v>309</v>
+      </c>
+      <c r="I78" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79">
+        <v>375</v>
+      </c>
+      <c r="F79" t="s">
+        <v>181</v>
+      </c>
+      <c r="G79" t="s">
+        <v>276</v>
+      </c>
+      <c r="H79" t="s">
+        <v>310</v>
+      </c>
+      <c r="I79" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C80" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80">
+        <v>125</v>
+      </c>
+      <c r="F80" t="s">
+        <v>181</v>
+      </c>
+      <c r="G80" t="s">
+        <v>277</v>
+      </c>
+      <c r="H80" t="s">
+        <v>310</v>
+      </c>
+      <c r="I80" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81">
+        <v>20</v>
+      </c>
+      <c r="F81" t="s">
+        <v>182</v>
+      </c>
+      <c r="G81" t="s">
+        <v>278</v>
+      </c>
+      <c r="H81" t="s">
+        <v>311</v>
+      </c>
+      <c r="I81" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82">
         <v>22</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>183</v>
+      </c>
+      <c r="G82" t="s">
+        <v>279</v>
+      </c>
+      <c r="H82" t="s">
+        <v>311</v>
+      </c>
+      <c r="I82" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83">
         <v>23</v>
       </c>
-      <c r="E20">
-        <v>125</v>
-      </c>
-      <c r="F20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="C83" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" t="s">
+        <v>103</v>
+      </c>
+      <c r="E83">
+        <v>20</v>
+      </c>
+      <c r="F83" t="s">
+        <v>184</v>
+      </c>
+      <c r="G83" t="s">
+        <v>280</v>
+      </c>
+      <c r="H83" t="s">
+        <v>311</v>
+      </c>
+      <c r="I83" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84">
+        <v>47</v>
+      </c>
+      <c r="C84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" t="s">
+        <v>100</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>185</v>
+      </c>
+      <c r="G84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H84" t="s">
+        <v>311</v>
+      </c>
+      <c r="I84" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85">
+        <v>48</v>
+      </c>
+      <c r="C85" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>186</v>
+      </c>
+      <c r="G85" t="s">
+        <v>282</v>
+      </c>
+      <c r="H85" t="s">
+        <v>311</v>
+      </c>
+      <c r="I85" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86">
+        <v>52</v>
+      </c>
+      <c r="C86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>187</v>
+      </c>
+      <c r="G86" t="s">
+        <v>187</v>
+      </c>
+      <c r="H86" t="s">
+        <v>311</v>
+      </c>
+      <c r="I86" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87" t="s">
+        <v>105</v>
+      </c>
+      <c r="G87" t="s">
+        <v>105</v>
+      </c>
+      <c r="H87" t="s">
+        <v>312</v>
+      </c>
+      <c r="I87" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88">
+        <v>17</v>
+      </c>
+      <c r="C88" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88" t="s">
+        <v>100</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>105</v>
+      </c>
+      <c r="G88" t="s">
+        <v>105</v>
+      </c>
+      <c r="H88" t="s">
+        <v>313</v>
+      </c>
+      <c r="I88" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>82</v>
+      </c>
+      <c r="D89" t="s">
+        <v>100</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89" t="s">
+        <v>105</v>
+      </c>
+      <c r="G89" t="s">
+        <v>105</v>
+      </c>
+      <c r="H89" t="s">
+        <v>313</v>
+      </c>
+      <c r="I89" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90">
+        <v>20</v>
+      </c>
+      <c r="C90" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" t="s">
+        <v>100</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90" t="s">
+        <v>105</v>
+      </c>
+      <c r="G90" t="s">
+        <v>105</v>
+      </c>
+      <c r="H90" t="s">
+        <v>313</v>
+      </c>
+      <c r="I90" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91">
+        <v>41</v>
+      </c>
+      <c r="C91" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" t="s">
+        <v>100</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>105</v>
+      </c>
+      <c r="G91" t="s">
+        <v>105</v>
+      </c>
+      <c r="H91" t="s">
+        <v>313</v>
+      </c>
+      <c r="I91" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E92">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>188</v>
+      </c>
+      <c r="G92" t="s">
+        <v>283</v>
+      </c>
+      <c r="H92" t="s">
+        <v>314</v>
+      </c>
+      <c r="I92" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>86</v>
+      </c>
+      <c r="D93" t="s">
+        <v>100</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>189</v>
+      </c>
+      <c r="G93" t="s">
+        <v>284</v>
+      </c>
+      <c r="H93" t="s">
+        <v>314</v>
+      </c>
+      <c r="I93" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94" t="s">
+        <v>100</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s">
+        <v>190</v>
+      </c>
+      <c r="G94" t="s">
+        <v>285</v>
+      </c>
+      <c r="H94" t="s">
+        <v>314</v>
+      </c>
+      <c r="I94" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D95" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95" t="s">
+        <v>191</v>
+      </c>
+      <c r="G95" t="s">
+        <v>286</v>
+      </c>
+      <c r="H95" t="s">
+        <v>314</v>
+      </c>
+      <c r="I95" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>88</v>
+      </c>
+      <c r="D96" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96">
+        <v>15</v>
+      </c>
+      <c r="F96" t="s">
+        <v>192</v>
+      </c>
+      <c r="G96" t="s">
+        <v>287</v>
+      </c>
+      <c r="H96" t="s">
+        <v>314</v>
+      </c>
+      <c r="I96" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>89</v>
+      </c>
+      <c r="D97" t="s">
+        <v>100</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>193</v>
+      </c>
+      <c r="G97" t="s">
+        <v>288</v>
+      </c>
+      <c r="H97" t="s">
+        <v>314</v>
+      </c>
+      <c r="I97" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98" t="s">
+        <v>100</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>194</v>
+      </c>
+      <c r="G98" t="s">
+        <v>289</v>
+      </c>
+      <c r="H98" t="s">
+        <v>314</v>
+      </c>
+      <c r="I98" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>89</v>
+      </c>
+      <c r="D99" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>195</v>
+      </c>
+      <c r="G99" t="s">
+        <v>290</v>
+      </c>
+      <c r="H99" t="s">
+        <v>314</v>
+      </c>
+      <c r="I99" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>89</v>
+      </c>
+      <c r="D100" t="s">
+        <v>100</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>196</v>
+      </c>
+      <c r="G100" t="s">
+        <v>291</v>
+      </c>
+      <c r="H100" t="s">
+        <v>314</v>
+      </c>
+      <c r="I100" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>90</v>
+      </c>
+      <c r="D101" t="s">
+        <v>104</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>197</v>
+      </c>
+      <c r="G101" t="s">
+        <v>292</v>
+      </c>
+      <c r="H101" t="s">
+        <v>314</v>
+      </c>
+      <c r="I101" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>90</v>
+      </c>
+      <c r="D102" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102" t="s">
+        <v>198</v>
+      </c>
+      <c r="G102" t="s">
+        <v>293</v>
+      </c>
+      <c r="H102" t="s">
+        <v>314</v>
+      </c>
+      <c r="I102" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>61</v>
+      </c>
+      <c r="D103" t="s">
+        <v>104</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>199</v>
+      </c>
+      <c r="G103" t="s">
+        <v>294</v>
+      </c>
+      <c r="H103" t="s">
+        <v>314</v>
+      </c>
+      <c r="I103" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104" t="s">
+        <v>104</v>
+      </c>
+      <c r="E104">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>200</v>
+      </c>
+      <c r="G104" t="s">
+        <v>295</v>
+      </c>
+      <c r="H104" t="s">
+        <v>314</v>
+      </c>
+      <c r="I104" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>91</v>
+      </c>
+      <c r="D105" t="s">
+        <v>100</v>
+      </c>
+      <c r="E105">
+        <v>30</v>
+      </c>
+      <c r="F105" t="s">
+        <v>201</v>
+      </c>
+      <c r="G105" t="s">
+        <v>296</v>
+      </c>
+      <c r="H105" t="s">
+        <v>314</v>
+      </c>
+      <c r="I105" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" t="s">
+        <v>100</v>
+      </c>
+      <c r="E106">
+        <v>20</v>
+      </c>
+      <c r="F106" t="s">
+        <v>202</v>
+      </c>
+      <c r="G106" t="s">
+        <v>297</v>
+      </c>
+      <c r="H106" t="s">
+        <v>314</v>
+      </c>
+      <c r="I106" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>92</v>
+      </c>
+      <c r="D107" t="s">
+        <v>100</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107" t="s">
+        <v>203</v>
+      </c>
+      <c r="G107" t="s">
+        <v>298</v>
+      </c>
+      <c r="H107" t="s">
+        <v>315</v>
+      </c>
+      <c r="I107" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108">
+        <v>19</v>
+      </c>
+      <c r="C108" t="s">
+        <v>93</v>
+      </c>
+      <c r="D108" t="s">
+        <v>100</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108" t="s">
+        <v>204</v>
+      </c>
+      <c r="G108" t="s">
+        <v>299</v>
+      </c>
+      <c r="H108" t="s">
+        <v>315</v>
+      </c>
+      <c r="I108" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109">
+        <v>21</v>
+      </c>
+      <c r="C109" t="s">
+        <v>94</v>
+      </c>
+      <c r="D109" t="s">
+        <v>100</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109" t="s">
+        <v>205</v>
+      </c>
+      <c r="G109" t="s">
+        <v>300</v>
+      </c>
+      <c r="H109" t="s">
+        <v>315</v>
+      </c>
+      <c r="I109" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110">
+        <v>22</v>
+      </c>
+      <c r="C110" t="s">
+        <v>95</v>
+      </c>
+      <c r="D110" t="s">
+        <v>100</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110" t="s">
+        <v>206</v>
+      </c>
+      <c r="G110" t="s">
+        <v>301</v>
+      </c>
+      <c r="H110" t="s">
+        <v>315</v>
+      </c>
+      <c r="I110" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111">
+        <v>26</v>
+      </c>
+      <c r="C111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D111" t="s">
+        <v>100</v>
+      </c>
+      <c r="E111">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
+        <v>207</v>
+      </c>
+      <c r="G111" t="s">
+        <v>302</v>
+      </c>
+      <c r="H111" t="s">
+        <v>315</v>
+      </c>
+      <c r="I111" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112">
         <v>65</v>
       </c>
-      <c r="I20" t="s">
-        <v>69</v>
+      <c r="C112" t="s">
+        <v>97</v>
+      </c>
+      <c r="D112" t="s">
+        <v>100</v>
+      </c>
+      <c r="E112">
+        <v>35</v>
+      </c>
+      <c r="F112" t="s">
+        <v>208</v>
+      </c>
+      <c r="G112" t="s">
+        <v>303</v>
+      </c>
+      <c r="H112" t="s">
+        <v>315</v>
+      </c>
+      <c r="I112" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113">
+        <v>149</v>
+      </c>
+      <c r="C113" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" t="s">
+        <v>100</v>
+      </c>
+      <c r="E113">
+        <v>100</v>
+      </c>
+      <c r="F113" t="s">
+        <v>209</v>
+      </c>
+      <c r="G113" t="s">
+        <v>304</v>
+      </c>
+      <c r="H113" t="s">
+        <v>316</v>
+      </c>
+      <c r="I113" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114">
+        <v>425</v>
+      </c>
+      <c r="C114" t="s">
+        <v>99</v>
+      </c>
+      <c r="D114" t="s">
+        <v>101</v>
+      </c>
+      <c r="E114">
+        <v>35</v>
+      </c>
+      <c r="F114" t="s">
+        <v>210</v>
+      </c>
+      <c r="G114" t="s">
+        <v>305</v>
+      </c>
+      <c r="H114" t="s">
+        <v>316</v>
+      </c>
+      <c r="I114" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/master.xlsx
+++ b/DOWNLOADS/master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="686">
   <si>
     <t>ARQUIVO</t>
   </si>
@@ -43,45 +43,192 @@
     <t>INTERVALO_LANCES</t>
   </si>
   <si>
-    <t>U_102150_E_902292025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DE_CIENCIA_TECNOL_E_INOVAÇÃO___ESP-HOSPITAL_UNIVERSITÁRIO_-_USP_18-09-2025_09h00m.xlsx</t>
-  </si>
-  <si>
-    <t>U_157249_E_900032025_C_MINISTÉRIO_DA_EDUCAÇÃO___Hospital_Universitário_da_Universidade_Federal_de_Roraima_17-09-2025_10h00m.xlsx</t>
-  </si>
-  <si>
-    <t>U_158154_E_906062025_C_MINISTÉRIO_DA_EDUCAÇÃO___INSTITUTO_FEDERAL_DE_EDUCAÇÃO__CIÊNCIA_E_TECNOLOGIA_DE_SÃO_PAULO_18-09-2025_09h30m.xlsx</t>
-  </si>
-  <si>
-    <t>U_380167_E_900142025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DE_ADMINISTRACAO_PENITENCIARIA___ESP-PENIT__JOAO_B__DE_SANTANA_19-09-2025_09h00m.xlsx</t>
-  </si>
-  <si>
-    <t>U_453330_E_900432025_C_PREFEITURA_DA_ESTANCIA_HIDROMINERAL_DE_POA_ESTADO_DE_SAO_PAULO_19-09-2025_10h00m.xlsx</t>
-  </si>
-  <si>
-    <t>U_453747_E_900282025_C_Governo_do_Estado_do_Maranhão___DEFENSORIA_PUBLICA_DO_ESTADO_MARANHÃO_23-09-2025_09h00m.xlsx</t>
-  </si>
-  <si>
-    <t>U_765720_E_900222025_C_MINISTÉRIO_DA_DEFESA___COMANDO_DA_MARINHA___Hospital_Naval_Marcilio_Dias_18-09-2025_10h00m.xlsx</t>
-  </si>
-  <si>
-    <t>U_90145_E_900582025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DA_SAUDE___ESP-CAIS_-_PROF__CANTIDIO_DE_MOURA_CAMPOS_19-09-2025_08h00m.xlsx</t>
-  </si>
-  <si>
-    <t>U_982051_E_960412025_C_Governo_do_Estado_da_Paraíba___PREFEITURA_MUNICIPAL_DE_JOÃO_PESSOA_PB_22-09-2025_09h00m.xlsx</t>
-  </si>
-  <si>
-    <t>U_985661_E_900202025_C_PREFEITURA_MUNICIPAL_DE_JERÔNIMO_MONTEIRO_ES_26-09-2025_08h30m.xlsx</t>
-  </si>
-  <si>
-    <t>U_985825_E_900282025_C_PREFEITURA_MUNICIPAL_DE_CASIMIRO_DE_ABREU_19-09-2025_10h00m.xlsx</t>
-  </si>
-  <si>
-    <t>U_987663_E_900802025_C_PREFEITURA_MUNICIPAL_DE_LOANDA_18-09-2025_09h00m.xlsx</t>
+    <t>de8d139031942d718dc07760f30efdfa.xlsx</t>
+  </si>
+  <si>
+    <t>U_102150_E_902292025_18-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_102305_E_900072025_11-09-2025_08h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_102333_E_900012025_15-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_120625_E_901012025_15-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_120669_E_900282025_11-09-2025_10h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_153049_E_910052025_16-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_157249_E_900032025_17-09-2025_10h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_158154_E_906062025_18-09-2025_09h30m.xlsx</t>
+  </si>
+  <si>
+    <t>U_160167_E_900102025_10-09-2025_08h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_160251_E_900022025_11-09-2025_08h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_160253_E_900082025_15-09-2025_09h30m.xlsx</t>
+  </si>
+  <si>
+    <t>U_180101_E_900252025_11-09-2025_08h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_380167_E_900142025_19-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_380231_E_900152025_15-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_453330_E_900432025_19-09-2025_10h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_453714_E_900152025_25-09-2025_09h30m.xlsx</t>
+  </si>
+  <si>
+    <t>U_453737_E_900102025_15-09-2025_08h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_453747_E_900282025_23-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_765720_E_900222025_18-09-2025_10h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_90145_E_900582025_19-09-2025_08h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_90147_E_900392025_10-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_925743_E_900142025_11-09-2025_09h30m.xlsx</t>
+  </si>
+  <si>
+    <t>U_925974_E_903972025_17-09-2025_10h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_927996_E_904492025_17-09-2025_09h15m.xlsx</t>
+  </si>
+  <si>
+    <t>U_928341_E_900112025_11-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_928709_E_900012025_15-09-2025_08h30m.xlsx</t>
+  </si>
+  <si>
+    <t>U_980228_E_900082025_17-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_982051_E_960412025_22-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_984675_E_900692025_17-09-2025_08h30m.xlsx</t>
+  </si>
+  <si>
+    <t>U_985015_E_900612025_18-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_985661_E_900202025_26-09-2025_08h30m.xlsx</t>
+  </si>
+  <si>
+    <t>U_985811_E_900482025_18-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_985825_E_900282025_19-09-2025_10h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_985853_E_900222025_15-09-2025_10h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_987663_E_900802025_18-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>U_987915_E_900662025_16-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
+    <t>Conector Elétrico Conector Elétrico Voltagem: 12V, Características Adicionais: 3 Pinos Macho, Metálico, 32 M.A P/Microfone, Cone-</t>
   </si>
   <si>
     <t>Caixa som Caixa Som Potência: Por Canal 3W, Voltagem: 5 VdcV, Aplicação: Computador, Características Adicionais: Áudio 2.0 Sáida Para Fone De Ouvido E Controle De</t>
   </si>
   <si>
+    <t>Óleo lubrificante Óleo Lubrificante. Apresentação: Aerosol, Origem: Mineral Derivado De Petróleo, Características Adicionais: Aditivos Inibidores Corrosão E Oxidação, Desengri, Tipo: Wd-40, Aplicação: Lubrificação De Peças</t>
+  </si>
+  <si>
+    <t>Cabo áudio e vídeo Cabo Áudio E Vídeo Material Condutor: Cobre, Material Isolamento Condutor: Pvc, Aplicação: Microfone, Acessórios: Conector Xlr, Material Cobertura: Pvc Emborrachado, Comprimento: 10M</t>
+  </si>
+  <si>
+    <t>Projetor Multimídia Projetor Multimídia Tipo Lâmpada: Uhe, Potência Lâmpada: 200W, Voltagem: 100/240V, Freqüência: 50 A 60HZ, Quantidade Entradas Vídeo: 1UN, Tamanho Mínimo Imagem: 30POL, Tipo Zoom: Manual, Quantidade Autofalantes: 1UN, Tipo: Teto E Mesa, Luminosidade Mínima: 3.400LM, Tipo Foco: Manual, Tipo Projeção: Frontal/Retroprojeção/Teto, Resolução: 1920 X 1080 Full Hd, Contraste Mínimo: 16.000:1</t>
+  </si>
+  <si>
+    <t>FILMADORA/MONITOR PORTÁTIL MICROFONE SEM FIO. CONJUNTO DE DOIS MICROFONES SEM FIO UHF DESTINADO AO USO EM PEQUENOS EVENTOS E LOCAIS DE PEQUENO PORTE, PODENDO UTILIZAR ATE 4 SISTEMAS DO MESMO MODELO, DESDE QUE O USUARIO ATENDA AS REGRAS DE USO DO PRODUTO. (CONFORME O ANEXO A - TABELA TR)</t>
+  </si>
+  <si>
+    <t>MICROFONE MICROFONE DUPLO SEM FIO, 2.2.1. HEAD-SET (MICROFONE DE CABECA): CAPSULA DE ELETRETO CARDIOIDE UNIDIRECIONAL CONECTOR MINI XLR FEMEA 3 PINOS TIARA QUE SE ENCAIXA DE FORMA CONFORTAVEL PROPORCIONANDO FACILIDADE NA HORA DO USO RESPOSTA DE FREQUENCIA: 80  8.000HZ COR: PRETO (CONFORME O ANEXO A - TABELA TR).</t>
+  </si>
+  <si>
+    <t>MICROFONE BASE BOX SOLTEIRAO. MEDIDAS 108X198X36 (COM OS PES). CARACTERISTICAS: BASE: ESPUMA 100 POLIURETANO DE ALTA DENSIDADE NA PARTE SUPERIOR. BORDADO EM MATELASSE NA LATERAL DA CAMA. ESPUMA PRODUZIDA COM POLIOL A BASE DE SOJA, TRATAMENTO ACTGUARD. ESTRUTURA INTERNA EM MADEIRA DE REFLORESTAMENTO. REFERENCIA: ORTOBOM SOMMIER NOBUCK CREAM OU SIMILAR.</t>
+  </si>
+  <si>
+    <t>CAIXA SOM CAIXA DE SOM AMPLIFICADA MULTIUSO COM POTENCIA DE 200 W RMS, VOLTAGEM:127/220 V, ALTO FALANTE DE 15 POLEGADAS E 2 (DOIS) TWEETER PIEZOELETRICO, EQUALIZADOR DE TRES VIAS (GRAVES, MEDIOS, AGUDOS)</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Óleo Lubrificante, Aplicação: Para Pistos</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Palheta, Aplicação: Sax Barítono, Características Adicionais: Nº 2 1/2</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Palheta, Aplicação: Sax Tenor 2,5</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Palheta, Aplicação: Clarineta, Características Adicionais: Nº 3</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Palheta, Aplicação: Saxofone Alto Mib, Características Adicionais: Cana De Origem Francesa Nº 2,5</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Palheta, Aplicação: Clarone Sib, Características Adicionais: Cana De Origem Francesa Nº 3</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Baqueta, Aplicação: Bateria, Características Adicionais: Madeira Modelo 5a</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Baqueta, Aplicação: Bateria, Características Adicionais: Madeira Modelo 5a</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Óleo Lubrificante, Aplicação: Instrumentos De Sopro</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Pele, Aplicação: Caixa De Bateria 14, Características Adicionais: Porosa</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Esteira Superior Interna De 28 Fios, Aplicação: Caixa De Guerra Profissional 14 Para Banda De Gai, Características Adicionais: Conforme Modelo</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Pele, Aplicação: Bombo De Bateria 22, Características Adicionais: Filme Simples Com 7 Mil (0,18mm) De Espessura</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Pele, Aplicação: Caixa Resposta, Características Adicionais: Eon314sa</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Talabarte, Aplicação: Caixa De Guerra, Características Adicionais: Cor Preta Com Gancho</t>
+  </si>
+  <si>
+    <t>Câmera videoconferência Câmera Videoconferência Resolução: 1080, Tipo Lente: Foco AutomáticoX, Velocidade Transmissão Vídeo: 30FPS, Características Adicionais: Webcam, Microfone Duplo Unidirecional</t>
+  </si>
+  <si>
+    <t>Tubo isolante Tubo Isolante Material: Pvc - Cloreto De Polivinila, Tipo: Espaguete Termo-Retrátil, Aplicação: Cabo De Microfone</t>
+  </si>
+  <si>
     <t>Suporte Suporte Tipo: Suporte Para Mesa Ou Bancada, Material: Aço Carbono, Aplicação: Suporte Para Caixa De Som E Monitor De Audio, Altura: 20CM, Largura: 180MM, Características Adicionais: Peso Suportado 10 Kg, Acabamento: Pintura Eletrostática Texturizada, Profundidade: 20CM</t>
   </si>
   <si>
@@ -220,9 +367,162 @@
     <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Talabarte, Aplicação: Surdo, Características Adicionais: Nylon, C X L: 82cm X 5cm</t>
   </si>
   <si>
+    <t>Instrumento musical - sopro Instrumento Musical - Sopro Tipo: Sousafone, Acabamento Superficial: Folheado A Prata, Características Adicionais: Sib</t>
+  </si>
+  <si>
+    <t>Instrumento musical - sopro Instrumento Musical - Sopro Tipo: Trombone, Acabamento Superficial: Bronze</t>
+  </si>
+  <si>
+    <t>Instrumento musical - sopro Instrumento Musical - Sopro Tipo: Trompete, Acabamento Superficial: Laqueado</t>
+  </si>
+  <si>
+    <t>Instrumento musical - sopro Instrumento Musical - Sopro Tipo: Clarinete, Acabamento Superficial: Abs, Características Adicionais: 17 Chaves E 06 Anéis</t>
+  </si>
+  <si>
+    <t>Instrumento musical - sopro Instrumento Musical - Sopro Tipo: Saxofone Alto, Acabamento Superficial: Laqueado, Características Adicionais: Chave De F Agudo</t>
+  </si>
+  <si>
+    <t>Instrumento musical - sopro Instrumento Musical - Sopro Tipo: Saxofone Tenor, Acabamento Superficial: Laqueado, Características Adicionais: Chave De F Agudo</t>
+  </si>
+  <si>
+    <t>Instrumento musical - sopro Instrumento Musical - Sopro Tipo: Bombardino, Tamanho: Largo, Acabamento Superficial: Laqueado, Características Adicionais: 03 Válvulas, Tubos Macho/Fêmea</t>
+  </si>
+  <si>
+    <t>Instrumento musical - sopro Instrumento Musical - Sopro Tipo: Corneta, Tamanho: Curta, Acabamento Superficial: Sib Niquelado</t>
+  </si>
+  <si>
+    <t>Instrumento musical - percursão Instrumento Musical - Percursão Tipo: Bombo, Material: Alumínio, Componentes: Com Talabarte, Tamanho: 22 X 30CM</t>
+  </si>
+  <si>
+    <t>Instrumento musical - percursão Instrumento Musical - Percursão Tipo: Caixa Tenor, Tamanho: 14 X 12POL, Características Adicionais: Colete,Aro Duplo E 12 Afinações Com Carrier</t>
+  </si>
+  <si>
+    <t>Instrumento musical - percursão Instrumento Musical - Percursão Tipo: Prato, Material: Bronze, Componentes: 2 Pratos, Tamanho: 14POL, Características Adicionais: Modelo: Ziltannan</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Teclado, Aplicação: Musical, Características Adicionais: 61 Teclas 5/8 Oitavas</t>
+  </si>
+  <si>
+    <t>Instrumento musical - corda Instrumento Musical - Corda Componentes: Com 6 Cordas, Aço, Afinador Digital, Tipo: Violão Elétrico</t>
+  </si>
+  <si>
+    <t>Instrumento musical - corda Instrumento Musical - Corda Componentes: Com Corpo Em Basswood, Braço Em Maple, Tipo: Guitarra Elétrica</t>
+  </si>
+  <si>
+    <t>Instrumento musical - corda Instrumento Musical - Corda Componentes: Com 5 Cordas E Estojo, Tipo: Contrabaixo Elétrico</t>
+  </si>
+  <si>
+    <t>Instrumento musical - percursão Instrumento Musical - Percursão Tipo: Bateria, Material: Madeira/Metal, Componentes: Bumbo 20x18 Tom 10x8 E 12x9 Surdo 14x14 Caixa 1</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Suporte De Solo, Aplicação: Saxofone Alto/Saxofone Tenor, Características Adicionais 1: Com Pino De Travamento De Bloqueio Do Suporte</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Suporte De Solo, Aplicação: Trompete, Características Adicionais 1: Dobravel , Área De Contato Com O Instrumento Revest</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Suporte De Solo, Aplicação: Clarinete, Características Adicionais 1: Dobrável, Acondicionamento Dentro Da Campana Do In</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Suporte De Solo, Aplicação: Trombone A Vara, Características Adicionais 1: Dobrável E CompactoBase De Contato Com O Instrume</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Suporte De Solo, Aplicação: Bombardino, Características Adicionais 1: Estojo Em Tecido, Retratil, Corpo Em Metal, Pés</t>
+  </si>
+  <si>
+    <t>Estante - partitura Estante - Partitura Material: Metal, Tipo: Desmontável, Largura: 500MM, Altura: 1500MM</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Surdina, Aplicação: Trompete, Características Adicionais: Tipo Buble, Confeccionado Em Cobre</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Palheta, Aplicação: Sax Tenor Bb</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Palheta, Aplicação: Saxofone, Características Adicionais: Tenor Sib, Tensão: 3</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Palheta, Aplicação: Saxofone Alto, Características Adicionais: Nº 3</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Palheta, Aplicação: Clarineta, Características Adicionais: Nº 2 1/2</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Pele, Aplicação: Bombo, Características Adicionais: Hidráulica 22, Filme Duplo</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Pele Porosa, Aplicação: Surdo, Características Adicionais: Hidráulica 14</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Baqueta, Aplicação: Bombo</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Baqueta, Aplicação: Bateria, Características Adicionais: Madeira Modelo 7a</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Talabarte, Aplicação: Bumbo, Características Adicionais: Material:Nylon Cor: Preto Comprimento 190cm(Max)</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Kit De Limpeza, Aplicação: Bombardino, Características Adicionais 1: 05 Itens 01 Óleo Lubrificante Para Pistos01 Crem</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Kit De Limpeza, Aplicação: Trompete, Características Adicionais 1: 05 Itens 01 Óleo Lubrificante Para Pistos01 Crem</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Kit De Limpeza, Aplicação: Saxofone Alto, Características Adicionais 1: 07 Itens: 01 Escova Secadora Para O Instrumento 0</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Kit De Limpeza, Aplicação: Trombone, Características Adicionais 1: Óleo Lubrificante,Escovas, Graxa E Flanela</t>
+  </si>
+  <si>
+    <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Creme, Aplicação: Trombone Á Vara</t>
+  </si>
+  <si>
+    <t>Estante - partitura Estante - Partitura Material: Madeira, Comprimento: 490MM, Largura: 300MM, Características Adicionais: Suporte Para Batuta, Pedestal Em Metal E Pés Retrá</t>
+  </si>
+  <si>
+    <t>Projetor multimídia Projetor Multimídia Tipo Lâmpada: Led, Voltagem: BivoltV, Quantidade Entradas Vídeo: 2UN, Tipo Zoom: Digital, Tipo: Profissional, Características Adicionais: Hdmi, Vga, Conexão: Usb, Wi-Fi, Miracast, Luminosidade Mínima: 6.000LM, Tipo Projeção: Frontal, Resolução: 1920 X 1200</t>
+  </si>
+  <si>
+    <t>Equipamento videoconferência Equipamento Videoconferência Capacidade Zoom: 12X, Resolução Imagem: 15 Quadros/Segundo, Resolução Vídeo: 352 X 288 Pixels Em Fcif/175 X 144 Pixels Em Qcif, Tipo Áudio: Bidirecional, Função: Rastreamento Voz/Sistema Operacional Independente/, Freqüência: 47 A 63HZ, Tensão Operação: 90 A 260VCA, Capacidade Memória: 10 Posições Na Câmara, Características Adicionais: Microfone C/3 Elementos Captação/Câmara C/Controle</t>
+  </si>
+  <si>
+    <t>Microfone Microfone Tipo: De Mão Com Fio, Características Adicionais: Sistema Microfone Modular(Cápsula E Fonte Alimen-, Padrão: De Captação Direcional P/ Captação De Sons A</t>
+  </si>
+  <si>
+    <t>Pedestal microfone Pedestal Microfone Tipo: Girafa, Formato Base: Tripé, Acabamento Superficial: Metal Fosco, Comprimento Haste: 90CM</t>
+  </si>
+  <si>
+    <t>Caixa som Caixa Som Potência: 200W, Cor: Preta, Voltagem: 110/220V, Tipo Fonte: Interna, Aplicação: Uso Em Geral, Impedância: 100KW, Resposta Freqüência: 60 Hz, Profundidade: 300MM</t>
+  </si>
+  <si>
+    <t>Caixa som Caixa Som Potência: 1.300W, Cor: Preta, Voltagem: 110/220V, Aplicação: Sala De Aula E Eventos Em Laboratório, Características Adicionais: Possui Conectividade Bluetooth, Componentes Adicionais: Controle Remoto, Entrada Usb</t>
+  </si>
+  <si>
+    <t>Câmera web Câmera Web Conexão: Interface Usb 2.0, Captura Cores: 30 Fps, Tamanho Imagem: 1280 X 720 Pixels, Compatibilidade: Windows 10, Resolução: Full Hd 1080MPX, Características Adicionais: Microfone Embutido</t>
+  </si>
+  <si>
+    <t>Cabo Extensor Cabo Extensor Tipo: Blindado Reforçado, Tipo Saída: Hdmi Macho X Hdmi Macho 19 Pinos, Comprimento: 10M, Aplicação: Projetor Multimídia, Características Adicionais: Cabo Com Filtro, Padrão: Hdmi 2.0, Material Condutor: Pinos Banhados A Ouro</t>
+  </si>
+  <si>
+    <t>Caixa Som Caixa Som Potência: 10W, Voltagem: 110/220V, Tipo Fonte: Interna, Características Adicionais: Woofer 3, Tweeter, Crossover Blindado Magneticame</t>
+  </si>
+  <si>
+    <t>Fone Ouvido Fone Ouvido Tipo: Headset, Freqüência: 31,5 Hz - 20KHZ, Comprimento Fio: 1,80M, Tipo Fone: Mono, Características Adicionais: Almofadas Com Espuma, Redução De Ruídos, Sensibilidade: - 40DB, Conector: Usb</t>
+  </si>
+  <si>
+    <t>Memória Flash Memória Flash Capacidade: 32GB, Tipo: Pen Drive, Interface: Usb 2.0 E Windows Xp/Vista/7, Características Adicionais: Acabamento Emborrachado/Resistente À Agua, Acessórios: Cabo Extensor Usb 2.0</t>
+  </si>
+  <si>
+    <t>Câmera Web Câmera Web Conexão: Via Interface Usb, Tamanho Imagem: 1080 X 720 Pixels, Compatibilidade: Windows 10, Resolução: 3.0 MPX, Características Adicionais: Microfone Embutido</t>
+  </si>
+  <si>
     <t>Eletrodo Solda Eletrodo Solda Material Indicado: Aço Baixo E Médio Teor Carbono, Diâmetro: 2,50MM, Normas Técnicas: Aws A5.1/81, Classe E-6013</t>
   </si>
   <si>
+    <t>Óleo Lubrificante. Óleo Lubrificante. Apresentação: Aerosol, Origem: Mineral Derivado De Petróleo, Características Adicionais: Aditivos Inibidores Corrosão E Oxidação, Desengri, Tipo: Wd-40, Aplicação: Lubrificação De Peças</t>
+  </si>
+  <si>
     <t>Cabo extensor Cabo Extensor Tipo: Extensor Hdmi, Tipo Saída: Hdmi Macho X Hdmi Macho, Comprimento: 2M, Aplicação: Acessório Para Equipamentos De Audiovisual, Características Adicionais: Resolução Full Hd 1080p, 1080i, 720p, 480p E 480i, Tipo Cabo: Dados, Padrão: Hdmi 2.0, Cor Da Cobertura: Preta</t>
   </si>
   <si>
@@ -235,6 +535,21 @@
     <t>Tinta acrílica Tinta Acrílica Componentes: Resina Acrílica, Pigmentos Ativos E Inerte, Aspecto Físico: Líquido Viscoso, Cor: Tubarão Branco, Tipo Acabamento: Fosco, Características Adicionais: Standard, Interior/Exterior, Rendimento 170 M2</t>
   </si>
   <si>
+    <t>Fone ouvido Fone Ouvido Tipo: Headset, Freqüência: 20 Hz A 20 KhzHZ, Tipo Fone: Headset C/Controle Volume Microfone E ÁudioStereo, Características Adicionais: Alta Qualidade E Fidelidade De Áudio, Acessórios: Conector Minijack Estéreo De 3,5 Mm, Aplicação: Comunicação P/Internet Voip Skype Msn</t>
+  </si>
+  <si>
+    <t>Fone ouvido Fone Ouvido Tipo: Intra Auricular, Potência: 5MW, Impedância: 16OHMS, Freqüência: 20 A 20.000HZ, Sensibilidade: 98DB, Acessórios: Estojo De Carregamento, Ponteiras De Silicone, Tipo Cabo: Usb-C, Distorção Harmônica Total: 0,1PER, Aplicação: Áudio E Chamadas, Alcance: 10M, Tipo Microfone: Omnidirecional, Equilíbrio Dos Canais: 3DB, Entrada Nominal: 10MW, Entrada Máxima: 30MW, Transdutor: Dinâmico, Acoplamento Auricular: Intraauricular, Peso(Sem Cabo): 50G, Conector: Bluetooth 5.0</t>
+  </si>
+  <si>
+    <t>Cabo Extensor Cabo Extensor Tipo: Extensor Hdmi, Comprimento: 50M, Aplicação: Áudio E Vídeo Incl.Dolby Truehd And Dts-HdMaster, Características Adicionais: Alimentação: Ac (50hz, 60hz) 100v-240v, Tipo Cabo: Vídeo Hdmi Hdmi E Hdcp 1.4/Áudio Dolby Truehd, Dts, Referência: Sumay</t>
+  </si>
+  <si>
+    <t>Cabo Extensor Cabo Extensor Tipo Saída: Conector Dvi-D Macho X Dvi-D Macho, Comprimento: 1,50M, Aplicação: Uso Em Video, Padrão: Dvi- D</t>
+  </si>
+  <si>
+    <t>Pedestal Microfone Pedestal Microfone Material Base Sustentação: Aço Carbono, Tipo: Girafa, Formato Base: Tripé Dobrável, Acabamento Superficial: Pintura Eletrostática, Tipo Haste: Telescópica, Características Adicionais: Haste Com Regulagem De Altura E Inclinação, Altura: 1,95M</t>
+  </si>
+  <si>
     <t>Monitor Imagem Monitor Imagem Tamanho Tela: 23POL, Tipo Tela: Led, Tensão Operação: 100 A 240VCA, Resolução Imagem: 1920 X 1080DPI, Tipo Entrada: Hdmi, Display Port, Usb-A, Usb-C, P2 Combo, Rj45, Características Adicionais: Webccam, Microfone E Autofalantes Integrados</t>
   </si>
   <si>
@@ -259,6 +574,33 @@
     <t>Caixa Som Caixa Som Potência: 10W, Voltagem: Usb 5v Ou Dc 5v.V, Aplicação: Sala De Aula, Características Adicionais: Especificações Alto Falante: 2x2.Conexão: Usb E P2, Resposta Freqüência: 200</t>
   </si>
   <si>
+    <t>Fone Ouvido Fone Ouvido Tipo: Headset, Digital, Usb 2.0, Comprimento Fio: 1,90M, Tipo Fone: Estéreo Acolchoado Com Anulador De Ruídos, Características Adicionais: Plug And Play, Pivotagem Do Microfone 90, Tipo Microfone: Omnidirecional</t>
+  </si>
+  <si>
+    <t>Caixa Som Caixa Som Potência: 1.300W, Cor: Preta, Voltagem: 110/220V, Aplicação: Sala De Aula E Eventos Em Laboratório, Características Adicionais: Possui Conectividade Bluetooth, Componentes Adicionais: Controle Remoto, Entrada Usb</t>
+  </si>
+  <si>
+    <t>Cabo Extensor Cabo Extensor Tipo: Extensor Hdmi, Tipo Saída: Hdmi Macho X Hdmi Macho, Comprimento: 25 M, Aplicação: Acessório Para Equipamentos De Audiovisual, Características Adicionais: Resolução Full Hd 1080p, 1080i, 720p, 480p E 480i, Tipo Cabo: Dados, Padrão: Hdmi 2.0, Cor Da Cobertura: Preta</t>
+  </si>
+  <si>
+    <t>Microfone Microfone Tipo: Gooseneck P/ Púlpitos, Aplicação: Auditório</t>
+  </si>
+  <si>
+    <t>Garrafa Térmica Garrafa Térmica Material: Plástico, Capacidade: 5L, Características Adicionais: Com Torneira, Alça E Pés Dobráveis Em Baixo.</t>
+  </si>
+  <si>
+    <t>Caixa acústica Caixa Acústica Potência: 600 Watts RmsW, Tamanho Alto-Falante: 2 X 15POL, Tipo Tweeter: Driver Titânio 44 Mm, Características Adicionais: Bluetooth, Voltagem: BivoltV, Aplicação: Auditório</t>
+  </si>
+  <si>
+    <t>Caixa acústica Caixa Acústica Potência: 350W, Tamanho Alto-Falante: 15POL, Resposta Freqüência: 40 A 20 Khz, Tipo Tweeter: Driver Titânio 1 3/4 Pol, Largura: 685MM, Altura: 478MM, Profundidade: 442MM, Cor: Preta, Características Adicionais: Caixa Ativa 2 Vias Com Divisor Interno, Impedância Entrada: 2.000OHM, Resistência Ôhmica: 8OHM, Sensibilidade: 100DB</t>
+  </si>
+  <si>
+    <t>Microfone Microfone Tipo: De Mão Sem Fio, Alimentação: Bateria, Resposta Freqüência: 30 Hz A 20KHZ, Tipo Receptor: 02 Antenas De 1/4 De Onda Removíveis, Características Adicionais: 2 Conectores Xlr, 1 Conector P10 Mix, Impedância: 50OHMS, Alcance: 100M, Alimentação Receptor: BivoltV, Padrão: Cardióide, Sensibilidade: Acima De 90DB, Distorção Harmônica Total: 0,1</t>
+  </si>
+  <si>
+    <t>Mesa áudio / vídeo Mesa Áudio / Vídeo - Switcher De Vídeo Quantidade Canais: 4UN, Tipo Entrada: 4 Entradas Hdmi, Tipo Saída: 1 Saída Hdmi, Equalização: 6 Efeitos De Transição, Características Adicionais: Tela Colorida Tft De 2,1 Polegadas, Acessórios: Suporte Pip, Pbp Suporte T-Bar Interruptor</t>
+  </si>
+  <si>
     <t>Caixa som Caixa Som Potência: 250W, Voltagem: BivoltV, Aplicação: Sala De Aula, Características Adicionais: Bateria Interna De 4500 Mah - Bluetooth4.4.0 - Dis, Componentes Adicionais: 02 X Usb, 02 X Microfone E 01 X Aux In.</t>
   </si>
   <si>
@@ -271,6 +613,30 @@
     <t>Cabo áudio e vídeo Cabo Áudio E Vídeo Material Condutor: Cobre, Material Isolamento Condutor: Pvc, Aplicação: Microfone, Acessórios: Conector Xlr, Material Cobertura: Pvc Emborrachado, Comprimento: 5M</t>
   </si>
   <si>
+    <t>Caixa som Caixa Som Potência: 80W, Voltagem: 127/220V, Aplicação: Sala De Aula, Componentes Adicionais: Equalizador,Ajuste De Intencidade Entrada 2 Microf</t>
+  </si>
+  <si>
+    <t>Caixa Acústica Caixa Acústica Tipo: Amplificada, Potência: 1.100W, Tamanho Alto-Falante: 8POL, Resposta Freqüência: 70 Hz - 16KHZ, Características Adicionais: Dispersão Nominal 40h X 120v, Impedância Entrada: 8OHM, Voltagem: 110 - 240V, Sensibilidade: 90DB</t>
+  </si>
+  <si>
+    <t>Microfone Microfone Tipo: Sem Fio, Alimentação: Pilha, Resposta Freqüência: 60HZ, Tipo Receptor: Uhf, Alcance: 60M</t>
+  </si>
+  <si>
+    <t>Projetor Multimídia Projetor Multimídia Distância Mínima Tela: 0,88M, Distância Máxima Tela: 10,44M, Tipo Lâmpada: Uhe, Potência Lâmpada: 200W, Voltagem: BivoltV, Freqüência: 50 A 60HZ, Quantidade Entrada Rgb: 1UN, Quantidade Entradas Vídeo: 2UN, Tamanho Mínimo Imagem: 76CM, Tipo Zoom: Digital, Potência Autofalantes: 5W, Tipo: Com Controle Remoto, Capacidade Projeção Cor: 1.07 Bilhões De CoresPX, Luminosidade Mínima: 2.700LM, Tipo Foco: Manual, Tipo Projeção: Frontal/Traseiro/Teto/Mesa, Tipo Tecnologia: Lcd, Resolução Mínima: 800 X 600DPI, Resolução: 800 X 600 (Svga), Tipo Controle: Remoto, Sem Fio</t>
+  </si>
+  <si>
+    <t>Tela Projeção Tela Projeção Tipo Ajuste Tela: Elétrico/Retrátil Com Controle Remoto, Material: Tecido Vinil, Tipo Fixação: Teto, Características Adicionais: Acondicionada Em Estojo Metálico, Tipo Tela: Retrátil/Tensionada, Tensão Entrada: 220V, Tamanho Tela: 119POL</t>
+  </si>
+  <si>
+    <t>Microfone Microfone Tipo: Lapela Sem Fio Uhf Head-Set, Alimentação: Pilhas Aa, Características Adicionais: 1 Manual De Instruções 1 Case Para Transporte, Aplicação: Pequenos Eventos E Locais De Pequeno Porte, Acessórios: 1 Receptor 2 Microfones De Lapela2x Transmissores</t>
+  </si>
+  <si>
+    <t>Microfone Microfone Tipo: De Mesa, Resposta Freqüência: 60 Hz - 17KHZ, Características Adicionais: Conector Usb, Plug And Play, Aplicação: Videoconferência, Padrão: Omnidirecional, Acessórios: Cabo De No Mínimo 1,5m</t>
+  </si>
+  <si>
+    <t>Microfone Microfone Tipo: Portátil, Alimentação: Cabo Usb, Resposta Freqüência: 20hz-20KHZ, Características Adicionais: Padrão Polar / Unidirecional(Cardioide) / Conector, Aplicação: Videoconferência, Diâmetro Cabeça: 1POL, Relação Sinal / Ruido: 96DB</t>
+  </si>
+  <si>
     <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Caixa Tenor, Tamanho: 14 X 12POL, Características Adicionais: Colete,Aro Duplo E 12 Afinações Com Carrier</t>
   </si>
   <si>
@@ -292,12 +658,12 @@
     <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Baqueta, Aplicação: Lira</t>
   </si>
   <si>
+    <t>Pedestal identificador Pedestal Identificador Formato: Redondo, Cor: Preta E Amarela (Zebrado), Peso: 5KG, Altura: 90CM, Material Corpo: Pvc, Aplicação: Sinalização Viária</t>
+  </si>
+  <si>
     <t>Suporte De Videocassete / Televisao Suporte De Videocassete / Televisao Material: Aço Carbono, Tipo: Pedestal, Tamanho: Televisores Lcd/Led/Plasma 32 A 75, Acabamento Superficial: Pintura Eletrostática A Pó, Cor: Preta, Características Adicionais: Altura Regulável, Rodízios E Bandeja P/Dvd/Noteboo</t>
   </si>
   <si>
-    <t>Caixa Som Caixa Som Potência: 1.300W, Cor: Preta, Voltagem: 110/220V, Aplicação: Sala De Aula E Eventos Em Laboratório, Características Adicionais: Possui Conectividade Bluetooth, Componentes Adicionais: Controle Remoto, Entrada Usb</t>
-  </si>
-  <si>
     <t>Tela Projeção Tela Projeção Material Estrutura: Metal, Tipo Ajuste Tela: Automático De Parada, Tipo Acabamento: Pintura Eletrostática, Material: Vinil Blackout, Cor Acabamento: Branca, Tipo Fixação: Teto, Cor: Branca, Altura: 228,6CM, Largura: 304,8CM, Espessura: 2 A 3MM, Características Adicionais: Sensor De Corrente Para Acionamento Automático Ao, Tipo Tela: Motorizada</t>
   </si>
   <si>
@@ -310,30 +676,126 @@
     <t>Fone Ouvido Fone Ouvido Tipo: Headset, Potência: 10MW, Impedância: 50OHMS, Freqüência: 50 A 16.000HZ, Comprimento Fio: 3M, Modelo: Profissional, Sensibilidade: 100DB, Cor: Preta, Acessórios: Antenas Externas, Tipo Cabo: Stereo, Distorção Harmônica Total: 0,1PER, Aplicação: Áudio, Alcance: 100M, Tipo Microfone: Omnidirecional, Equilíbrio Dos Canais: 3DB, Entrada Nominal: 40MW, Entrada Máxima: 100MW, Transdutor: Dinâmico, Acoplamento Auricular: Sobre As Orelhas, Peso(Sem Cabo): 120G, Conector: Compatível Usb 1.1, 2.0, 3.0</t>
   </si>
   <si>
-    <t>Garrafa Térmica Garrafa Térmica Material: Plástico, Capacidade: 5L, Características Adicionais: Com Torneira, Alça E Pés Dobráveis Em Baixo.</t>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Bombo, Material: Madeira, Tamanho: 22 X 14POL, Características Adicionais: Canoas Inteiriças, Afinadores, Colete De Alumínio</t>
+  </si>
+  <si>
+    <t>Instrumento musical - percursão Instrumento Musical - Percursão Tipo: Metalofone, Material: Alumínio, Componentes: Um Par De Baquetas, Tamanho: 68 X 20 X 18CM, Características Adicionais: 13 Lâminas</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Sopro Instrumento Musical - Sopro Tipo: Escaleta, Acabamento Superficial: Plástico, Características Adicionais: Em C Com 32 Teclas, Cor Azul Com Bocal, Cano De</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Prato, Material: Bronze, Componentes: 2 Pratos, Tamanho: 14POL, Características Adicionais: Modelo: Ziltannan</t>
   </si>
   <si>
     <t>Eletrodo Solda Eletrodo Solda Material Indicado: Aço Baixo E Médio Teor Carbono, Forma: Vareta, Diâmetro: 3,25MM, Comprimento: 350MM, Normas Técnicas: Aws E 6013</t>
   </si>
   <si>
+    <t>Caixa som Caixa Som Potência: 300 W, Cor: Preta, Voltagem: 110/220V, Tipo Fonte: Interna, Características Adicionais: Amperagem 1,50 A</t>
+  </si>
+  <si>
     <t>Unidade</t>
   </si>
   <si>
+    <t>UNIDADE</t>
+  </si>
+  <si>
+    <t>Jogo</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
     <t>Quilograma</t>
   </si>
   <si>
+    <t>Tubo</t>
+  </si>
+  <si>
     <t>Lata</t>
   </si>
   <si>
     <t>Par</t>
   </si>
   <si>
-    <t>Jogo</t>
+    <t>Rolo</t>
+  </si>
+  <si>
+    <t>4,08</t>
   </si>
   <si>
     <t>0,00</t>
   </si>
   <si>
+    <t>48,64</t>
+  </si>
+  <si>
+    <t>93,00</t>
+  </si>
+  <si>
+    <t>2680,46</t>
+  </si>
+  <si>
+    <t>2627,17</t>
+  </si>
+  <si>
+    <t>787,90</t>
+  </si>
+  <si>
+    <t>1477,00</t>
+  </si>
+  <si>
+    <t>2560,97</t>
+  </si>
+  <si>
+    <t>184,20</t>
+  </si>
+  <si>
+    <t>692,12</t>
+  </si>
+  <si>
+    <t>430,14</t>
+  </si>
+  <si>
+    <t>349,16</t>
+  </si>
+  <si>
+    <t>499,30</t>
+  </si>
+  <si>
+    <t>311,42</t>
+  </si>
+  <si>
+    <t>157,08</t>
+  </si>
+  <si>
+    <t>680,71</t>
+  </si>
+  <si>
+    <t>156,20</t>
+  </si>
+  <si>
+    <t>362,95</t>
+  </si>
+  <si>
+    <t>856,56</t>
+  </si>
+  <si>
+    <t>683,31</t>
+  </si>
+  <si>
+    <t>238,01</t>
+  </si>
+  <si>
+    <t>116,03</t>
+  </si>
+  <si>
+    <t>419,31</t>
+  </si>
+  <si>
+    <t>5,31</t>
+  </si>
+  <si>
     <t>153,33</t>
   </si>
   <si>
@@ -517,9 +979,183 @@
     <t>288,06</t>
   </si>
   <si>
+    <t>46130,00</t>
+  </si>
+  <si>
+    <t>25279,99</t>
+  </si>
+  <si>
+    <t>12999,94</t>
+  </si>
+  <si>
+    <t>22800,00</t>
+  </si>
+  <si>
+    <t>20199,93</t>
+  </si>
+  <si>
+    <t>30200,00</t>
+  </si>
+  <si>
+    <t>27000,00</t>
+  </si>
+  <si>
+    <t>1300,00</t>
+  </si>
+  <si>
+    <t>1336,45</t>
+  </si>
+  <si>
+    <t>700,00</t>
+  </si>
+  <si>
+    <t>1449,98</t>
+  </si>
+  <si>
+    <t>10600,00</t>
+  </si>
+  <si>
+    <t>2000,00</t>
+  </si>
+  <si>
+    <t>1799,80</t>
+  </si>
+  <si>
+    <t>3500,00</t>
+  </si>
+  <si>
+    <t>4498,00</t>
+  </si>
+  <si>
+    <t>405,31</t>
+  </si>
+  <si>
+    <t>245,60</t>
+  </si>
+  <si>
+    <t>265,00</t>
+  </si>
+  <si>
+    <t>498,00</t>
+  </si>
+  <si>
+    <t>679,00</t>
+  </si>
+  <si>
+    <t>303,89</t>
+  </si>
+  <si>
+    <t>310,00</t>
+  </si>
+  <si>
+    <t>72,50</t>
+  </si>
+  <si>
+    <t>75,40</t>
+  </si>
+  <si>
+    <t>46,90</t>
+  </si>
+  <si>
+    <t>47,00</t>
+  </si>
+  <si>
+    <t>35,74</t>
+  </si>
+  <si>
+    <t>44,00</t>
+  </si>
+  <si>
+    <t>285,00</t>
+  </si>
+  <si>
+    <t>240,00</t>
+  </si>
+  <si>
+    <t>365,23</t>
+  </si>
+  <si>
+    <t>189,00</t>
+  </si>
+  <si>
+    <t>32,60</t>
+  </si>
+  <si>
+    <t>34,90</t>
+  </si>
+  <si>
+    <t>34,00</t>
+  </si>
+  <si>
+    <t>43,90</t>
+  </si>
+  <si>
+    <t>367,00</t>
+  </si>
+  <si>
+    <t>314,40</t>
+  </si>
+  <si>
+    <t>379,00</t>
+  </si>
+  <si>
+    <t>314,00</t>
+  </si>
+  <si>
+    <t>179,42</t>
+  </si>
+  <si>
+    <t>190,00</t>
+  </si>
+  <si>
+    <t>147,90</t>
+  </si>
+  <si>
+    <t>6376,46</t>
+  </si>
+  <si>
+    <t>58068,50</t>
+  </si>
+  <si>
+    <t>595,00</t>
+  </si>
+  <si>
+    <t>142,77</t>
+  </si>
+  <si>
+    <t>840,00</t>
+  </si>
+  <si>
+    <t>1576,00</t>
+  </si>
+  <si>
+    <t>4135,00</t>
+  </si>
+  <si>
+    <t>549,82</t>
+  </si>
+  <si>
+    <t>52,52</t>
+  </si>
+  <si>
+    <t>74,07</t>
+  </si>
+  <si>
+    <t>196,99</t>
+  </si>
+  <si>
+    <t>52,22</t>
+  </si>
+  <si>
+    <t>433,85</t>
+  </si>
+  <si>
     <t>23,50</t>
   </si>
   <si>
+    <t>8,00</t>
+  </si>
+  <si>
     <t>30,49</t>
   </si>
   <si>
@@ -559,6 +1195,21 @@
     <t>470,70</t>
   </si>
   <si>
+    <t>645,31</t>
+  </si>
+  <si>
+    <t>641,13</t>
+  </si>
+  <si>
+    <t>872,00</t>
+  </si>
+  <si>
+    <t>16,78</t>
+  </si>
+  <si>
+    <t>116,67</t>
+  </si>
+  <si>
     <t>1446,25</t>
   </si>
   <si>
@@ -580,6 +1231,45 @@
     <t>4176,64</t>
   </si>
   <si>
+    <t>3856,42</t>
+  </si>
+  <si>
+    <t>65,53</t>
+  </si>
+  <si>
+    <t>79,07</t>
+  </si>
+  <si>
+    <t>475,72</t>
+  </si>
+  <si>
+    <t>68,74</t>
+  </si>
+  <si>
+    <t>2204,67</t>
+  </si>
+  <si>
+    <t>1148,40</t>
+  </si>
+  <si>
+    <t>585,32</t>
+  </si>
+  <si>
+    <t>4142,67</t>
+  </si>
+  <si>
+    <t>547,37</t>
+  </si>
+  <si>
+    <t>389,82</t>
+  </si>
+  <si>
+    <t>87,73</t>
+  </si>
+  <si>
+    <t>413,13</t>
+  </si>
+  <si>
     <t>6773,95</t>
   </si>
   <si>
@@ -625,6 +1315,9 @@
     <t>1265,75</t>
   </si>
   <si>
+    <t>34,63</t>
+  </si>
+  <si>
     <t>498,36</t>
   </si>
   <si>
@@ -643,12 +1336,102 @@
     <t>74,75</t>
   </si>
   <si>
+    <t>1777,50</t>
+  </si>
+  <si>
+    <t>1219,31</t>
+  </si>
+  <si>
+    <t>134,00</t>
+  </si>
+  <si>
+    <t>320,00</t>
+  </si>
+  <si>
+    <t>445,80</t>
+  </si>
+  <si>
+    <t>1218,75</t>
+  </si>
+  <si>
     <t>48,73</t>
   </si>
   <si>
     <t>33,49</t>
   </si>
   <si>
+    <t>683,16</t>
+  </si>
+  <si>
+    <t>408,00</t>
+  </si>
+  <si>
+    <t>194,56</t>
+  </si>
+  <si>
+    <t>930,00</t>
+  </si>
+  <si>
+    <t>58970,12</t>
+  </si>
+  <si>
+    <t>23644,53</t>
+  </si>
+  <si>
+    <t>16545,90</t>
+  </si>
+  <si>
+    <t>366296,00</t>
+  </si>
+  <si>
+    <t>5121,94</t>
+  </si>
+  <si>
+    <t>1842,00</t>
+  </si>
+  <si>
+    <t>1384,24</t>
+  </si>
+  <si>
+    <t>4301,40</t>
+  </si>
+  <si>
+    <t>6983,20</t>
+  </si>
+  <si>
+    <t>4993,00</t>
+  </si>
+  <si>
+    <t>1557,10</t>
+  </si>
+  <si>
+    <t>1570,80</t>
+  </si>
+  <si>
+    <t>6807,10</t>
+  </si>
+  <si>
+    <t>1562,00</t>
+  </si>
+  <si>
+    <t>3629,50</t>
+  </si>
+  <si>
+    <t>8565,60</t>
+  </si>
+  <si>
+    <t>6833,10</t>
+  </si>
+  <si>
+    <t>1428,06</t>
+  </si>
+  <si>
+    <t>1160,30</t>
+  </si>
+  <si>
+    <t>531,00</t>
+  </si>
+  <si>
     <t>3066,60</t>
   </si>
   <si>
@@ -802,9 +1585,165 @@
     <t>1152,24</t>
   </si>
   <si>
+    <t>92260,00</t>
+  </si>
+  <si>
+    <t>50559,98</t>
+  </si>
+  <si>
+    <t>38999,82</t>
+  </si>
+  <si>
+    <t>68400,00</t>
+  </si>
+  <si>
+    <t>5200,00</t>
+  </si>
+  <si>
+    <t>2672,90</t>
+  </si>
+  <si>
+    <t>1400,00</t>
+  </si>
+  <si>
+    <t>1215,93</t>
+  </si>
+  <si>
+    <t>736,80</t>
+  </si>
+  <si>
+    <t>795,00</t>
+  </si>
+  <si>
+    <t>1494,00</t>
+  </si>
+  <si>
+    <t>6077,80</t>
+  </si>
+  <si>
+    <t>1450,00</t>
+  </si>
+  <si>
+    <t>1508,00</t>
+  </si>
+  <si>
+    <t>938,00</t>
+  </si>
+  <si>
+    <t>714,80</t>
+  </si>
+  <si>
+    <t>1760,00</t>
+  </si>
+  <si>
+    <t>5700,00</t>
+  </si>
+  <si>
+    <t>2400,00</t>
+  </si>
+  <si>
+    <t>3652,30</t>
+  </si>
+  <si>
+    <t>1890,00</t>
+  </si>
+  <si>
+    <t>326,00</t>
+  </si>
+  <si>
+    <t>349,00</t>
+  </si>
+  <si>
+    <t>340,00</t>
+  </si>
+  <si>
+    <t>658,50</t>
+  </si>
+  <si>
+    <t>734,00</t>
+  </si>
+  <si>
+    <t>628,80</t>
+  </si>
+  <si>
+    <t>758,00</t>
+  </si>
+  <si>
+    <t>942,00</t>
+  </si>
+  <si>
+    <t>358,84</t>
+  </si>
+  <si>
+    <t>1900,00</t>
+  </si>
+  <si>
+    <t>295,80</t>
+  </si>
+  <si>
+    <t>624893,08</t>
+  </si>
+  <si>
+    <t>1974329,00</t>
+  </si>
+  <si>
+    <t>7735,00</t>
+  </si>
+  <si>
+    <t>1713,24</t>
+  </si>
+  <si>
+    <t>6720,00</t>
+  </si>
+  <si>
+    <t>12608,00</t>
+  </si>
+  <si>
+    <t>144725,00</t>
+  </si>
+  <si>
+    <t>8247,30</t>
+  </si>
+  <si>
+    <t>33080,00</t>
+  </si>
+  <si>
+    <t>420,16</t>
+  </si>
+  <si>
+    <t>2814,66</t>
+  </si>
+  <si>
+    <t>7485,62</t>
+  </si>
+  <si>
+    <t>626,64</t>
+  </si>
+  <si>
+    <t>39046,50</t>
+  </si>
+  <si>
+    <t>105,04</t>
+  </si>
+  <si>
+    <t>888,84</t>
+  </si>
+  <si>
+    <t>2363,88</t>
+  </si>
+  <si>
+    <t>156,66</t>
+  </si>
+  <si>
+    <t>13015,50</t>
+  </si>
+  <si>
     <t>705,00</t>
   </si>
   <si>
+    <t>960,00</t>
+  </si>
+  <si>
     <t>609,80</t>
   </si>
   <si>
@@ -844,6 +1783,21 @@
     <t>70605,00</t>
   </si>
   <si>
+    <t>9679,65</t>
+  </si>
+  <si>
+    <t>19233,90</t>
+  </si>
+  <si>
+    <t>1744,00</t>
+  </si>
+  <si>
+    <t>671,20</t>
+  </si>
+  <si>
+    <t>466,68</t>
+  </si>
+  <si>
     <t>542343,75</t>
   </si>
   <si>
@@ -865,6 +1819,39 @@
     <t>1275,20</t>
   </si>
   <si>
+    <t>7712,84</t>
+  </si>
+  <si>
+    <t>131,06</t>
+  </si>
+  <si>
+    <t>13795,88</t>
+  </si>
+  <si>
+    <t>274,96</t>
+  </si>
+  <si>
+    <t>70549,44</t>
+  </si>
+  <si>
+    <t>8038,80</t>
+  </si>
+  <si>
+    <t>3511,92</t>
+  </si>
+  <si>
+    <t>20713,35</t>
+  </si>
+  <si>
+    <t>1094,74</t>
+  </si>
+  <si>
+    <t>438,65</t>
+  </si>
+  <si>
+    <t>826,26</t>
+  </si>
+  <si>
     <t>54191,60</t>
   </si>
   <si>
@@ -910,6 +1897,9 @@
     <t>25315,00</t>
   </si>
   <si>
+    <t>1038,90</t>
+  </si>
+  <si>
     <t>1495,08</t>
   </si>
   <si>
@@ -928,61 +1918,160 @@
     <t>2616,25</t>
   </si>
   <si>
+    <t>17775,00</t>
+  </si>
+  <si>
+    <t>36579,30</t>
+  </si>
+  <si>
+    <t>4020,00</t>
+  </si>
+  <si>
+    <t>3840,00</t>
+  </si>
+  <si>
+    <t>4458,00</t>
+  </si>
+  <si>
+    <t>19500,00</t>
+  </si>
+  <si>
     <t>4873,00</t>
   </si>
   <si>
     <t>1172,15</t>
   </si>
   <si>
+    <t>2049,48</t>
+  </si>
+  <si>
+    <t>Tupã/SP</t>
+  </si>
+  <si>
     <t>São Paulo/SP</t>
   </si>
   <si>
+    <t>Araraquara/SP</t>
+  </si>
+  <si>
+    <t>Bauru/SP</t>
+  </si>
+  <si>
+    <t>BRASÍLIA/DF</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro/RJ</t>
+  </si>
+  <si>
+    <t>São Mateus/ES</t>
+  </si>
+  <si>
     <t>Boa Vista/RR</t>
   </si>
   <si>
+    <t>Itaituba/PA</t>
+  </si>
+  <si>
     <t>Riolândia/SP</t>
   </si>
   <si>
+    <t>Tupi Paulista/SP</t>
+  </si>
+  <si>
     <t>Poá/SP</t>
   </si>
   <si>
+    <t>Campo Grande/MS</t>
+  </si>
+  <si>
+    <t>Aracaju/SE</t>
+  </si>
+  <si>
     <t>São Luís/MA</t>
   </si>
   <si>
-    <t>Rio de Janeiro/RJ</t>
-  </si>
-  <si>
     <t>Botucatu/SP</t>
   </si>
   <si>
+    <t>Lins/SP</t>
+  </si>
+  <si>
+    <t>Vitória/ES</t>
+  </si>
+  <si>
+    <t>Duque de Caxias/RJ</t>
+  </si>
+  <si>
+    <t>Rio Branco/AC</t>
+  </si>
+  <si>
+    <t>Limoeiro/PE</t>
+  </si>
+  <si>
+    <t>Esperantina/TO</t>
+  </si>
+  <si>
+    <t>SAO DOMINGOS DO AZEITAO/MA</t>
+  </si>
+  <si>
     <t>João Pessoa/PB</t>
   </si>
   <si>
+    <t>Itaúna/MG</t>
+  </si>
+  <si>
+    <t>Piranga/MG</t>
+  </si>
+  <si>
     <t>Jerônimo Monteiro/ES</t>
   </si>
   <si>
+    <t>Bom Jesus do Itabapoana/RJ</t>
+  </si>
+  <si>
     <t>Casimiro de Abreu/RJ</t>
   </si>
   <si>
+    <t>Maricá/RJ</t>
+  </si>
+  <si>
     <t>Loanda/PR</t>
   </si>
   <si>
+    <t>Telêmaco Borba/PR</t>
+  </si>
+  <si>
+    <t>1,00</t>
+  </si>
+  <si>
     <t>0,70</t>
   </si>
   <si>
+    <t>0,01</t>
+  </si>
+  <si>
     <t>0,75</t>
   </si>
   <si>
-    <t>0,01</t>
+    <t>0,10</t>
   </si>
   <si>
     <t>0,02</t>
   </si>
   <si>
-    <t>1,00</t>
+    <t>0,05</t>
   </si>
   <si>
     <t>0,50</t>
+  </si>
+  <si>
+    <t>3,00</t>
+  </si>
+  <si>
+    <t>11,00</t>
+  </si>
+  <si>
+    <t>0,25</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +2429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1380,28 +2469,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2">
         <v>100</v>
       </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>449</v>
       </c>
       <c r="H2" t="s">
-        <v>306</v>
+        <v>643</v>
       </c>
       <c r="I2" t="s">
-        <v>317</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1409,28 +2498,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="H3" t="s">
-        <v>307</v>
+        <v>644</v>
       </c>
       <c r="I3" t="s">
-        <v>318</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1438,28 +2527,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="G4" t="s">
-        <v>211</v>
+        <v>450</v>
       </c>
       <c r="H4" t="s">
-        <v>306</v>
+        <v>645</v>
       </c>
       <c r="I4" t="s">
-        <v>319</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1467,2406 +2556,2406 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="G5" t="s">
-        <v>212</v>
+        <v>451</v>
       </c>
       <c r="H5" t="s">
-        <v>306</v>
+        <v>645</v>
       </c>
       <c r="I5" t="s">
-        <v>319</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>452</v>
       </c>
       <c r="H6" t="s">
-        <v>306</v>
+        <v>646</v>
       </c>
       <c r="I6" t="s">
-        <v>319</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="G7" t="s">
-        <v>213</v>
+        <v>453</v>
       </c>
       <c r="H7" t="s">
-        <v>306</v>
+        <v>647</v>
       </c>
       <c r="I7" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c r="G8" t="s">
-        <v>214</v>
+        <v>454</v>
       </c>
       <c r="H8" t="s">
-        <v>306</v>
+        <v>647</v>
       </c>
       <c r="I8" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>455</v>
       </c>
       <c r="H9" t="s">
-        <v>306</v>
+        <v>647</v>
       </c>
       <c r="I9" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
+        <v>456</v>
       </c>
       <c r="H10" t="s">
-        <v>306</v>
+        <v>647</v>
       </c>
       <c r="I10" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="G11" t="s">
-        <v>215</v>
+        <v>457</v>
       </c>
       <c r="H11" t="s">
-        <v>306</v>
+        <v>648</v>
       </c>
       <c r="I11" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>245</v>
       </c>
       <c r="G12" t="s">
-        <v>216</v>
+        <v>458</v>
       </c>
       <c r="H12" t="s">
-        <v>306</v>
+        <v>648</v>
       </c>
       <c r="I12" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
       <c r="G13" t="s">
-        <v>217</v>
+        <v>459</v>
       </c>
       <c r="H13" t="s">
-        <v>306</v>
+        <v>648</v>
       </c>
       <c r="I13" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
       <c r="G14" t="s">
-        <v>218</v>
+        <v>460</v>
       </c>
       <c r="H14" t="s">
-        <v>306</v>
+        <v>648</v>
       </c>
       <c r="I14" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="G15" t="s">
-        <v>117</v>
+        <v>461</v>
       </c>
       <c r="H15" t="s">
-        <v>306</v>
+        <v>648</v>
       </c>
       <c r="I15" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>462</v>
       </c>
       <c r="H16" t="s">
-        <v>306</v>
+        <v>648</v>
       </c>
       <c r="I16" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>250</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>463</v>
       </c>
       <c r="H17" t="s">
-        <v>306</v>
+        <v>648</v>
       </c>
       <c r="I17" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="G18" t="s">
-        <v>219</v>
+        <v>464</v>
       </c>
       <c r="H18" t="s">
-        <v>306</v>
+        <v>648</v>
       </c>
       <c r="I18" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>252</v>
       </c>
       <c r="G19" t="s">
-        <v>121</v>
+        <v>465</v>
       </c>
       <c r="H19" t="s">
-        <v>306</v>
+        <v>648</v>
       </c>
       <c r="I19" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="G20" t="s">
-        <v>220</v>
+        <v>466</v>
       </c>
       <c r="H20" t="s">
-        <v>306</v>
+        <v>648</v>
       </c>
       <c r="I20" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
         <v>11</v>
       </c>
-      <c r="B21">
-        <v>21</v>
-      </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="G21" t="s">
-        <v>221</v>
+        <v>467</v>
       </c>
       <c r="H21" t="s">
-        <v>306</v>
+        <v>648</v>
       </c>
       <c r="I21" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>255</v>
       </c>
       <c r="G22" t="s">
-        <v>222</v>
+        <v>468</v>
       </c>
       <c r="H22" t="s">
-        <v>306</v>
+        <v>648</v>
       </c>
       <c r="I22" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="G23" t="s">
-        <v>223</v>
+        <v>469</v>
       </c>
       <c r="H23" t="s">
-        <v>306</v>
+        <v>648</v>
       </c>
       <c r="I23" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>257</v>
       </c>
       <c r="G24" t="s">
-        <v>224</v>
+        <v>470</v>
       </c>
       <c r="H24" t="s">
-        <v>306</v>
+        <v>648</v>
       </c>
       <c r="I24" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>258</v>
       </c>
       <c r="G25" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="H25" t="s">
-        <v>306</v>
+        <v>649</v>
       </c>
       <c r="I25" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26">
         <v>100</v>
       </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="G26" t="s">
-        <v>226</v>
+        <v>471</v>
       </c>
       <c r="H26" t="s">
-        <v>306</v>
+        <v>649</v>
       </c>
       <c r="I26" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27">
         <v>100</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="G27" t="s">
-        <v>129</v>
+        <v>471</v>
       </c>
       <c r="H27" t="s">
-        <v>306</v>
+        <v>649</v>
       </c>
       <c r="I27" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28">
         <v>100</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
-        <v>130</v>
+        <v>471</v>
       </c>
       <c r="H28" t="s">
-        <v>306</v>
+        <v>649</v>
       </c>
       <c r="I28" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E29">
         <v>100</v>
       </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
-        <v>227</v>
+        <v>471</v>
       </c>
       <c r="H29" t="s">
-        <v>306</v>
+        <v>649</v>
       </c>
       <c r="I29" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
       <c r="F30" t="s">
-        <v>132</v>
+        <v>236</v>
       </c>
       <c r="G30" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H30" t="s">
-        <v>306</v>
+        <v>650</v>
       </c>
       <c r="I30" t="s">
-        <v>319</v>
+        <v>678</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B31">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="G31" t="s">
-        <v>229</v>
+        <v>472</v>
       </c>
       <c r="H31" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I31" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="G32" t="s">
-        <v>230</v>
+        <v>473</v>
       </c>
       <c r="H32" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I32" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="G33" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="H33" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I33" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B34">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="G34" t="s">
-        <v>231</v>
+        <v>474</v>
       </c>
       <c r="H34" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I34" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B35">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="G35" t="s">
-        <v>232</v>
+        <v>475</v>
       </c>
       <c r="H35" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I35" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="G36" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="H36" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I36" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="G37" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="H37" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I37" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38">
         <v>11</v>
       </c>
-      <c r="B38">
-        <v>38</v>
-      </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>267</v>
       </c>
       <c r="G38" t="s">
-        <v>235</v>
+        <v>476</v>
       </c>
       <c r="H38" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I38" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E39">
         <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>141</v>
+        <v>268</v>
       </c>
       <c r="G39" t="s">
-        <v>236</v>
+        <v>477</v>
       </c>
       <c r="H39" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I39" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B40">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="G40" t="s">
-        <v>237</v>
+        <v>478</v>
       </c>
       <c r="H40" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I40" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B41">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>143</v>
+        <v>270</v>
       </c>
       <c r="G41" t="s">
-        <v>238</v>
+        <v>479</v>
       </c>
       <c r="H41" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I41" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B42">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="G42" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="H42" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I42" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B43">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="G43" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="H43" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I43" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B44">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="G44" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="H44" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I44" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B45">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>147</v>
+        <v>274</v>
       </c>
       <c r="G45" t="s">
-        <v>242</v>
+        <v>480</v>
       </c>
       <c r="H45" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I45" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B46">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>148</v>
+        <v>275</v>
       </c>
       <c r="G46" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="H46" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I46" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="G47" t="s">
-        <v>244</v>
+        <v>481</v>
       </c>
       <c r="H47" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I47" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B48">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>150</v>
+        <v>277</v>
       </c>
       <c r="G48" t="s">
-        <v>245</v>
+        <v>482</v>
       </c>
       <c r="H48" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I48" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B49">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>151</v>
+        <v>278</v>
       </c>
       <c r="G49" t="s">
-        <v>246</v>
+        <v>483</v>
       </c>
       <c r="H49" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I49" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B50">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E50">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="G50" t="s">
-        <v>247</v>
+        <v>484</v>
       </c>
       <c r="H50" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I50" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B51">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>153</v>
+        <v>280</v>
       </c>
       <c r="G51" t="s">
-        <v>248</v>
+        <v>485</v>
       </c>
       <c r="H51" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I51" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B52">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>154</v>
+        <v>281</v>
       </c>
       <c r="G52" t="s">
-        <v>249</v>
+        <v>486</v>
       </c>
       <c r="H52" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I52" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B53">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="G53" t="s">
-        <v>250</v>
+        <v>487</v>
       </c>
       <c r="H53" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I53" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B54">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>156</v>
+        <v>283</v>
       </c>
       <c r="G54" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="H54" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I54" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B55">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E55">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>157</v>
+        <v>284</v>
       </c>
       <c r="G55" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="H55" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I55" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B56">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>158</v>
+        <v>285</v>
       </c>
       <c r="G56" t="s">
-        <v>253</v>
+        <v>488</v>
       </c>
       <c r="H56" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I56" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B57">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E57">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>159</v>
+        <v>286</v>
       </c>
       <c r="G57" t="s">
-        <v>254</v>
+        <v>489</v>
       </c>
       <c r="H57" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I57" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B58">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>160</v>
+        <v>287</v>
       </c>
       <c r="G58" t="s">
-        <v>255</v>
+        <v>490</v>
       </c>
       <c r="H58" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I58" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B59">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E59">
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>161</v>
+        <v>288</v>
       </c>
       <c r="G59" t="s">
-        <v>256</v>
+        <v>491</v>
       </c>
       <c r="H59" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I59" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B60">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>162</v>
+        <v>289</v>
       </c>
       <c r="G60" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="H60" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I60" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B61">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E61">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>163</v>
+        <v>290</v>
       </c>
       <c r="G61" t="s">
-        <v>258</v>
+        <v>492</v>
       </c>
       <c r="H61" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I61" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B62">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E62">
         <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G62" t="s">
-        <v>259</v>
+        <v>493</v>
       </c>
       <c r="H62" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I62" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B63">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E63">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
-        <v>165</v>
+        <v>292</v>
       </c>
       <c r="G63" t="s">
-        <v>260</v>
+        <v>494</v>
       </c>
       <c r="H63" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I63" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B64">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E64">
         <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>166</v>
+        <v>293</v>
       </c>
       <c r="G64" t="s">
-        <v>261</v>
+        <v>495</v>
       </c>
       <c r="H64" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="I64" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="E65">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>167</v>
+        <v>294</v>
       </c>
       <c r="G65" t="s">
-        <v>262</v>
+        <v>496</v>
       </c>
       <c r="H65" t="s">
-        <v>308</v>
+        <v>644</v>
       </c>
       <c r="I65" t="s">
-        <v>320</v>
+        <v>677</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B66">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E66">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="G66" t="s">
-        <v>263</v>
+        <v>497</v>
       </c>
       <c r="H66" t="s">
-        <v>309</v>
+        <v>644</v>
       </c>
       <c r="I66" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B67">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E67">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>169</v>
+        <v>296</v>
       </c>
       <c r="G67" t="s">
-        <v>264</v>
+        <v>498</v>
       </c>
       <c r="H67" t="s">
-        <v>309</v>
+        <v>644</v>
       </c>
       <c r="I67" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B68">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E68">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>170</v>
+        <v>297</v>
       </c>
       <c r="G68" t="s">
-        <v>265</v>
+        <v>499</v>
       </c>
       <c r="H68" t="s">
-        <v>309</v>
+        <v>644</v>
       </c>
       <c r="I68" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B69">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="E69">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>171</v>
+        <v>298</v>
       </c>
       <c r="G69" t="s">
-        <v>266</v>
+        <v>500</v>
       </c>
       <c r="H69" t="s">
-        <v>309</v>
+        <v>644</v>
       </c>
       <c r="I69" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B70">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="E70">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>172</v>
+        <v>299</v>
       </c>
       <c r="G70" t="s">
-        <v>267</v>
+        <v>501</v>
       </c>
       <c r="H70" t="s">
-        <v>309</v>
+        <v>644</v>
       </c>
       <c r="I70" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B71">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="E71">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>173</v>
+        <v>300</v>
       </c>
       <c r="G71" t="s">
-        <v>268</v>
+        <v>502</v>
       </c>
       <c r="H71" t="s">
-        <v>309</v>
+        <v>644</v>
       </c>
       <c r="I71" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B72">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D72" t="s">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="E72">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>174</v>
+        <v>301</v>
       </c>
       <c r="G72" t="s">
-        <v>269</v>
+        <v>503</v>
       </c>
       <c r="H72" t="s">
-        <v>309</v>
+        <v>644</v>
       </c>
       <c r="I72" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B73">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D73" t="s">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="E73">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>175</v>
+        <v>302</v>
       </c>
       <c r="G73" t="s">
-        <v>270</v>
+        <v>504</v>
       </c>
       <c r="H73" t="s">
-        <v>309</v>
+        <v>644</v>
       </c>
       <c r="I73" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B74">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D74" t="s">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="E74">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
       <c r="G74" t="s">
-        <v>271</v>
+        <v>505</v>
       </c>
       <c r="H74" t="s">
-        <v>309</v>
+        <v>644</v>
       </c>
       <c r="I74" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B75">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="E75">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
       <c r="G75" t="s">
-        <v>272</v>
+        <v>506</v>
       </c>
       <c r="H75" t="s">
-        <v>309</v>
+        <v>644</v>
       </c>
       <c r="I75" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B76">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="E76">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
-        <v>178</v>
+        <v>305</v>
       </c>
       <c r="G76" t="s">
-        <v>273</v>
+        <v>507</v>
       </c>
       <c r="H76" t="s">
-        <v>309</v>
+        <v>644</v>
       </c>
       <c r="I76" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B77">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D77" t="s">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="E77">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="F77" t="s">
-        <v>179</v>
+        <v>306</v>
       </c>
       <c r="G77" t="s">
-        <v>274</v>
+        <v>508</v>
       </c>
       <c r="H77" t="s">
-        <v>309</v>
+        <v>644</v>
       </c>
       <c r="I77" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B78">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D78" t="s">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="E78">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
-        <v>180</v>
+        <v>307</v>
       </c>
       <c r="G78" t="s">
-        <v>275</v>
+        <v>509</v>
       </c>
       <c r="H78" t="s">
-        <v>309</v>
+        <v>644</v>
       </c>
       <c r="I78" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B79">
+        <v>52</v>
+      </c>
+      <c r="C79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" t="s">
+        <v>226</v>
+      </c>
+      <c r="E79">
         <v>2</v>
       </c>
-      <c r="C79" t="s">
-        <v>73</v>
-      </c>
-      <c r="D79" t="s">
-        <v>100</v>
-      </c>
-      <c r="E79">
-        <v>375</v>
-      </c>
       <c r="F79" t="s">
-        <v>181</v>
+        <v>308</v>
       </c>
       <c r="G79" t="s">
-        <v>276</v>
+        <v>510</v>
       </c>
       <c r="H79" t="s">
-        <v>310</v>
+        <v>644</v>
       </c>
       <c r="I79" t="s">
-        <v>318</v>
+        <v>677</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B80">
+        <v>53</v>
+      </c>
+      <c r="C80" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" t="s">
+        <v>226</v>
+      </c>
+      <c r="E80">
         <v>4</v>
       </c>
-      <c r="C80" t="s">
-        <v>73</v>
-      </c>
-      <c r="D80" t="s">
-        <v>100</v>
-      </c>
-      <c r="E80">
-        <v>125</v>
-      </c>
       <c r="F80" t="s">
-        <v>181</v>
+        <v>309</v>
       </c>
       <c r="G80" t="s">
-        <v>277</v>
+        <v>511</v>
       </c>
       <c r="H80" t="s">
-        <v>310</v>
+        <v>644</v>
       </c>
       <c r="I80" t="s">
-        <v>318</v>
+        <v>677</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B81">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D81" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E81">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>182</v>
+        <v>310</v>
       </c>
       <c r="G81" t="s">
-        <v>278</v>
+        <v>512</v>
       </c>
       <c r="H81" t="s">
-        <v>311</v>
+        <v>644</v>
       </c>
       <c r="I81" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B82">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="D82" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E82">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>183</v>
+        <v>311</v>
       </c>
       <c r="G82" t="s">
-        <v>279</v>
+        <v>513</v>
       </c>
       <c r="H82" t="s">
-        <v>311</v>
+        <v>644</v>
       </c>
       <c r="I82" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B83">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D83" t="s">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="E83">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F83" t="s">
-        <v>184</v>
+        <v>312</v>
       </c>
       <c r="G83" t="s">
-        <v>280</v>
+        <v>514</v>
       </c>
       <c r="H83" t="s">
-        <v>311</v>
+        <v>644</v>
       </c>
       <c r="I83" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B84">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D84" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E84">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>185</v>
+        <v>313</v>
       </c>
       <c r="G84" t="s">
-        <v>281</v>
+        <v>515</v>
       </c>
       <c r="H84" t="s">
-        <v>311</v>
+        <v>644</v>
       </c>
       <c r="I84" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B85">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D85" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E85">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="G85" t="s">
-        <v>282</v>
+        <v>516</v>
       </c>
       <c r="H85" t="s">
-        <v>311</v>
+        <v>644</v>
       </c>
       <c r="I85" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B86">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D86" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
-        <v>187</v>
+        <v>315</v>
       </c>
       <c r="G86" t="s">
-        <v>187</v>
+        <v>517</v>
       </c>
       <c r="H86" t="s">
-        <v>311</v>
+        <v>644</v>
       </c>
       <c r="I86" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B87">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="D87" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
+        <v>316</v>
       </c>
       <c r="G87" t="s">
-        <v>105</v>
+        <v>518</v>
       </c>
       <c r="H87" t="s">
-        <v>312</v>
+        <v>644</v>
       </c>
       <c r="I87" t="s">
-        <v>322</v>
+        <v>677</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3874,28 +4963,28 @@
         <v>17</v>
       </c>
       <c r="B88">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C88" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D88" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
+        <v>317</v>
       </c>
       <c r="G88" t="s">
-        <v>105</v>
+        <v>519</v>
       </c>
       <c r="H88" t="s">
-        <v>313</v>
+        <v>644</v>
       </c>
       <c r="I88" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3903,28 +4992,28 @@
         <v>17</v>
       </c>
       <c r="B89">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C89" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="D89" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
+        <v>318</v>
       </c>
       <c r="G89" t="s">
-        <v>105</v>
+        <v>520</v>
       </c>
       <c r="H89" t="s">
-        <v>313</v>
+        <v>644</v>
       </c>
       <c r="I89" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3932,28 +5021,28 @@
         <v>17</v>
       </c>
       <c r="B90">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="D90" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
+        <v>319</v>
       </c>
       <c r="G90" t="s">
-        <v>105</v>
+        <v>521</v>
       </c>
       <c r="H90" t="s">
-        <v>313</v>
+        <v>644</v>
       </c>
       <c r="I90" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3961,28 +5050,28 @@
         <v>17</v>
       </c>
       <c r="B91">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C91" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D91" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
+        <v>320</v>
       </c>
       <c r="G91" t="s">
-        <v>105</v>
+        <v>522</v>
       </c>
       <c r="H91" t="s">
-        <v>313</v>
+        <v>644</v>
       </c>
       <c r="I91" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3993,25 +5082,25 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D92" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E92">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>188</v>
+        <v>321</v>
       </c>
       <c r="G92" t="s">
-        <v>283</v>
+        <v>523</v>
       </c>
       <c r="H92" t="s">
-        <v>314</v>
+        <v>651</v>
       </c>
       <c r="I92" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4022,25 +5111,25 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E93">
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>189</v>
+        <v>322</v>
       </c>
       <c r="G93" t="s">
-        <v>284</v>
+        <v>524</v>
       </c>
       <c r="H93" t="s">
-        <v>314</v>
+        <v>651</v>
       </c>
       <c r="I93" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4051,25 +5140,25 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="D94" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>190</v>
+        <v>323</v>
       </c>
       <c r="G94" t="s">
-        <v>285</v>
+        <v>525</v>
       </c>
       <c r="H94" t="s">
-        <v>314</v>
+        <v>651</v>
       </c>
       <c r="I94" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4080,25 +5169,25 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D95" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="G95" t="s">
-        <v>286</v>
+        <v>526</v>
       </c>
       <c r="H95" t="s">
-        <v>314</v>
+        <v>651</v>
       </c>
       <c r="I95" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4109,25 +5198,25 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="D96" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E96">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>325</v>
       </c>
       <c r="G96" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="H96" t="s">
-        <v>314</v>
+        <v>651</v>
       </c>
       <c r="I96" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4138,25 +5227,25 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D97" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>193</v>
+        <v>326</v>
       </c>
       <c r="G97" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="H97" t="s">
-        <v>314</v>
+        <v>651</v>
       </c>
       <c r="I97" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4167,25 +5256,25 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D98" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>327</v>
       </c>
       <c r="G98" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="H98" t="s">
-        <v>314</v>
+        <v>651</v>
       </c>
       <c r="I98" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4196,25 +5285,25 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="D99" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E99">
         <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>195</v>
+        <v>328</v>
       </c>
       <c r="G99" t="s">
-        <v>290</v>
+        <v>527</v>
       </c>
       <c r="H99" t="s">
-        <v>314</v>
+        <v>651</v>
       </c>
       <c r="I99" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4225,25 +5314,25 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="D100" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>329</v>
       </c>
       <c r="G100" t="s">
-        <v>291</v>
+        <v>528</v>
       </c>
       <c r="H100" t="s">
-        <v>314</v>
+        <v>651</v>
       </c>
       <c r="I100" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4254,25 +5343,25 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D101" t="s">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
-        <v>197</v>
+        <v>330</v>
       </c>
       <c r="G101" t="s">
-        <v>292</v>
+        <v>529</v>
       </c>
       <c r="H101" t="s">
-        <v>314</v>
+        <v>651</v>
       </c>
       <c r="I101" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4283,25 +5372,25 @@
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D102" t="s">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="E102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>331</v>
       </c>
       <c r="G102" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="H102" t="s">
-        <v>314</v>
+        <v>651</v>
       </c>
       <c r="I102" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4312,25 +5401,25 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="D103" t="s">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="E103">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>199</v>
+        <v>332</v>
       </c>
       <c r="G103" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="H103" t="s">
-        <v>314</v>
+        <v>651</v>
       </c>
       <c r="I103" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4341,25 +5430,25 @@
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="D104" t="s">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="E104">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>333</v>
       </c>
       <c r="G104" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="H104" t="s">
-        <v>314</v>
+        <v>651</v>
       </c>
       <c r="I104" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4370,25 +5459,25 @@
         <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="D105" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E105">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>201</v>
+        <v>334</v>
       </c>
       <c r="G105" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="H105" t="s">
-        <v>314</v>
+        <v>651</v>
       </c>
       <c r="I105" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4399,257 +5488,3911 @@
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="D106" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E106">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>335</v>
       </c>
       <c r="G106" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="H106" t="s">
-        <v>314</v>
+        <v>651</v>
       </c>
       <c r="I106" t="s">
-        <v>321</v>
+        <v>677</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B107">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="D107" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="E107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>203</v>
+        <v>336</v>
       </c>
       <c r="G107" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="H107" t="s">
-        <v>315</v>
+        <v>651</v>
       </c>
       <c r="I107" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B108">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C108" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="D108" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>337</v>
       </c>
       <c r="G108" t="s">
-        <v>299</v>
+        <v>530</v>
       </c>
       <c r="H108" t="s">
-        <v>315</v>
+        <v>651</v>
       </c>
       <c r="I108" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B109">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="D109" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E109">
         <v>3</v>
       </c>
       <c r="F109" t="s">
-        <v>205</v>
+        <v>338</v>
       </c>
       <c r="G109" t="s">
-        <v>300</v>
+        <v>531</v>
       </c>
       <c r="H109" t="s">
-        <v>315</v>
+        <v>651</v>
       </c>
       <c r="I109" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110">
         <v>19</v>
       </c>
-      <c r="B110">
-        <v>22</v>
-      </c>
       <c r="C110" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="D110" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>339</v>
       </c>
       <c r="G110" t="s">
-        <v>301</v>
+        <v>532</v>
       </c>
       <c r="H110" t="s">
-        <v>315</v>
+        <v>651</v>
       </c>
       <c r="I110" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B111">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C111" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="D111" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E111">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F111" t="s">
-        <v>207</v>
+        <v>340</v>
       </c>
       <c r="G111" t="s">
-        <v>302</v>
+        <v>533</v>
       </c>
       <c r="H111" t="s">
-        <v>315</v>
+        <v>651</v>
       </c>
       <c r="I111" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B112">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C112" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D112" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E112">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>208</v>
+        <v>341</v>
       </c>
       <c r="G112" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="H112" t="s">
-        <v>315</v>
+        <v>651</v>
       </c>
       <c r="I112" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113">
+        <v>22</v>
+      </c>
+      <c r="C113" t="s">
+        <v>138</v>
+      </c>
+      <c r="D113" t="s">
+        <v>226</v>
+      </c>
+      <c r="E113">
         <v>20</v>
       </c>
-      <c r="B113">
-        <v>149</v>
-      </c>
-      <c r="C113" t="s">
-        <v>98</v>
-      </c>
-      <c r="D113" t="s">
-        <v>100</v>
-      </c>
-      <c r="E113">
-        <v>100</v>
-      </c>
       <c r="F113" t="s">
-        <v>209</v>
+        <v>342</v>
       </c>
       <c r="G113" t="s">
-        <v>304</v>
+        <v>534</v>
       </c>
       <c r="H113" t="s">
-        <v>316</v>
+        <v>651</v>
       </c>
       <c r="I113" t="s">
-        <v>319</v>
+        <v>677</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114">
+        <v>23</v>
+      </c>
+      <c r="C114" t="s">
+        <v>139</v>
+      </c>
+      <c r="D114" t="s">
+        <v>226</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>343</v>
+      </c>
+      <c r="G114" t="s">
+        <v>343</v>
+      </c>
+      <c r="H114" t="s">
+        <v>651</v>
+      </c>
+      <c r="I114" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115">
+        <v>24</v>
+      </c>
+      <c r="C115" t="s">
+        <v>140</v>
+      </c>
+      <c r="D115" t="s">
+        <v>226</v>
+      </c>
+      <c r="E115">
         <v>20</v>
       </c>
-      <c r="B114">
+      <c r="F115" t="s">
+        <v>344</v>
+      </c>
+      <c r="G115" t="s">
+        <v>535</v>
+      </c>
+      <c r="H115" t="s">
+        <v>651</v>
+      </c>
+      <c r="I115" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116">
+        <v>25</v>
+      </c>
+      <c r="C116" t="s">
+        <v>141</v>
+      </c>
+      <c r="D116" t="s">
+        <v>226</v>
+      </c>
+      <c r="E116">
+        <v>20</v>
+      </c>
+      <c r="F116" t="s">
+        <v>345</v>
+      </c>
+      <c r="G116" t="s">
+        <v>536</v>
+      </c>
+      <c r="H116" t="s">
+        <v>651</v>
+      </c>
+      <c r="I116" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117">
+        <v>26</v>
+      </c>
+      <c r="C117" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" t="s">
+        <v>226</v>
+      </c>
+      <c r="E117">
+        <v>20</v>
+      </c>
+      <c r="F117" t="s">
+        <v>346</v>
+      </c>
+      <c r="G117" t="s">
+        <v>537</v>
+      </c>
+      <c r="H117" t="s">
+        <v>651</v>
+      </c>
+      <c r="I117" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118">
+        <v>27</v>
+      </c>
+      <c r="C118" t="s">
+        <v>142</v>
+      </c>
+      <c r="D118" t="s">
+        <v>226</v>
+      </c>
+      <c r="E118">
+        <v>20</v>
+      </c>
+      <c r="F118" t="s">
+        <v>347</v>
+      </c>
+      <c r="G118" t="s">
+        <v>502</v>
+      </c>
+      <c r="H118" t="s">
+        <v>651</v>
+      </c>
+      <c r="I118" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119">
+        <v>28</v>
+      </c>
+      <c r="C119" t="s">
+        <v>143</v>
+      </c>
+      <c r="D119" t="s">
+        <v>226</v>
+      </c>
+      <c r="E119">
+        <v>20</v>
+      </c>
+      <c r="F119" t="s">
+        <v>348</v>
+      </c>
+      <c r="G119" t="s">
+        <v>538</v>
+      </c>
+      <c r="H119" t="s">
+        <v>651</v>
+      </c>
+      <c r="I119" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>18</v>
+      </c>
+      <c r="B120">
+        <v>29</v>
+      </c>
+      <c r="C120" t="s">
+        <v>58</v>
+      </c>
+      <c r="D120" t="s">
+        <v>226</v>
+      </c>
+      <c r="E120">
+        <v>40</v>
+      </c>
+      <c r="F120" t="s">
+        <v>349</v>
+      </c>
+      <c r="G120" t="s">
+        <v>539</v>
+      </c>
+      <c r="H120" t="s">
+        <v>651</v>
+      </c>
+      <c r="I120" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121">
+        <v>30</v>
+      </c>
+      <c r="C121" t="s">
+        <v>144</v>
+      </c>
+      <c r="D121" t="s">
+        <v>226</v>
+      </c>
+      <c r="E121">
+        <v>20</v>
+      </c>
+      <c r="F121" t="s">
+        <v>350</v>
+      </c>
+      <c r="G121" t="s">
+        <v>540</v>
+      </c>
+      <c r="H121" t="s">
+        <v>651</v>
+      </c>
+      <c r="I121" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>18</v>
+      </c>
+      <c r="B122">
+        <v>31</v>
+      </c>
+      <c r="C122" t="s">
+        <v>144</v>
+      </c>
+      <c r="D122" t="s">
+        <v>226</v>
+      </c>
+      <c r="E122">
+        <v>20</v>
+      </c>
+      <c r="F122" t="s">
+        <v>350</v>
+      </c>
+      <c r="G122" t="s">
+        <v>540</v>
+      </c>
+      <c r="H122" t="s">
+        <v>651</v>
+      </c>
+      <c r="I122" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123">
+        <v>32</v>
+      </c>
+      <c r="C123" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123" t="s">
+        <v>226</v>
+      </c>
+      <c r="E123">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>351</v>
+      </c>
+      <c r="G123" t="s">
+        <v>541</v>
+      </c>
+      <c r="H123" t="s">
+        <v>651</v>
+      </c>
+      <c r="I123" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124">
+        <v>33</v>
+      </c>
+      <c r="C124" t="s">
+        <v>145</v>
+      </c>
+      <c r="D124" t="s">
+        <v>226</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>352</v>
+      </c>
+      <c r="G124" t="s">
+        <v>542</v>
+      </c>
+      <c r="H124" t="s">
+        <v>651</v>
+      </c>
+      <c r="I124" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125">
+        <v>34</v>
+      </c>
+      <c r="C125" t="s">
+        <v>67</v>
+      </c>
+      <c r="D125" t="s">
+        <v>226</v>
+      </c>
+      <c r="E125">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>353</v>
+      </c>
+      <c r="G125" t="s">
+        <v>543</v>
+      </c>
+      <c r="H125" t="s">
+        <v>651</v>
+      </c>
+      <c r="I125" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126">
+        <v>35</v>
+      </c>
+      <c r="C126" t="s">
+        <v>146</v>
+      </c>
+      <c r="D126" t="s">
+        <v>226</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
+        <v>354</v>
+      </c>
+      <c r="G126" t="s">
+        <v>544</v>
+      </c>
+      <c r="H126" t="s">
+        <v>651</v>
+      </c>
+      <c r="I126" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127">
+        <v>36</v>
+      </c>
+      <c r="C127" t="s">
+        <v>147</v>
+      </c>
+      <c r="D127" t="s">
+        <v>226</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s">
+        <v>355</v>
+      </c>
+      <c r="G127" t="s">
+        <v>545</v>
+      </c>
+      <c r="H127" t="s">
+        <v>651</v>
+      </c>
+      <c r="I127" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128">
+        <v>37</v>
+      </c>
+      <c r="C128" t="s">
+        <v>62</v>
+      </c>
+      <c r="D128" t="s">
+        <v>226</v>
+      </c>
+      <c r="E128">
+        <v>10</v>
+      </c>
+      <c r="F128" t="s">
+        <v>356</v>
+      </c>
+      <c r="G128" t="s">
+        <v>546</v>
+      </c>
+      <c r="H128" t="s">
+        <v>651</v>
+      </c>
+      <c r="I128" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129">
+        <v>38</v>
+      </c>
+      <c r="C129" t="s">
+        <v>148</v>
+      </c>
+      <c r="D129" t="s">
+        <v>226</v>
+      </c>
+      <c r="E129">
+        <v>15</v>
+      </c>
+      <c r="F129" t="s">
+        <v>357</v>
+      </c>
+      <c r="G129" t="s">
+        <v>547</v>
+      </c>
+      <c r="H129" t="s">
+        <v>651</v>
+      </c>
+      <c r="I129" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B130">
+        <v>39</v>
+      </c>
+      <c r="C130" t="s">
+        <v>149</v>
+      </c>
+      <c r="D130" t="s">
+        <v>228</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130" t="s">
+        <v>358</v>
+      </c>
+      <c r="G130" t="s">
+        <v>548</v>
+      </c>
+      <c r="H130" t="s">
+        <v>651</v>
+      </c>
+      <c r="I130" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131">
+        <v>40</v>
+      </c>
+      <c r="C131" t="s">
+        <v>150</v>
+      </c>
+      <c r="D131" t="s">
+        <v>228</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131" t="s">
+        <v>359</v>
+      </c>
+      <c r="G131" t="s">
+        <v>549</v>
+      </c>
+      <c r="H131" t="s">
+        <v>651</v>
+      </c>
+      <c r="I131" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>18</v>
+      </c>
+      <c r="B132">
+        <v>41</v>
+      </c>
+      <c r="C132" t="s">
+        <v>151</v>
+      </c>
+      <c r="D132" t="s">
+        <v>228</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132" t="s">
+        <v>360</v>
+      </c>
+      <c r="G132" t="s">
+        <v>550</v>
+      </c>
+      <c r="H132" t="s">
+        <v>651</v>
+      </c>
+      <c r="I132" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133">
+        <v>42</v>
+      </c>
+      <c r="C133" t="s">
+        <v>152</v>
+      </c>
+      <c r="D133" t="s">
+        <v>228</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133" t="s">
+        <v>361</v>
+      </c>
+      <c r="G133" t="s">
+        <v>551</v>
+      </c>
+      <c r="H133" t="s">
+        <v>651</v>
+      </c>
+      <c r="I133" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134">
+        <v>43</v>
+      </c>
+      <c r="C134" t="s">
+        <v>153</v>
+      </c>
+      <c r="D134" t="s">
+        <v>226</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134" t="s">
+        <v>362</v>
+      </c>
+      <c r="G134" t="s">
+        <v>552</v>
+      </c>
+      <c r="H134" t="s">
+        <v>651</v>
+      </c>
+      <c r="I134" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135">
+        <v>44</v>
+      </c>
+      <c r="C135" t="s">
+        <v>55</v>
+      </c>
+      <c r="D135" t="s">
+        <v>226</v>
+      </c>
+      <c r="E135">
+        <v>10</v>
+      </c>
+      <c r="F135" t="s">
+        <v>363</v>
+      </c>
+      <c r="G135" t="s">
+        <v>553</v>
+      </c>
+      <c r="H135" t="s">
+        <v>651</v>
+      </c>
+      <c r="I135" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136">
+        <v>45</v>
+      </c>
+      <c r="C136" t="s">
+        <v>154</v>
+      </c>
+      <c r="D136" t="s">
+        <v>226</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136" t="s">
+        <v>364</v>
+      </c>
+      <c r="G136" t="s">
+        <v>554</v>
+      </c>
+      <c r="H136" t="s">
+        <v>651</v>
+      </c>
+      <c r="I136" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137">
+        <v>21</v>
+      </c>
+      <c r="C137" t="s">
+        <v>155</v>
+      </c>
+      <c r="D137" t="s">
+        <v>226</v>
+      </c>
+      <c r="E137">
+        <v>98</v>
+      </c>
+      <c r="F137" t="s">
+        <v>365</v>
+      </c>
+      <c r="G137" t="s">
+        <v>555</v>
+      </c>
+      <c r="H137" t="s">
+        <v>648</v>
+      </c>
+      <c r="I137" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138">
+        <v>22</v>
+      </c>
+      <c r="C138" t="s">
+        <v>156</v>
+      </c>
+      <c r="D138" t="s">
+        <v>226</v>
+      </c>
+      <c r="E138">
+        <v>34</v>
+      </c>
+      <c r="F138" t="s">
+        <v>366</v>
+      </c>
+      <c r="G138" t="s">
+        <v>556</v>
+      </c>
+      <c r="H138" t="s">
+        <v>648</v>
+      </c>
+      <c r="I138" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139">
+        <v>23</v>
+      </c>
+      <c r="C139" t="s">
+        <v>157</v>
+      </c>
+      <c r="D139" t="s">
+        <v>226</v>
+      </c>
+      <c r="E139">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
+        <v>367</v>
+      </c>
+      <c r="G139" t="s">
+        <v>557</v>
+      </c>
+      <c r="H139" t="s">
+        <v>648</v>
+      </c>
+      <c r="I139" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140">
+        <v>24</v>
+      </c>
+      <c r="C140" t="s">
+        <v>158</v>
+      </c>
+      <c r="D140" t="s">
+        <v>226</v>
+      </c>
+      <c r="E140">
+        <v>12</v>
+      </c>
+      <c r="F140" t="s">
+        <v>368</v>
+      </c>
+      <c r="G140" t="s">
+        <v>558</v>
+      </c>
+      <c r="H140" t="s">
+        <v>648</v>
+      </c>
+      <c r="I140" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141">
+        <v>26</v>
+      </c>
+      <c r="C141" t="s">
+        <v>159</v>
+      </c>
+      <c r="D141" t="s">
+        <v>226</v>
+      </c>
+      <c r="E141">
+        <v>8</v>
+      </c>
+      <c r="F141" t="s">
+        <v>369</v>
+      </c>
+      <c r="G141" t="s">
+        <v>559</v>
+      </c>
+      <c r="H141" t="s">
+        <v>648</v>
+      </c>
+      <c r="I141" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142">
+        <v>27</v>
+      </c>
+      <c r="C142" t="s">
+        <v>160</v>
+      </c>
+      <c r="D142" t="s">
+        <v>226</v>
+      </c>
+      <c r="E142">
+        <v>8</v>
+      </c>
+      <c r="F142" t="s">
+        <v>370</v>
+      </c>
+      <c r="G142" t="s">
+        <v>560</v>
+      </c>
+      <c r="H142" t="s">
+        <v>648</v>
+      </c>
+      <c r="I142" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143">
+        <v>30</v>
+      </c>
+      <c r="C143" t="s">
+        <v>50</v>
+      </c>
+      <c r="D143" t="s">
+        <v>226</v>
+      </c>
+      <c r="E143">
+        <v>35</v>
+      </c>
+      <c r="F143" t="s">
+        <v>371</v>
+      </c>
+      <c r="G143" t="s">
+        <v>561</v>
+      </c>
+      <c r="H143" t="s">
+        <v>648</v>
+      </c>
+      <c r="I143" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>20</v>
+      </c>
+      <c r="B144">
+        <v>38</v>
+      </c>
+      <c r="C144" t="s">
+        <v>161</v>
+      </c>
+      <c r="D144" t="s">
+        <v>226</v>
+      </c>
+      <c r="E144">
+        <v>15</v>
+      </c>
+      <c r="F144" t="s">
+        <v>372</v>
+      </c>
+      <c r="G144" t="s">
+        <v>562</v>
+      </c>
+      <c r="H144" t="s">
+        <v>648</v>
+      </c>
+      <c r="I144" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145">
+        <v>41</v>
+      </c>
+      <c r="C145" t="s">
+        <v>50</v>
+      </c>
+      <c r="D145" t="s">
+        <v>226</v>
+      </c>
+      <c r="E145">
+        <v>8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>371</v>
+      </c>
+      <c r="G145" t="s">
+        <v>563</v>
+      </c>
+      <c r="H145" t="s">
+        <v>648</v>
+      </c>
+      <c r="I145" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>162</v>
+      </c>
+      <c r="D146" t="s">
+        <v>226</v>
+      </c>
+      <c r="E146">
+        <v>8</v>
+      </c>
+      <c r="F146" t="s">
+        <v>373</v>
+      </c>
+      <c r="G146" t="s">
+        <v>564</v>
+      </c>
+      <c r="H146" t="s">
+        <v>644</v>
+      </c>
+      <c r="I146" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147">
+        <v>16</v>
+      </c>
+      <c r="C147" t="s">
+        <v>163</v>
+      </c>
+      <c r="D147" t="s">
+        <v>226</v>
+      </c>
+      <c r="E147">
+        <v>38</v>
+      </c>
+      <c r="F147" t="s">
+        <v>374</v>
+      </c>
+      <c r="G147" t="s">
+        <v>565</v>
+      </c>
+      <c r="H147" t="s">
+        <v>644</v>
+      </c>
+      <c r="I147" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148">
+        <v>17</v>
+      </c>
+      <c r="C148" t="s">
+        <v>164</v>
+      </c>
+      <c r="D148" t="s">
+        <v>226</v>
+      </c>
+      <c r="E148">
+        <v>38</v>
+      </c>
+      <c r="F148" t="s">
+        <v>375</v>
+      </c>
+      <c r="G148" t="s">
+        <v>566</v>
+      </c>
+      <c r="H148" t="s">
+        <v>644</v>
+      </c>
+      <c r="I148" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149">
+        <v>20</v>
+      </c>
+      <c r="C149" t="s">
+        <v>165</v>
+      </c>
+      <c r="D149" t="s">
+        <v>226</v>
+      </c>
+      <c r="E149">
+        <v>12</v>
+      </c>
+      <c r="F149" t="s">
+        <v>376</v>
+      </c>
+      <c r="G149" t="s">
+        <v>567</v>
+      </c>
+      <c r="H149" t="s">
+        <v>644</v>
+      </c>
+      <c r="I149" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150">
+        <v>30</v>
+      </c>
+      <c r="C150" t="s">
+        <v>166</v>
+      </c>
+      <c r="D150" t="s">
+        <v>226</v>
+      </c>
+      <c r="E150">
+        <v>90</v>
+      </c>
+      <c r="F150" t="s">
+        <v>377</v>
+      </c>
+      <c r="G150" t="s">
+        <v>568</v>
+      </c>
+      <c r="H150" t="s">
+        <v>644</v>
+      </c>
+      <c r="I150" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151">
+        <v>35</v>
+      </c>
+      <c r="C151" t="s">
+        <v>162</v>
+      </c>
+      <c r="D151" t="s">
+        <v>226</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151" t="s">
+        <v>373</v>
+      </c>
+      <c r="G151" t="s">
+        <v>569</v>
+      </c>
+      <c r="H151" t="s">
+        <v>644</v>
+      </c>
+      <c r="I151" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152">
+        <v>47</v>
+      </c>
+      <c r="C152" t="s">
+        <v>163</v>
+      </c>
+      <c r="D152" t="s">
+        <v>226</v>
+      </c>
+      <c r="E152">
+        <v>12</v>
+      </c>
+      <c r="F152" t="s">
+        <v>374</v>
+      </c>
+      <c r="G152" t="s">
+        <v>570</v>
+      </c>
+      <c r="H152" t="s">
+        <v>644</v>
+      </c>
+      <c r="I152" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153">
+        <v>48</v>
+      </c>
+      <c r="C153" t="s">
+        <v>164</v>
+      </c>
+      <c r="D153" t="s">
+        <v>226</v>
+      </c>
+      <c r="E153">
+        <v>12</v>
+      </c>
+      <c r="F153" t="s">
+        <v>375</v>
+      </c>
+      <c r="G153" t="s">
+        <v>571</v>
+      </c>
+      <c r="H153" t="s">
+        <v>644</v>
+      </c>
+      <c r="I153" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154">
+        <v>51</v>
+      </c>
+      <c r="C154" t="s">
+        <v>165</v>
+      </c>
+      <c r="D154" t="s">
+        <v>226</v>
+      </c>
+      <c r="E154">
+        <v>3</v>
+      </c>
+      <c r="F154" t="s">
+        <v>376</v>
+      </c>
+      <c r="G154" t="s">
+        <v>572</v>
+      </c>
+      <c r="H154" t="s">
+        <v>644</v>
+      </c>
+      <c r="I154" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>21</v>
+      </c>
+      <c r="B155">
+        <v>60</v>
+      </c>
+      <c r="C155" t="s">
+        <v>166</v>
+      </c>
+      <c r="D155" t="s">
+        <v>226</v>
+      </c>
+      <c r="E155">
+        <v>30</v>
+      </c>
+      <c r="F155" t="s">
+        <v>377</v>
+      </c>
+      <c r="G155" t="s">
+        <v>573</v>
+      </c>
+      <c r="H155" t="s">
+        <v>644</v>
+      </c>
+      <c r="I155" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>22</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>167</v>
+      </c>
+      <c r="D156" t="s">
+        <v>230</v>
+      </c>
+      <c r="E156">
+        <v>30</v>
+      </c>
+      <c r="F156" t="s">
+        <v>378</v>
+      </c>
+      <c r="G156" t="s">
+        <v>574</v>
+      </c>
+      <c r="H156" t="s">
+        <v>652</v>
+      </c>
+      <c r="I156" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>23</v>
+      </c>
+      <c r="B157">
+        <v>24</v>
+      </c>
+      <c r="C157" t="s">
+        <v>168</v>
+      </c>
+      <c r="D157" t="s">
+        <v>231</v>
+      </c>
+      <c r="E157">
+        <v>120</v>
+      </c>
+      <c r="F157" t="s">
+        <v>379</v>
+      </c>
+      <c r="G157" t="s">
+        <v>575</v>
+      </c>
+      <c r="H157" t="s">
+        <v>653</v>
+      </c>
+      <c r="I157" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>24</v>
+      </c>
+      <c r="B158">
+        <v>83</v>
+      </c>
+      <c r="C158" t="s">
+        <v>169</v>
+      </c>
+      <c r="D158" t="s">
+        <v>226</v>
+      </c>
+      <c r="E158">
+        <v>20</v>
+      </c>
+      <c r="F158" t="s">
+        <v>380</v>
+      </c>
+      <c r="G158" t="s">
+        <v>576</v>
+      </c>
+      <c r="H158" t="s">
+        <v>654</v>
+      </c>
+      <c r="I158" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>24</v>
+      </c>
+      <c r="B159">
+        <v>84</v>
+      </c>
+      <c r="C159" t="s">
+        <v>170</v>
+      </c>
+      <c r="D159" t="s">
+        <v>226</v>
+      </c>
+      <c r="E159">
+        <v>20</v>
+      </c>
+      <c r="F159" t="s">
+        <v>381</v>
+      </c>
+      <c r="G159" t="s">
+        <v>577</v>
+      </c>
+      <c r="H159" t="s">
+        <v>654</v>
+      </c>
+      <c r="I159" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>24</v>
+      </c>
+      <c r="B160">
+        <v>85</v>
+      </c>
+      <c r="C160" t="s">
+        <v>171</v>
+      </c>
+      <c r="D160" t="s">
+        <v>226</v>
+      </c>
+      <c r="E160">
+        <v>20</v>
+      </c>
+      <c r="F160" t="s">
+        <v>382</v>
+      </c>
+      <c r="G160" t="s">
+        <v>578</v>
+      </c>
+      <c r="H160" t="s">
+        <v>654</v>
+      </c>
+      <c r="I160" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>24</v>
+      </c>
+      <c r="B161">
+        <v>114</v>
+      </c>
+      <c r="C161" t="s">
+        <v>172</v>
+      </c>
+      <c r="D161" t="s">
+        <v>232</v>
+      </c>
+      <c r="E161">
+        <v>200</v>
+      </c>
+      <c r="F161" t="s">
+        <v>383</v>
+      </c>
+      <c r="G161" t="s">
+        <v>579</v>
+      </c>
+      <c r="H161" t="s">
+        <v>654</v>
+      </c>
+      <c r="I161" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>24</v>
+      </c>
+      <c r="B162">
+        <v>115</v>
+      </c>
+      <c r="C162" t="s">
+        <v>172</v>
+      </c>
+      <c r="D162" t="s">
+        <v>232</v>
+      </c>
+      <c r="E162">
+        <v>200</v>
+      </c>
+      <c r="F162" t="s">
+        <v>384</v>
+      </c>
+      <c r="G162" t="s">
+        <v>580</v>
+      </c>
+      <c r="H162" t="s">
+        <v>654</v>
+      </c>
+      <c r="I162" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>24</v>
+      </c>
+      <c r="B163">
+        <v>116</v>
+      </c>
+      <c r="C163" t="s">
+        <v>172</v>
+      </c>
+      <c r="D163" t="s">
+        <v>232</v>
+      </c>
+      <c r="E163">
+        <v>200</v>
+      </c>
+      <c r="F163" t="s">
+        <v>385</v>
+      </c>
+      <c r="G163" t="s">
+        <v>581</v>
+      </c>
+      <c r="H163" t="s">
+        <v>654</v>
+      </c>
+      <c r="I163" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>24</v>
+      </c>
+      <c r="B164">
+        <v>117</v>
+      </c>
+      <c r="C164" t="s">
+        <v>172</v>
+      </c>
+      <c r="D164" t="s">
+        <v>232</v>
+      </c>
+      <c r="E164">
+        <v>200</v>
+      </c>
+      <c r="F164" t="s">
+        <v>386</v>
+      </c>
+      <c r="G164" t="s">
+        <v>582</v>
+      </c>
+      <c r="H164" t="s">
+        <v>654</v>
+      </c>
+      <c r="I164" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>24</v>
+      </c>
+      <c r="B165">
+        <v>118</v>
+      </c>
+      <c r="C165" t="s">
+        <v>172</v>
+      </c>
+      <c r="D165" t="s">
+        <v>232</v>
+      </c>
+      <c r="E165">
+        <v>200</v>
+      </c>
+      <c r="F165" t="s">
+        <v>387</v>
+      </c>
+      <c r="G165" t="s">
+        <v>583</v>
+      </c>
+      <c r="H165" t="s">
+        <v>654</v>
+      </c>
+      <c r="I165" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
+        <v>24</v>
+      </c>
+      <c r="B166">
+        <v>119</v>
+      </c>
+      <c r="C166" t="s">
+        <v>172</v>
+      </c>
+      <c r="D166" t="s">
+        <v>232</v>
+      </c>
+      <c r="E166">
+        <v>150</v>
+      </c>
+      <c r="F166" t="s">
+        <v>388</v>
+      </c>
+      <c r="G166" t="s">
+        <v>584</v>
+      </c>
+      <c r="H166" t="s">
+        <v>654</v>
+      </c>
+      <c r="I166" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167">
+        <v>120</v>
+      </c>
+      <c r="C167" t="s">
+        <v>172</v>
+      </c>
+      <c r="D167" t="s">
+        <v>232</v>
+      </c>
+      <c r="E167">
+        <v>150</v>
+      </c>
+      <c r="F167" t="s">
+        <v>389</v>
+      </c>
+      <c r="G167" t="s">
+        <v>585</v>
+      </c>
+      <c r="H167" t="s">
+        <v>654</v>
+      </c>
+      <c r="I167" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>24</v>
+      </c>
+      <c r="B168">
+        <v>121</v>
+      </c>
+      <c r="C168" t="s">
+        <v>172</v>
+      </c>
+      <c r="D168" t="s">
+        <v>232</v>
+      </c>
+      <c r="E168">
+        <v>150</v>
+      </c>
+      <c r="F168" t="s">
+        <v>390</v>
+      </c>
+      <c r="G168" t="s">
+        <v>586</v>
+      </c>
+      <c r="H168" t="s">
+        <v>654</v>
+      </c>
+      <c r="I168" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>24</v>
+      </c>
+      <c r="B169">
+        <v>122</v>
+      </c>
+      <c r="C169" t="s">
+        <v>172</v>
+      </c>
+      <c r="D169" t="s">
+        <v>232</v>
+      </c>
+      <c r="E169">
+        <v>150</v>
+      </c>
+      <c r="F169" t="s">
+        <v>391</v>
+      </c>
+      <c r="G169" t="s">
+        <v>587</v>
+      </c>
+      <c r="H169" t="s">
+        <v>654</v>
+      </c>
+      <c r="I169" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
+        <v>24</v>
+      </c>
+      <c r="B170">
+        <v>123</v>
+      </c>
+      <c r="C170" t="s">
+        <v>172</v>
+      </c>
+      <c r="D170" t="s">
+        <v>232</v>
+      </c>
+      <c r="E170">
+        <v>150</v>
+      </c>
+      <c r="F170" t="s">
+        <v>392</v>
+      </c>
+      <c r="G170" t="s">
+        <v>588</v>
+      </c>
+      <c r="H170" t="s">
+        <v>654</v>
+      </c>
+      <c r="I170" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>25</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>173</v>
+      </c>
+      <c r="D171" t="s">
+        <v>226</v>
+      </c>
+      <c r="E171">
+        <v>15</v>
+      </c>
+      <c r="F171" t="s">
+        <v>393</v>
+      </c>
+      <c r="G171" t="s">
+        <v>589</v>
+      </c>
+      <c r="H171" t="s">
+        <v>655</v>
+      </c>
+      <c r="I171" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>25</v>
+      </c>
+      <c r="B172">
+        <v>18</v>
+      </c>
+      <c r="C172" t="s">
+        <v>174</v>
+      </c>
+      <c r="D172" t="s">
+        <v>226</v>
+      </c>
+      <c r="E172">
+        <v>30</v>
+      </c>
+      <c r="F172" t="s">
+        <v>394</v>
+      </c>
+      <c r="G172" t="s">
+        <v>590</v>
+      </c>
+      <c r="H172" t="s">
+        <v>655</v>
+      </c>
+      <c r="I172" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>26</v>
+      </c>
+      <c r="B173">
+        <v>9</v>
+      </c>
+      <c r="C173" t="s">
+        <v>175</v>
+      </c>
+      <c r="D173" t="s">
+        <v>226</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="F173" t="s">
+        <v>395</v>
+      </c>
+      <c r="G173" t="s">
+        <v>591</v>
+      </c>
+      <c r="H173" t="s">
+        <v>656</v>
+      </c>
+      <c r="I173" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>26</v>
+      </c>
+      <c r="B174">
+        <v>10</v>
+      </c>
+      <c r="C174" t="s">
+        <v>176</v>
+      </c>
+      <c r="D174" t="s">
+        <v>226</v>
+      </c>
+      <c r="E174">
+        <v>40</v>
+      </c>
+      <c r="F174" t="s">
+        <v>396</v>
+      </c>
+      <c r="G174" t="s">
+        <v>592</v>
+      </c>
+      <c r="H174" t="s">
+        <v>656</v>
+      </c>
+      <c r="I174" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>26</v>
+      </c>
+      <c r="B175">
+        <v>26</v>
+      </c>
+      <c r="C175" t="s">
+        <v>177</v>
+      </c>
+      <c r="D175" t="s">
+        <v>226</v>
+      </c>
+      <c r="E175">
+        <v>4</v>
+      </c>
+      <c r="F175" t="s">
+        <v>397</v>
+      </c>
+      <c r="G175" t="s">
+        <v>593</v>
+      </c>
+      <c r="H175" t="s">
+        <v>656</v>
+      </c>
+      <c r="I175" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>27</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176" t="s">
+        <v>178</v>
+      </c>
+      <c r="D176" t="s">
+        <v>226</v>
+      </c>
+      <c r="E176">
+        <v>375</v>
+      </c>
+      <c r="F176" t="s">
+        <v>398</v>
+      </c>
+      <c r="G176" t="s">
+        <v>594</v>
+      </c>
+      <c r="H176" t="s">
+        <v>657</v>
+      </c>
+      <c r="I176" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>27</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>178</v>
+      </c>
+      <c r="D177" t="s">
+        <v>226</v>
+      </c>
+      <c r="E177">
+        <v>125</v>
+      </c>
+      <c r="F177" t="s">
+        <v>398</v>
+      </c>
+      <c r="G177" t="s">
+        <v>595</v>
+      </c>
+      <c r="H177" t="s">
+        <v>657</v>
+      </c>
+      <c r="I177" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
+        <v>28</v>
+      </c>
+      <c r="B178">
+        <v>21</v>
+      </c>
+      <c r="C178" t="s">
+        <v>179</v>
+      </c>
+      <c r="D178" t="s">
+        <v>226</v>
+      </c>
+      <c r="E178">
+        <v>20</v>
+      </c>
+      <c r="F178" t="s">
+        <v>399</v>
+      </c>
+      <c r="G178" t="s">
+        <v>596</v>
+      </c>
+      <c r="H178" t="s">
+        <v>648</v>
+      </c>
+      <c r="I178" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>28</v>
+      </c>
+      <c r="B179">
+        <v>22</v>
+      </c>
+      <c r="C179" t="s">
+        <v>180</v>
+      </c>
+      <c r="D179" t="s">
+        <v>226</v>
+      </c>
+      <c r="E179">
+        <v>12</v>
+      </c>
+      <c r="F179" t="s">
+        <v>400</v>
+      </c>
+      <c r="G179" t="s">
+        <v>597</v>
+      </c>
+      <c r="H179" t="s">
+        <v>648</v>
+      </c>
+      <c r="I179" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" t="s">
+        <v>28</v>
+      </c>
+      <c r="B180">
+        <v>23</v>
+      </c>
+      <c r="C180" t="s">
+        <v>181</v>
+      </c>
+      <c r="D180" t="s">
+        <v>233</v>
+      </c>
+      <c r="E180">
+        <v>20</v>
+      </c>
+      <c r="F180" t="s">
+        <v>401</v>
+      </c>
+      <c r="G180" t="s">
+        <v>598</v>
+      </c>
+      <c r="H180" t="s">
+        <v>648</v>
+      </c>
+      <c r="I180" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" t="s">
+        <v>28</v>
+      </c>
+      <c r="B181">
+        <v>47</v>
+      </c>
+      <c r="C181" t="s">
+        <v>182</v>
+      </c>
+      <c r="D181" t="s">
+        <v>226</v>
+      </c>
+      <c r="E181">
+        <v>10</v>
+      </c>
+      <c r="F181" t="s">
+        <v>402</v>
+      </c>
+      <c r="G181" t="s">
+        <v>599</v>
+      </c>
+      <c r="H181" t="s">
+        <v>648</v>
+      </c>
+      <c r="I181" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
+        <v>28</v>
+      </c>
+      <c r="B182">
+        <v>48</v>
+      </c>
+      <c r="C182" t="s">
+        <v>183</v>
+      </c>
+      <c r="D182" t="s">
+        <v>226</v>
+      </c>
+      <c r="E182">
+        <v>10</v>
+      </c>
+      <c r="F182" t="s">
+        <v>403</v>
+      </c>
+      <c r="G182" t="s">
+        <v>600</v>
+      </c>
+      <c r="H182" t="s">
+        <v>648</v>
+      </c>
+      <c r="I182" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" t="s">
+        <v>28</v>
+      </c>
+      <c r="B183">
+        <v>52</v>
+      </c>
+      <c r="C183" t="s">
+        <v>184</v>
+      </c>
+      <c r="D183" t="s">
+        <v>226</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183" t="s">
+        <v>404</v>
+      </c>
+      <c r="G183" t="s">
+        <v>404</v>
+      </c>
+      <c r="H183" t="s">
+        <v>648</v>
+      </c>
+      <c r="I183" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
+        <v>29</v>
+      </c>
+      <c r="B184">
+        <v>6</v>
+      </c>
+      <c r="C184" t="s">
+        <v>185</v>
+      </c>
+      <c r="D184" t="s">
+        <v>226</v>
+      </c>
+      <c r="E184">
+        <v>5</v>
+      </c>
+      <c r="F184" t="s">
+        <v>236</v>
+      </c>
+      <c r="G184" t="s">
+        <v>236</v>
+      </c>
+      <c r="H184" t="s">
+        <v>658</v>
+      </c>
+      <c r="I184" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" t="s">
+        <v>30</v>
+      </c>
+      <c r="B185">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>181</v>
+      </c>
+      <c r="D185" t="s">
+        <v>226</v>
+      </c>
+      <c r="E185">
+        <v>6</v>
+      </c>
+      <c r="F185" t="s">
+        <v>236</v>
+      </c>
+      <c r="G185" t="s">
+        <v>236</v>
+      </c>
+      <c r="H185" t="s">
+        <v>659</v>
+      </c>
+      <c r="I185" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
+        <v>30</v>
+      </c>
+      <c r="B186">
+        <v>6</v>
+      </c>
+      <c r="C186" t="s">
+        <v>186</v>
+      </c>
+      <c r="D186" t="s">
+        <v>226</v>
+      </c>
+      <c r="E186">
+        <v>10</v>
+      </c>
+      <c r="F186" t="s">
+        <v>236</v>
+      </c>
+      <c r="G186" t="s">
+        <v>236</v>
+      </c>
+      <c r="H186" t="s">
+        <v>659</v>
+      </c>
+      <c r="I186" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" t="s">
+        <v>30</v>
+      </c>
+      <c r="B187">
+        <v>19</v>
+      </c>
+      <c r="C187" t="s">
+        <v>165</v>
+      </c>
+      <c r="D187" t="s">
+        <v>226</v>
+      </c>
+      <c r="E187">
+        <v>20</v>
+      </c>
+      <c r="F187" t="s">
+        <v>236</v>
+      </c>
+      <c r="G187" t="s">
+        <v>236</v>
+      </c>
+      <c r="H187" t="s">
+        <v>659</v>
+      </c>
+      <c r="I187" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" t="s">
+        <v>31</v>
+      </c>
+      <c r="B188">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s">
+        <v>187</v>
+      </c>
+      <c r="D188" t="s">
+        <v>226</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188" t="s">
+        <v>405</v>
+      </c>
+      <c r="G188" t="s">
+        <v>601</v>
+      </c>
+      <c r="H188" t="s">
+        <v>660</v>
+      </c>
+      <c r="I188" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" t="s">
+        <v>32</v>
+      </c>
+      <c r="B189">
+        <v>10</v>
+      </c>
+      <c r="C189" t="s">
+        <v>188</v>
+      </c>
+      <c r="D189" t="s">
+        <v>234</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="F189" t="s">
+        <v>406</v>
+      </c>
+      <c r="G189" t="s">
+        <v>602</v>
+      </c>
+      <c r="H189" t="s">
+        <v>661</v>
+      </c>
+      <c r="I189" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" t="s">
+        <v>32</v>
+      </c>
+      <c r="B190">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>188</v>
+      </c>
+      <c r="D190" t="s">
+        <v>234</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190" t="s">
+        <v>407</v>
+      </c>
+      <c r="G190" t="s">
+        <v>407</v>
+      </c>
+      <c r="H190" t="s">
+        <v>661</v>
+      </c>
+      <c r="I190" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" t="s">
+        <v>33</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191" t="s">
+        <v>189</v>
+      </c>
+      <c r="D191" t="s">
+        <v>226</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+      <c r="F191" t="s">
+        <v>236</v>
+      </c>
+      <c r="G191" t="s">
+        <v>236</v>
+      </c>
+      <c r="H191" t="s">
+        <v>662</v>
+      </c>
+      <c r="I191" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
+        <v>34</v>
+      </c>
+      <c r="B192">
+        <v>40</v>
+      </c>
+      <c r="C192" t="s">
+        <v>69</v>
+      </c>
+      <c r="D192" t="s">
+        <v>226</v>
+      </c>
+      <c r="E192">
+        <v>29</v>
+      </c>
+      <c r="F192" t="s">
+        <v>408</v>
+      </c>
+      <c r="G192" t="s">
+        <v>603</v>
+      </c>
+      <c r="H192" t="s">
+        <v>663</v>
+      </c>
+      <c r="I192" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
+        <v>35</v>
+      </c>
+      <c r="B193">
+        <v>38</v>
+      </c>
+      <c r="C193" t="s">
+        <v>190</v>
+      </c>
+      <c r="D193" t="s">
+        <v>226</v>
+      </c>
+      <c r="E193">
+        <v>4</v>
+      </c>
+      <c r="F193" t="s">
+        <v>409</v>
+      </c>
+      <c r="G193" t="s">
+        <v>604</v>
+      </c>
+      <c r="H193" t="s">
+        <v>664</v>
+      </c>
+      <c r="I193" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
+        <v>36</v>
+      </c>
+      <c r="B194">
+        <v>26</v>
+      </c>
+      <c r="C194" t="s">
+        <v>191</v>
+      </c>
+      <c r="D194" t="s">
+        <v>226</v>
+      </c>
+      <c r="E194">
+        <v>15</v>
+      </c>
+      <c r="F194" t="s">
+        <v>236</v>
+      </c>
+      <c r="G194" t="s">
+        <v>236</v>
+      </c>
+      <c r="H194" t="s">
+        <v>665</v>
+      </c>
+      <c r="I194" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
+        <v>36</v>
+      </c>
+      <c r="B195">
+        <v>43</v>
+      </c>
+      <c r="C195" t="s">
+        <v>192</v>
+      </c>
+      <c r="D195" t="s">
+        <v>226</v>
+      </c>
+      <c r="E195">
+        <v>4</v>
+      </c>
+      <c r="F195" t="s">
+        <v>236</v>
+      </c>
+      <c r="G195" t="s">
+        <v>236</v>
+      </c>
+      <c r="H195" t="s">
+        <v>665</v>
+      </c>
+      <c r="I195" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
+        <v>36</v>
+      </c>
+      <c r="B196">
+        <v>44</v>
+      </c>
+      <c r="C196" t="s">
+        <v>193</v>
+      </c>
+      <c r="D196" t="s">
+        <v>226</v>
+      </c>
+      <c r="E196">
+        <v>6</v>
+      </c>
+      <c r="F196" t="s">
+        <v>236</v>
+      </c>
+      <c r="G196" t="s">
+        <v>236</v>
+      </c>
+      <c r="H196" t="s">
+        <v>665</v>
+      </c>
+      <c r="I196" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" t="s">
+        <v>36</v>
+      </c>
+      <c r="B197">
+        <v>45</v>
+      </c>
+      <c r="C197" t="s">
+        <v>194</v>
+      </c>
+      <c r="D197" t="s">
+        <v>226</v>
+      </c>
+      <c r="E197">
+        <v>6</v>
+      </c>
+      <c r="F197" t="s">
+        <v>236</v>
+      </c>
+      <c r="G197" t="s">
+        <v>236</v>
+      </c>
+      <c r="H197" t="s">
+        <v>665</v>
+      </c>
+      <c r="I197" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" t="s">
+        <v>37</v>
+      </c>
+      <c r="B198">
+        <v>17</v>
+      </c>
+      <c r="C198" t="s">
+        <v>195</v>
+      </c>
+      <c r="D198" t="s">
+        <v>226</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198" t="s">
+        <v>236</v>
+      </c>
+      <c r="G198" t="s">
+        <v>236</v>
+      </c>
+      <c r="H198" t="s">
+        <v>666</v>
+      </c>
+      <c r="I198" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>37</v>
+      </c>
+      <c r="B199">
+        <v>18</v>
+      </c>
+      <c r="C199" t="s">
+        <v>196</v>
+      </c>
+      <c r="D199" t="s">
+        <v>226</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="F199" t="s">
+        <v>236</v>
+      </c>
+      <c r="G199" t="s">
+        <v>236</v>
+      </c>
+      <c r="H199" t="s">
+        <v>666</v>
+      </c>
+      <c r="I199" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>37</v>
+      </c>
+      <c r="B200">
+        <v>20</v>
+      </c>
+      <c r="C200" t="s">
+        <v>197</v>
+      </c>
+      <c r="D200" t="s">
+        <v>226</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="F200" t="s">
+        <v>236</v>
+      </c>
+      <c r="G200" t="s">
+        <v>236</v>
+      </c>
+      <c r="H200" t="s">
+        <v>666</v>
+      </c>
+      <c r="I200" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" t="s">
+        <v>37</v>
+      </c>
+      <c r="B201">
+        <v>41</v>
+      </c>
+      <c r="C201" t="s">
+        <v>198</v>
+      </c>
+      <c r="D201" t="s">
+        <v>226</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201" t="s">
+        <v>236</v>
+      </c>
+      <c r="G201" t="s">
+        <v>236</v>
+      </c>
+      <c r="H201" t="s">
+        <v>666</v>
+      </c>
+      <c r="I201" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" t="s">
+        <v>38</v>
+      </c>
+      <c r="B202">
+        <v>7</v>
+      </c>
+      <c r="C202" t="s">
+        <v>199</v>
+      </c>
+      <c r="D202" t="s">
+        <v>226</v>
+      </c>
+      <c r="E202">
+        <v>32</v>
+      </c>
+      <c r="F202" t="s">
+        <v>410</v>
+      </c>
+      <c r="G202" t="s">
+        <v>605</v>
+      </c>
+      <c r="H202" t="s">
+        <v>667</v>
+      </c>
+      <c r="I202" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" t="s">
+        <v>38</v>
+      </c>
+      <c r="B203">
+        <v>17</v>
+      </c>
+      <c r="C203" t="s">
+        <v>200</v>
+      </c>
+      <c r="D203" t="s">
+        <v>226</v>
+      </c>
+      <c r="E203">
+        <v>7</v>
+      </c>
+      <c r="F203" t="s">
+        <v>411</v>
+      </c>
+      <c r="G203" t="s">
+        <v>606</v>
+      </c>
+      <c r="H203" t="s">
+        <v>667</v>
+      </c>
+      <c r="I203" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>38</v>
+      </c>
+      <c r="B204">
+        <v>42</v>
+      </c>
+      <c r="C204" t="s">
+        <v>201</v>
+      </c>
+      <c r="D204" t="s">
+        <v>226</v>
+      </c>
+      <c r="E204">
+        <v>6</v>
+      </c>
+      <c r="F204" t="s">
+        <v>412</v>
+      </c>
+      <c r="G204" t="s">
+        <v>607</v>
+      </c>
+      <c r="H204" t="s">
+        <v>667</v>
+      </c>
+      <c r="I204" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" t="s">
+        <v>38</v>
+      </c>
+      <c r="B205">
+        <v>49</v>
+      </c>
+      <c r="C205" t="s">
+        <v>202</v>
+      </c>
+      <c r="D205" t="s">
+        <v>226</v>
+      </c>
+      <c r="E205">
+        <v>5</v>
+      </c>
+      <c r="F205" t="s">
+        <v>413</v>
+      </c>
+      <c r="G205" t="s">
+        <v>608</v>
+      </c>
+      <c r="H205" t="s">
+        <v>667</v>
+      </c>
+      <c r="I205" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" t="s">
+        <v>38</v>
+      </c>
+      <c r="B206">
+        <v>54</v>
+      </c>
+      <c r="C206" t="s">
+        <v>203</v>
+      </c>
+      <c r="D206" t="s">
+        <v>226</v>
+      </c>
+      <c r="E206">
+        <v>2</v>
+      </c>
+      <c r="F206" t="s">
+        <v>414</v>
+      </c>
+      <c r="G206" t="s">
+        <v>609</v>
+      </c>
+      <c r="H206" t="s">
+        <v>667</v>
+      </c>
+      <c r="I206" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>39</v>
+      </c>
+      <c r="B207">
+        <v>38</v>
+      </c>
+      <c r="C207" t="s">
+        <v>204</v>
+      </c>
+      <c r="D207" t="s">
+        <v>226</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207" t="s">
+        <v>415</v>
+      </c>
+      <c r="G207" t="s">
+        <v>415</v>
+      </c>
+      <c r="H207" t="s">
+        <v>668</v>
+      </c>
+      <c r="I207" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
+        <v>39</v>
+      </c>
+      <c r="B208">
+        <v>39</v>
+      </c>
+      <c r="C208" t="s">
+        <v>205</v>
+      </c>
+      <c r="D208" t="s">
+        <v>226</v>
+      </c>
+      <c r="E208">
+        <v>5</v>
+      </c>
+      <c r="F208" t="s">
+        <v>416</v>
+      </c>
+      <c r="G208" t="s">
+        <v>610</v>
+      </c>
+      <c r="H208" t="s">
+        <v>668</v>
+      </c>
+      <c r="I208" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
+        <v>39</v>
+      </c>
+      <c r="B209">
+        <v>40</v>
+      </c>
+      <c r="C209" t="s">
+        <v>206</v>
+      </c>
+      <c r="D209" t="s">
+        <v>226</v>
+      </c>
+      <c r="E209">
+        <v>2</v>
+      </c>
+      <c r="F209" t="s">
+        <v>417</v>
+      </c>
+      <c r="G209" t="s">
+        <v>611</v>
+      </c>
+      <c r="H209" t="s">
+        <v>668</v>
+      </c>
+      <c r="I209" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
+        <v>40</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>207</v>
+      </c>
+      <c r="D210" t="s">
+        <v>226</v>
+      </c>
+      <c r="E210">
+        <v>8</v>
+      </c>
+      <c r="F210" t="s">
+        <v>418</v>
+      </c>
+      <c r="G210" t="s">
+        <v>612</v>
+      </c>
+      <c r="H210" t="s">
+        <v>669</v>
+      </c>
+      <c r="I210" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" t="s">
+        <v>40</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+      <c r="C211" t="s">
+        <v>208</v>
+      </c>
+      <c r="D211" t="s">
+        <v>226</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211" t="s">
+        <v>419</v>
+      </c>
+      <c r="G211" t="s">
+        <v>613</v>
+      </c>
+      <c r="H211" t="s">
+        <v>669</v>
+      </c>
+      <c r="I211" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" t="s">
+        <v>40</v>
+      </c>
+      <c r="B212">
+        <v>3</v>
+      </c>
+      <c r="C212" t="s">
+        <v>208</v>
+      </c>
+      <c r="D212" t="s">
+        <v>226</v>
+      </c>
+      <c r="E212">
+        <v>2</v>
+      </c>
+      <c r="F212" t="s">
+        <v>420</v>
+      </c>
+      <c r="G212" t="s">
+        <v>614</v>
+      </c>
+      <c r="H212" t="s">
+        <v>669</v>
+      </c>
+      <c r="I212" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
+        <v>40</v>
+      </c>
+      <c r="B213">
+        <v>4</v>
+      </c>
+      <c r="C213" t="s">
+        <v>209</v>
+      </c>
+      <c r="D213" t="s">
+        <v>226</v>
+      </c>
+      <c r="E213">
+        <v>2</v>
+      </c>
+      <c r="F213" t="s">
+        <v>421</v>
+      </c>
+      <c r="G213" t="s">
+        <v>615</v>
+      </c>
+      <c r="H213" t="s">
+        <v>669</v>
+      </c>
+      <c r="I213" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" t="s">
+        <v>40</v>
+      </c>
+      <c r="B214">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>210</v>
+      </c>
+      <c r="D214" t="s">
+        <v>226</v>
+      </c>
+      <c r="E214">
+        <v>15</v>
+      </c>
+      <c r="F214" t="s">
+        <v>422</v>
+      </c>
+      <c r="G214" t="s">
+        <v>616</v>
+      </c>
+      <c r="H214" t="s">
+        <v>669</v>
+      </c>
+      <c r="I214" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" t="s">
+        <v>40</v>
+      </c>
+      <c r="B215">
+        <v>6</v>
+      </c>
+      <c r="C215" t="s">
+        <v>211</v>
+      </c>
+      <c r="D215" t="s">
+        <v>226</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="F215" t="s">
+        <v>423</v>
+      </c>
+      <c r="G215" t="s">
+        <v>617</v>
+      </c>
+      <c r="H215" t="s">
+        <v>669</v>
+      </c>
+      <c r="I215" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" t="s">
+        <v>40</v>
+      </c>
+      <c r="B216">
+        <v>7</v>
+      </c>
+      <c r="C216" t="s">
+        <v>211</v>
+      </c>
+      <c r="D216" t="s">
+        <v>226</v>
+      </c>
+      <c r="E216">
+        <v>4</v>
+      </c>
+      <c r="F216" t="s">
+        <v>424</v>
+      </c>
+      <c r="G216" t="s">
+        <v>618</v>
+      </c>
+      <c r="H216" t="s">
+        <v>669</v>
+      </c>
+      <c r="I216" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" t="s">
+        <v>40</v>
+      </c>
+      <c r="B217">
+        <v>8</v>
+      </c>
+      <c r="C217" t="s">
+        <v>211</v>
+      </c>
+      <c r="D217" t="s">
+        <v>226</v>
+      </c>
+      <c r="E217">
+        <v>4</v>
+      </c>
+      <c r="F217" t="s">
         <v>425</v>
       </c>
-      <c r="C114" t="s">
-        <v>99</v>
-      </c>
-      <c r="D114" t="s">
-        <v>101</v>
-      </c>
-      <c r="E114">
+      <c r="G217" t="s">
+        <v>619</v>
+      </c>
+      <c r="H217" t="s">
+        <v>669</v>
+      </c>
+      <c r="I217" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" t="s">
+        <v>40</v>
+      </c>
+      <c r="B218">
+        <v>9</v>
+      </c>
+      <c r="C218" t="s">
+        <v>211</v>
+      </c>
+      <c r="D218" t="s">
+        <v>226</v>
+      </c>
+      <c r="E218">
+        <v>4</v>
+      </c>
+      <c r="F218" t="s">
+        <v>426</v>
+      </c>
+      <c r="G218" t="s">
+        <v>620</v>
+      </c>
+      <c r="H218" t="s">
+        <v>669</v>
+      </c>
+      <c r="I218" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" t="s">
+        <v>40</v>
+      </c>
+      <c r="B219">
+        <v>10</v>
+      </c>
+      <c r="C219" t="s">
+        <v>212</v>
+      </c>
+      <c r="D219" t="s">
+        <v>228</v>
+      </c>
+      <c r="E219">
+        <v>4</v>
+      </c>
+      <c r="F219" t="s">
+        <v>427</v>
+      </c>
+      <c r="G219" t="s">
+        <v>621</v>
+      </c>
+      <c r="H219" t="s">
+        <v>669</v>
+      </c>
+      <c r="I219" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" t="s">
+        <v>40</v>
+      </c>
+      <c r="B220">
+        <v>11</v>
+      </c>
+      <c r="C220" t="s">
+        <v>212</v>
+      </c>
+      <c r="D220" t="s">
+        <v>228</v>
+      </c>
+      <c r="E220">
+        <v>4</v>
+      </c>
+      <c r="F220" t="s">
+        <v>428</v>
+      </c>
+      <c r="G220" t="s">
+        <v>622</v>
+      </c>
+      <c r="H220" t="s">
+        <v>669</v>
+      </c>
+      <c r="I220" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" t="s">
+        <v>40</v>
+      </c>
+      <c r="B221">
+        <v>12</v>
+      </c>
+      <c r="C221" t="s">
+        <v>110</v>
+      </c>
+      <c r="D221" t="s">
+        <v>228</v>
+      </c>
+      <c r="E221">
+        <v>10</v>
+      </c>
+      <c r="F221" t="s">
+        <v>429</v>
+      </c>
+      <c r="G221" t="s">
+        <v>623</v>
+      </c>
+      <c r="H221" t="s">
+        <v>669</v>
+      </c>
+      <c r="I221" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" t="s">
+        <v>40</v>
+      </c>
+      <c r="B222">
+        <v>13</v>
+      </c>
+      <c r="C222" t="s">
+        <v>110</v>
+      </c>
+      <c r="D222" t="s">
+        <v>228</v>
+      </c>
+      <c r="E222">
+        <v>10</v>
+      </c>
+      <c r="F222" t="s">
+        <v>430</v>
+      </c>
+      <c r="G222" t="s">
+        <v>624</v>
+      </c>
+      <c r="H222" t="s">
+        <v>669</v>
+      </c>
+      <c r="I222" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
+        <v>40</v>
+      </c>
+      <c r="B223">
+        <v>14</v>
+      </c>
+      <c r="C223" t="s">
+        <v>213</v>
+      </c>
+      <c r="D223" t="s">
+        <v>226</v>
+      </c>
+      <c r="E223">
+        <v>30</v>
+      </c>
+      <c r="F223" t="s">
+        <v>431</v>
+      </c>
+      <c r="G223" t="s">
+        <v>625</v>
+      </c>
+      <c r="H223" t="s">
+        <v>669</v>
+      </c>
+      <c r="I223" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>40</v>
+      </c>
+      <c r="B224">
+        <v>15</v>
+      </c>
+      <c r="C224" t="s">
+        <v>79</v>
+      </c>
+      <c r="D224" t="s">
+        <v>226</v>
+      </c>
+      <c r="E224">
+        <v>20</v>
+      </c>
+      <c r="F224" t="s">
+        <v>432</v>
+      </c>
+      <c r="G224" t="s">
+        <v>626</v>
+      </c>
+      <c r="H224" t="s">
+        <v>669</v>
+      </c>
+      <c r="I224" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>41</v>
+      </c>
+      <c r="B225">
+        <v>160</v>
+      </c>
+      <c r="C225" t="s">
+        <v>214</v>
+      </c>
+      <c r="D225" t="s">
+        <v>226</v>
+      </c>
+      <c r="E225">
+        <v>30</v>
+      </c>
+      <c r="F225" t="s">
+        <v>433</v>
+      </c>
+      <c r="G225" t="s">
+        <v>627</v>
+      </c>
+      <c r="H225" t="s">
+        <v>670</v>
+      </c>
+      <c r="I225" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
+        <v>42</v>
+      </c>
+      <c r="B226">
+        <v>9</v>
+      </c>
+      <c r="C226" t="s">
+        <v>215</v>
+      </c>
+      <c r="D226" t="s">
+        <v>226</v>
+      </c>
+      <c r="E226">
+        <v>3</v>
+      </c>
+      <c r="F226" t="s">
+        <v>434</v>
+      </c>
+      <c r="G226" t="s">
+        <v>628</v>
+      </c>
+      <c r="H226" t="s">
+        <v>671</v>
+      </c>
+      <c r="I226" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" t="s">
+        <v>42</v>
+      </c>
+      <c r="B227">
+        <v>19</v>
+      </c>
+      <c r="C227" t="s">
+        <v>187</v>
+      </c>
+      <c r="D227" t="s">
+        <v>226</v>
+      </c>
+      <c r="E227">
+        <v>2</v>
+      </c>
+      <c r="F227" t="s">
+        <v>435</v>
+      </c>
+      <c r="G227" t="s">
+        <v>629</v>
+      </c>
+      <c r="H227" t="s">
+        <v>671</v>
+      </c>
+      <c r="I227" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" t="s">
+        <v>42</v>
+      </c>
+      <c r="B228">
+        <v>21</v>
+      </c>
+      <c r="C228" t="s">
+        <v>216</v>
+      </c>
+      <c r="D228" t="s">
+        <v>226</v>
+      </c>
+      <c r="E228">
+        <v>3</v>
+      </c>
+      <c r="F228" t="s">
+        <v>436</v>
+      </c>
+      <c r="G228" t="s">
+        <v>630</v>
+      </c>
+      <c r="H228" t="s">
+        <v>671</v>
+      </c>
+      <c r="I228" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" t="s">
+        <v>42</v>
+      </c>
+      <c r="B229">
+        <v>22</v>
+      </c>
+      <c r="C229" t="s">
+        <v>217</v>
+      </c>
+      <c r="D229" t="s">
+        <v>226</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+      <c r="F229" t="s">
+        <v>437</v>
+      </c>
+      <c r="G229" t="s">
+        <v>631</v>
+      </c>
+      <c r="H229" t="s">
+        <v>671</v>
+      </c>
+      <c r="I229" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" t="s">
+        <v>42</v>
+      </c>
+      <c r="B230">
+        <v>26</v>
+      </c>
+      <c r="C230" t="s">
+        <v>218</v>
+      </c>
+      <c r="D230" t="s">
+        <v>226</v>
+      </c>
+      <c r="E230">
+        <v>12</v>
+      </c>
+      <c r="F230" t="s">
+        <v>438</v>
+      </c>
+      <c r="G230" t="s">
+        <v>632</v>
+      </c>
+      <c r="H230" t="s">
+        <v>671</v>
+      </c>
+      <c r="I230" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" t="s">
+        <v>42</v>
+      </c>
+      <c r="B231">
+        <v>65</v>
+      </c>
+      <c r="C231" t="s">
+        <v>219</v>
+      </c>
+      <c r="D231" t="s">
+        <v>226</v>
+      </c>
+      <c r="E231">
         <v>35</v>
       </c>
-      <c r="F114" t="s">
-        <v>210</v>
-      </c>
-      <c r="G114" t="s">
-        <v>305</v>
-      </c>
-      <c r="H114" t="s">
-        <v>316</v>
-      </c>
-      <c r="I114" t="s">
-        <v>319</v>
+      <c r="F231" t="s">
+        <v>439</v>
+      </c>
+      <c r="G231" t="s">
+        <v>633</v>
+      </c>
+      <c r="H231" t="s">
+        <v>671</v>
+      </c>
+      <c r="I231" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" t="s">
+        <v>43</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>220</v>
+      </c>
+      <c r="D232" t="s">
+        <v>226</v>
+      </c>
+      <c r="E232">
+        <v>10</v>
+      </c>
+      <c r="F232" t="s">
+        <v>440</v>
+      </c>
+      <c r="G232" t="s">
+        <v>634</v>
+      </c>
+      <c r="H232" t="s">
+        <v>672</v>
+      </c>
+      <c r="I232" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" t="s">
+        <v>43</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233" t="s">
+        <v>221</v>
+      </c>
+      <c r="D233" t="s">
+        <v>226</v>
+      </c>
+      <c r="E233">
+        <v>30</v>
+      </c>
+      <c r="F233" t="s">
+        <v>441</v>
+      </c>
+      <c r="G233" t="s">
+        <v>635</v>
+      </c>
+      <c r="H233" t="s">
+        <v>672</v>
+      </c>
+      <c r="I233" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" t="s">
+        <v>43</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+      <c r="C234" t="s">
+        <v>222</v>
+      </c>
+      <c r="D234" t="s">
+        <v>226</v>
+      </c>
+      <c r="E234">
+        <v>30</v>
+      </c>
+      <c r="F234" t="s">
+        <v>442</v>
+      </c>
+      <c r="G234" t="s">
+        <v>636</v>
+      </c>
+      <c r="H234" t="s">
+        <v>672</v>
+      </c>
+      <c r="I234" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" t="s">
+        <v>43</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+      <c r="C235" t="s">
+        <v>223</v>
+      </c>
+      <c r="D235" t="s">
+        <v>226</v>
+      </c>
+      <c r="E235">
+        <v>12</v>
+      </c>
+      <c r="F235" t="s">
+        <v>443</v>
+      </c>
+      <c r="G235" t="s">
+        <v>637</v>
+      </c>
+      <c r="H235" t="s">
+        <v>672</v>
+      </c>
+      <c r="I235" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" t="s">
+        <v>43</v>
+      </c>
+      <c r="B236">
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>91</v>
+      </c>
+      <c r="D236" t="s">
+        <v>226</v>
+      </c>
+      <c r="E236">
+        <v>10</v>
+      </c>
+      <c r="F236" t="s">
+        <v>444</v>
+      </c>
+      <c r="G236" t="s">
+        <v>638</v>
+      </c>
+      <c r="H236" t="s">
+        <v>672</v>
+      </c>
+      <c r="I236" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="s">
+        <v>43</v>
+      </c>
+      <c r="B237">
+        <v>6</v>
+      </c>
+      <c r="C237" t="s">
+        <v>207</v>
+      </c>
+      <c r="D237" t="s">
+        <v>226</v>
+      </c>
+      <c r="E237">
+        <v>16</v>
+      </c>
+      <c r="F237" t="s">
+        <v>445</v>
+      </c>
+      <c r="G237" t="s">
+        <v>639</v>
+      </c>
+      <c r="H237" t="s">
+        <v>672</v>
+      </c>
+      <c r="I237" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" t="s">
+        <v>44</v>
+      </c>
+      <c r="B238">
+        <v>149</v>
+      </c>
+      <c r="C238" t="s">
+        <v>190</v>
+      </c>
+      <c r="D238" t="s">
+        <v>226</v>
+      </c>
+      <c r="E238">
+        <v>100</v>
+      </c>
+      <c r="F238" t="s">
+        <v>446</v>
+      </c>
+      <c r="G238" t="s">
+        <v>640</v>
+      </c>
+      <c r="H238" t="s">
+        <v>673</v>
+      </c>
+      <c r="I238" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" t="s">
+        <v>44</v>
+      </c>
+      <c r="B239">
+        <v>425</v>
+      </c>
+      <c r="C239" t="s">
+        <v>224</v>
+      </c>
+      <c r="D239" t="s">
+        <v>230</v>
+      </c>
+      <c r="E239">
+        <v>35</v>
+      </c>
+      <c r="F239" t="s">
+        <v>447</v>
+      </c>
+      <c r="G239" t="s">
+        <v>641</v>
+      </c>
+      <c r="H239" t="s">
+        <v>673</v>
+      </c>
+      <c r="I239" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" t="s">
+        <v>45</v>
+      </c>
+      <c r="B240">
+        <v>7</v>
+      </c>
+      <c r="C240" t="s">
+        <v>225</v>
+      </c>
+      <c r="D240" t="s">
+        <v>226</v>
+      </c>
+      <c r="E240">
+        <v>3</v>
+      </c>
+      <c r="F240" t="s">
+        <v>448</v>
+      </c>
+      <c r="G240" t="s">
+        <v>642</v>
+      </c>
+      <c r="H240" t="s">
+        <v>674</v>
+      </c>
+      <c r="I240" t="s">
+        <v>677</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/master.xlsx
+++ b/DOWNLOADS/master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="697">
   <si>
     <t>ARQUIVO</t>
   </si>
@@ -52,9 +52,15 @@
     <t>U_102305_E_900072025_11-09-2025_08h00m.xlsx</t>
   </si>
   <si>
+    <t>U_102328_E_900132025_18-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
     <t>U_102333_E_900012025_15-09-2025_09h00m.xlsx</t>
   </si>
   <si>
+    <t>U_103101_E_900332025_22-09-2025_09h00m.xlsx</t>
+  </si>
+  <si>
     <t>U_120625_E_901012025_15-09-2025_09h00m.xlsx</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>U_160253_E_900082025_15-09-2025_09h30m.xlsx</t>
   </si>
   <si>
+    <t>U_168006_E_900822025_03-10-2025_09h00m.xlsx</t>
+  </si>
+  <si>
     <t>U_180101_E_900252025_11-09-2025_08h00m.xlsx</t>
   </si>
   <si>
@@ -169,6 +178,12 @@
     <t>Projetor Multimídia Projetor Multimídia Tipo Lâmpada: Uhe, Potência Lâmpada: 200W, Voltagem: 100/240V, Freqüência: 50 A 60HZ, Quantidade Entradas Vídeo: 1UN, Tamanho Mínimo Imagem: 30POL, Tipo Zoom: Manual, Quantidade Autofalantes: 1UN, Tipo: Teto E Mesa, Luminosidade Mínima: 3.400LM, Tipo Foco: Manual, Tipo Projeção: Frontal/Retroprojeção/Teto, Resolução: 1920 X 1080 Full Hd, Contraste Mínimo: 16.000:1</t>
   </si>
   <si>
+    <t>Telefone Cabeça Telefone Cabeça Tipo: Headset Com Cabo Qd (Quiq-Disconet), Tipo Acionamento: Liga/Desliga Com Um Toque, Características Adicionais: Conexão Headset Ao Computador, Tipo Conector: Usb</t>
+  </si>
+  <si>
+    <t>Câmera Videoconferência Câmera Videoconferência Resolução: 1080, Tipo Lente: Foco AutomáticoX, Velocidade Transmissão Vídeo: 30FPS, Características Adicionais: Webcam, Microfone Duplo Unidirecional</t>
+  </si>
+  <si>
     <t>FILMADORA/MONITOR PORTÁTIL MICROFONE SEM FIO. CONJUNTO DE DOIS MICROFONES SEM FIO UHF DESTINADO AO USO EM PEQUENOS EVENTOS E LOCAIS DE PEQUENO PORTE, PODENDO UTILIZAR ATE 4 SISTEMAS DO MESMO MODELO, DESDE QUE O USUARIO ATENDA AS REGRAS DE USO DO PRODUTO. (CONFORME O ANEXO A - TABELA TR)</t>
   </si>
   <si>
@@ -502,6 +517,9 @@
     <t>Câmera web Câmera Web Conexão: Interface Usb 2.0, Captura Cores: 30 Fps, Tamanho Imagem: 1280 X 720 Pixels, Compatibilidade: Windows 10, Resolução: Full Hd 1080MPX, Características Adicionais: Microfone Embutido</t>
   </si>
   <si>
+    <t>Fone ouvido Fone Ouvido Tipo: Headset, Impedância: 32OHM, Comprimento Fio: Mínimo 1,5M, Tipo Fone: Biauricular, Características Adicionais: Microfone E Aro Ajustável, Sensibilidade: 89DB, Cor: Preta, Aplicação: Computador, Conector: P3</t>
+  </si>
+  <si>
     <t>Cabo Extensor Cabo Extensor Tipo: Blindado Reforçado, Tipo Saída: Hdmi Macho X Hdmi Macho 19 Pinos, Comprimento: 10M, Aplicação: Projetor Multimídia, Características Adicionais: Cabo Com Filtro, Padrão: Hdmi 2.0, Material Condutor: Pinos Banhados A Ouro</t>
   </si>
   <si>
@@ -1135,6 +1153,9 @@
     <t>549,82</t>
   </si>
   <si>
+    <t>95,00</t>
+  </si>
+  <si>
     <t>52,52</t>
   </si>
   <si>
@@ -1708,6 +1729,9 @@
     <t>33080,00</t>
   </si>
   <si>
+    <t>6745,00</t>
+  </si>
+  <si>
     <t>420,16</t>
   </si>
   <si>
@@ -1972,6 +1996,9 @@
     <t>Itaituba/PA</t>
   </si>
   <si>
+    <t>Blumenau/SC</t>
+  </si>
+  <si>
     <t>Riolândia/SP</t>
   </si>
   <si>
@@ -2045,6 +2072,12 @@
   </si>
   <si>
     <t>0,70</t>
+  </si>
+  <si>
+    <t>1,50</t>
+  </si>
+  <si>
+    <t>3,60</t>
   </si>
   <si>
     <t>0,01</t>
@@ -2429,7 +2462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I240"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2472,25 +2505,25 @@
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="H2" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="I2" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2501,25 +2534,25 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E3">
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H3" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I3" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2530,25 +2563,25 @@
         <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G4" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H4" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="I4" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2559,25 +2592,25 @@
         <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G5" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="H5" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="I5" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2585,28 +2618,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E6">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G6" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H6" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="I6" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2614,695 +2647,695 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="H7" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="I7" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="F8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G8" t="s">
-        <v>454</v>
+        <v>242</v>
       </c>
       <c r="H8" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="I8" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E9">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
         <v>242</v>
       </c>
       <c r="G9" t="s">
-        <v>455</v>
+        <v>242</v>
       </c>
       <c r="H9" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="I9" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>35</v>
-      </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G10" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H10" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="I10" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G11" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="H11" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="I11" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G12" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H12" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="I12" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G13" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H13" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="I13" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G14" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H14" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I14" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G15" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H15" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I15" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G16" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H16" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I16" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G17" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H17" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I17" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G18" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H18" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I18" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G19" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H19" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I19" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G20" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H20" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I20" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G21" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H21" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I21" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G22" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H22" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I22" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G23" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="H23" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I23" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G24" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H24" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I24" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>258</v>
+        <v>475</v>
       </c>
       <c r="H25" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="I25" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E26">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G26" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="H26" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="I26" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G27" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H27" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="I27" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E28">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G28" t="s">
-        <v>471</v>
+        <v>264</v>
       </c>
       <c r="H28" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="I28" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E29">
         <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G29" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="H29" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="I29" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E30">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="G30" t="s">
-        <v>236</v>
+        <v>478</v>
       </c>
       <c r="H30" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="I30" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3310,28 +3343,28 @@
         <v>17</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G31" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="H31" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="I31" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3339,3102 +3372,3102 @@
         <v>17</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F32" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G32" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="H32" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="I32" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="G33" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="H33" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="I33" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G34" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="H34" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I34" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G35" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H35" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I35" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G36" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H36" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I36" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G37" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="H37" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I37" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E38">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G38" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="H38" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I38" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G39" t="s">
-        <v>477</v>
+        <v>271</v>
       </c>
       <c r="H39" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I39" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B40">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G40" t="s">
-        <v>478</v>
+        <v>272</v>
       </c>
       <c r="H40" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I40" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G41" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H41" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I41" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G42" t="s">
-        <v>271</v>
+        <v>484</v>
       </c>
       <c r="H42" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I42" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B43">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G43" t="s">
-        <v>272</v>
+        <v>485</v>
       </c>
       <c r="H43" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I43" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B44">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G44" t="s">
-        <v>273</v>
+        <v>486</v>
       </c>
       <c r="H44" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I44" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B45">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G45" t="s">
-        <v>480</v>
+        <v>277</v>
       </c>
       <c r="H45" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I45" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B46">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G46" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H46" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I46" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47">
         <v>17</v>
       </c>
-      <c r="B47">
-        <v>20</v>
-      </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G47" t="s">
-        <v>481</v>
+        <v>279</v>
       </c>
       <c r="H47" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I47" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B48">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G48" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H48" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I48" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B49">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G49" t="s">
-        <v>483</v>
+        <v>281</v>
       </c>
       <c r="H49" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I49" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B50">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G50" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H50" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I50" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B51">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E51">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G51" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="H51" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I51" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B52">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G52" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H52" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I52" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B53">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G53" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H53" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I53" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B54">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G54" t="s">
-        <v>283</v>
+        <v>492</v>
       </c>
       <c r="H54" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I54" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B55">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G55" t="s">
-        <v>284</v>
+        <v>493</v>
       </c>
       <c r="H55" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I55" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B56">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E56">
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G56" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="H56" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I56" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B57">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G57" t="s">
-        <v>489</v>
+        <v>289</v>
       </c>
       <c r="H57" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I57" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B58">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G58" t="s">
-        <v>490</v>
+        <v>290</v>
       </c>
       <c r="H58" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I58" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B59">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
         <v>92</v>
       </c>
       <c r="D59" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G59" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H59" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I59" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B60">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G60" t="s">
-        <v>289</v>
+        <v>496</v>
       </c>
       <c r="H60" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I60" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B61">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G61" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="H61" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I61" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B62">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D62" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G62" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="H62" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I62" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B63">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D63" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G63" t="s">
-        <v>494</v>
+        <v>295</v>
       </c>
       <c r="H63" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I63" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B64">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G64" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="H64" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I64" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B65">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G65" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="H65" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I65" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B66">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E66">
         <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G66" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H66" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I66" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B67">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D67" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G67" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H67" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I67" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B68">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D68" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G68" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="H68" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I68" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B69">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D69" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G69" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="H69" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I69" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B70">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D70" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G70" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H70" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I70" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B71">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E71">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G71" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="H71" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I71" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B72">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D72" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G72" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="H72" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I72" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B73">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D73" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E73">
         <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G73" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="H73" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I73" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B74">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D74" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G74" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H74" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I74" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B75">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D75" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G75" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H75" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I75" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B76">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G76" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="H76" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I76" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B77">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D77" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E77">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G77" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="H77" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I77" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B78">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D78" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F78" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G78" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H78" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I78" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B79">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D79" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E79">
         <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G79" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H79" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I79" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B80">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E80">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G80" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H80" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I80" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B81">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D81" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E81">
         <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G81" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H81" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I81" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B82">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D82" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E82">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G82" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="H82" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I82" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B83">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D83" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G83" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="H83" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I83" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B84">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C84" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D84" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E84">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G84" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="H84" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I84" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B85">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D85" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E85">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G85" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H85" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I85" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B86">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D86" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F86" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G86" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H86" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I86" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B87">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D87" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E87">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G87" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H87" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I87" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B88">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C88" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D88" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E88">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F88" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G88" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H88" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I88" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B89">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C89" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D89" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G89" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="H89" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I89" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B90">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D90" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E90">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G90" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H90" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I90" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B91">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C91" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="D91" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G91" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H91" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I91" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C92" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D92" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G92" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="H92" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="I92" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D93" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G93" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="H93" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="I93" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C94" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="D94" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G94" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H94" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="I94" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D95" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G95" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H95" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I95" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D96" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G96" t="s">
-        <v>325</v>
+        <v>531</v>
       </c>
       <c r="H96" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I96" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D97" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G97" t="s">
-        <v>326</v>
+        <v>532</v>
       </c>
       <c r="H97" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I97" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D98" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F98" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G98" t="s">
-        <v>327</v>
+        <v>533</v>
       </c>
       <c r="H98" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I98" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D99" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G99" t="s">
-        <v>527</v>
+        <v>331</v>
       </c>
       <c r="H99" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I99" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D100" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G100" t="s">
-        <v>528</v>
+        <v>332</v>
       </c>
       <c r="H100" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I100" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D101" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G101" t="s">
-        <v>529</v>
+        <v>333</v>
       </c>
       <c r="H101" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I101" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D102" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G102" t="s">
-        <v>331</v>
+        <v>534</v>
       </c>
       <c r="H102" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I102" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B103">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D103" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G103" t="s">
-        <v>332</v>
+        <v>535</v>
       </c>
       <c r="H103" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I103" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B104">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D104" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G104" t="s">
-        <v>333</v>
+        <v>536</v>
       </c>
       <c r="H104" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I104" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B105">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D105" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G105" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H105" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I105" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B106">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D106" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G106" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H106" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I106" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B107">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D107" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G107" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H107" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I107" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B108">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D108" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G108" t="s">
-        <v>530</v>
+        <v>340</v>
       </c>
       <c r="H108" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I108" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B109">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D109" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G109" t="s">
-        <v>531</v>
+        <v>341</v>
       </c>
       <c r="H109" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I109" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B110">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D110" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G110" t="s">
-        <v>532</v>
+        <v>342</v>
       </c>
       <c r="H110" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I110" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B111">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C111" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D111" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E111">
         <v>3</v>
       </c>
       <c r="F111" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G111" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="H111" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I111" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112">
         <v>18</v>
       </c>
-      <c r="B112">
-        <v>21</v>
-      </c>
       <c r="C112" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D112" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F112" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G112" t="s">
-        <v>341</v>
+        <v>538</v>
       </c>
       <c r="H112" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I112" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B113">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D113" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E113">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F113" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G113" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="H113" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I113" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B114">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C114" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D114" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F114" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G114" t="s">
-        <v>343</v>
+        <v>540</v>
       </c>
       <c r="H114" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I114" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B115">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C115" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D115" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E115">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G115" t="s">
-        <v>535</v>
+        <v>347</v>
       </c>
       <c r="H115" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I115" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B116">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C116" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D116" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E116">
         <v>20</v>
       </c>
       <c r="F116" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G116" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="H116" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I116" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B117">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C117" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D117" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E117">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G117" t="s">
-        <v>537</v>
+        <v>349</v>
       </c>
       <c r="H117" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I117" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B118">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C118" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D118" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E118">
         <v>20</v>
       </c>
       <c r="F118" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G118" t="s">
-        <v>502</v>
+        <v>542</v>
       </c>
       <c r="H118" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I118" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B119">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C119" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D119" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E119">
         <v>20</v>
       </c>
       <c r="F119" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G119" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="H119" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I119" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B120">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C120" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D120" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E120">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F120" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G120" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H120" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I120" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B121">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C121" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D121" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E121">
         <v>20</v>
       </c>
       <c r="F121" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G121" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="H121" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I121" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B122">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C122" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D122" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E122">
         <v>20</v>
       </c>
       <c r="F122" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G122" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="H122" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I122" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B123">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D123" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E123">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G123" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="H123" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I123" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B124">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C124" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D124" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E124">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F124" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G124" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="H124" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I124" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B125">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C125" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="D125" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E125">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F125" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G125" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H125" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I125" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B126">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C126" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="D126" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E126">
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G126" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H126" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I126" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B127">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C127" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D127" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E127">
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G127" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H127" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I127" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B128">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C128" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D128" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E128">
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G128" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H128" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I128" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B129">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D129" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E129">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G129" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="H129" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I129" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B130">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C130" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D130" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G130" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="H130" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I130" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B131">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C131" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="D131" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G131" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H131" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I131" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B132">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C132" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D132" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F132" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G132" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H132" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I132" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B133">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C133" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D133" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F133" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G133" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="H133" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I133" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B134">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C134" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D134" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E134">
         <v>2</v>
       </c>
       <c r="F134" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G134" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H134" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I134" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B135">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C135" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="D135" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E135">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F135" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G135" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="H135" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I135" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B136">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C136" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D136" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F136" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G136" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H136" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="I136" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B137">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C137" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D137" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E137">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="F137" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G137" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H137" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="I137" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B138">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C138" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="D138" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E138">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G138" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H138" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="I138" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -6442,550 +6475,550 @@
         <v>20</v>
       </c>
       <c r="B139">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C139" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D139" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E139">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F139" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G139" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H139" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="I139" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B140">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C140" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D140" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E140">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="F140" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G140" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="H140" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I140" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B141">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C141" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D141" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E141">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F141" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G141" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H141" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I141" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B142">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C142" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D142" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E142">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F142" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G142" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H142" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I142" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B143">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C143" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="D143" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E143">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G143" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H143" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I143" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B144">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C144" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D144" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E144">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F144" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G144" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="H144" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I144" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B145">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C145" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="D145" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E145">
         <v>8</v>
       </c>
       <c r="F145" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G145" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H145" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I145" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B146">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C146" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="D146" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E146">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G146" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="H146" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="I146" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B147">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C147" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D147" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E147">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F147" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G147" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H147" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="I147" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B148">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C148" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="D148" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E148">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="F148" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G148" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="H148" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="I148" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B149">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C149" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D149" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E149">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F149" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G149" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="H149" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="I149" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B150">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D150" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E150">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F150" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G150" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="H150" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I150" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B151">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D151" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E151">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G151" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="H151" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I151" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B152">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C152" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D152" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E152">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G152" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H152" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I152" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B153">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C153" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D153" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E153">
         <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="G153" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="H153" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I153" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B154">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C154" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D154" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E154">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="F154" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="G154" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="H154" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I154" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B155">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C155" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D155" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E155">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F155" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G155" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="H155" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I155" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C156" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D156" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E156">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G156" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H156" t="s">
         <v>652</v>
       </c>
       <c r="I156" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B157">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C157" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D157" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E157">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G157" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H157" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I157" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6993,28 +7026,28 @@
         <v>24</v>
       </c>
       <c r="B158">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C158" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D158" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E158">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F158" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G158" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H158" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I158" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7022,927 +7055,927 @@
         <v>24</v>
       </c>
       <c r="B159">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C159" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D159" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E159">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F159" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G159" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="H159" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I159" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B160">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D160" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E160">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F160" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G160" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="H160" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="I160" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
+        <v>26</v>
+      </c>
+      <c r="B161">
         <v>24</v>
       </c>
-      <c r="B161">
-        <v>114</v>
-      </c>
       <c r="C161" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D161" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E161">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="F161" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G161" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="H161" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="I161" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B162">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C162" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D162" t="s">
         <v>232</v>
       </c>
       <c r="E162">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F162" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G162" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="H162" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="I162" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B163">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C163" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D163" t="s">
         <v>232</v>
       </c>
       <c r="E163">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F163" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G163" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H163" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="I163" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B164">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C164" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D164" t="s">
         <v>232</v>
       </c>
       <c r="E164">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F164" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G164" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H164" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="I164" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B165">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C165" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D165" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E165">
         <v>200</v>
       </c>
       <c r="F165" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G165" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H165" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="I165" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B166">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C166" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D166" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E166">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F166" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G166" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H166" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="I166" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B167">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C167" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D167" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E167">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F167" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G167" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H167" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="I167" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B168">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C168" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D168" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E168">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F168" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G168" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="H168" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="I168" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B169">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C169" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D169" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E169">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F169" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G169" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="H169" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="I169" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B170">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C170" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D170" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E170">
         <v>150</v>
       </c>
       <c r="F170" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G170" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="H170" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="I170" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="C171" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D171" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E171">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="F171" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G171" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="H171" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="I171" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B172">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="C172" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D172" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E172">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="F172" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G172" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H172" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="I172" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B173">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="C173" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D173" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E173">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F173" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G173" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="H173" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="I173" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B174">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="C174" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D174" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E174">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F174" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G174" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H174" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="I174" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B175">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D175" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E175">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F175" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G175" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="H175" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="I175" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C176" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D176" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E176">
-        <v>375</v>
+        <v>30</v>
       </c>
       <c r="F176" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G176" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="H176" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="I176" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B177">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D177" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E177">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="F177" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G177" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="H177" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="I177" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B178">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C178" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D178" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E178">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F178" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G178" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H178" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="I178" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B179">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D179" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E179">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F179" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G179" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="H179" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="I179" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B180">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D180" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E180">
-        <v>20</v>
+        <v>375</v>
       </c>
       <c r="F180" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G180" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H180" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="I180" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B181">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D181" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E181">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="F181" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G181" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="H181" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="I181" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B182">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D182" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E182">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F182" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G182" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="H182" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I182" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B183">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C183" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D183" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G183" t="s">
-        <v>404</v>
+        <v>605</v>
       </c>
       <c r="H183" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I183" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B184">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C184" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D184" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="E184">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F184" t="s">
-        <v>236</v>
+        <v>408</v>
       </c>
       <c r="G184" t="s">
-        <v>236</v>
+        <v>606</v>
       </c>
       <c r="H184" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I184" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C185" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D185" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E185">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>236</v>
+        <v>409</v>
       </c>
       <c r="G185" t="s">
-        <v>236</v>
+        <v>607</v>
       </c>
       <c r="H185" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I185" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B186">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C186" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D186" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E186">
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>236</v>
+        <v>410</v>
       </c>
       <c r="G186" t="s">
-        <v>236</v>
+        <v>608</v>
       </c>
       <c r="H186" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I186" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B187">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C187" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D187" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E187">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>236</v>
+        <v>411</v>
       </c>
       <c r="G187" t="s">
-        <v>236</v>
+        <v>411</v>
       </c>
       <c r="H187" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I187" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D188" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E188">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F188" t="s">
-        <v>405</v>
+        <v>242</v>
       </c>
       <c r="G188" t="s">
-        <v>601</v>
+        <v>242</v>
       </c>
       <c r="H188" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="I188" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B189">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D189" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E189">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F189" t="s">
-        <v>406</v>
+        <v>242</v>
       </c>
       <c r="G189" t="s">
-        <v>602</v>
+        <v>242</v>
       </c>
       <c r="H189" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="I189" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B190">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D190" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>407</v>
+        <v>242</v>
       </c>
       <c r="G190" t="s">
-        <v>407</v>
+        <v>242</v>
       </c>
       <c r="H190" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="I190" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -7950,28 +7983,28 @@
         <v>33</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C191" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D191" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E191">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F191" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G191" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H191" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="I191" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -7979,28 +8012,28 @@
         <v>34</v>
       </c>
       <c r="B192">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="D192" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E192">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F192" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G192" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="H192" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="I192" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8008,57 +8041,57 @@
         <v>35</v>
       </c>
       <c r="B193">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C193" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D193" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="E193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F193" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G193" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="H193" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="I193" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B194">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D194" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="E194">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>236</v>
+        <v>414</v>
       </c>
       <c r="G194" t="s">
-        <v>236</v>
+        <v>414</v>
       </c>
       <c r="H194" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="I194" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8066,1333 +8099,1449 @@
         <v>36</v>
       </c>
       <c r="B195">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D195" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F195" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G195" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H195" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="I195" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B196">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C196" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="D196" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E196">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F196" t="s">
-        <v>236</v>
+        <v>415</v>
       </c>
       <c r="G196" t="s">
-        <v>236</v>
+        <v>611</v>
       </c>
       <c r="H196" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="I196" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B197">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C197" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D197" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E197">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F197" t="s">
-        <v>236</v>
+        <v>416</v>
       </c>
       <c r="G197" t="s">
-        <v>236</v>
+        <v>612</v>
       </c>
       <c r="H197" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="I197" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B198">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C198" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D198" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F198" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G198" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H198" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="I198" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B199">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C199" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D199" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F199" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G199" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H199" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="I199" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B200">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C200" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D200" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E200">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F200" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G200" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H200" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="I200" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B201">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C201" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D201" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E201">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F201" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G201" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H201" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="I201" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B202">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C202" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D202" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E202">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>410</v>
+        <v>242</v>
       </c>
       <c r="G202" t="s">
-        <v>605</v>
+        <v>242</v>
       </c>
       <c r="H202" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="I202" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B203">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C203" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D203" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E203">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F203" t="s">
-        <v>411</v>
+        <v>242</v>
       </c>
       <c r="G203" t="s">
-        <v>606</v>
+        <v>242</v>
       </c>
       <c r="H203" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="I203" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B204">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C204" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D204" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E204">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F204" t="s">
-        <v>412</v>
+        <v>242</v>
       </c>
       <c r="G204" t="s">
-        <v>607</v>
+        <v>242</v>
       </c>
       <c r="H204" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="I204" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B205">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C205" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D205" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E205">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F205" t="s">
-        <v>413</v>
+        <v>242</v>
       </c>
       <c r="G205" t="s">
-        <v>608</v>
+        <v>242</v>
       </c>
       <c r="H205" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="I205" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B206">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D206" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E206">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F206" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G206" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="H206" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="I206" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B207">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C207" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D207" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F207" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G207" t="s">
-        <v>415</v>
+        <v>614</v>
       </c>
       <c r="H207" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="I207" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B208">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C208" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D208" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E208">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F208" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G208" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="H208" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="I208" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B209">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C209" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D209" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E209">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F209" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G209" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="H209" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="I209" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C210" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D210" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E210">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F210" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G210" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="H210" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="I210" t="s">
-        <v>675</v>
+        <v>696</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C211" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D211" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G211" t="s">
-        <v>613</v>
+        <v>422</v>
       </c>
       <c r="H211" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="I211" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C212" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D212" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E212">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G212" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="H212" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="I212" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
+        <v>42</v>
+      </c>
+      <c r="B213">
         <v>40</v>
       </c>
-      <c r="B213">
-        <v>4</v>
-      </c>
       <c r="C213" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D213" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E213">
         <v>2</v>
       </c>
       <c r="F213" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G213" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="H213" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="I213" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B214">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D214" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E214">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G214" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="H214" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="I214" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B215">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C215" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D215" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E215">
         <v>2</v>
       </c>
       <c r="F215" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G215" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="H215" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="I215" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B216">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C216" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D216" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G216" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="H216" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="I216" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B217">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D217" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E217">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F217" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G217" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="H217" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="I217" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B218">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D218" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E218">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G218" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="H218" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="I218" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B219">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D219" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E219">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F219" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G219" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="H219" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="I219" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B220">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D220" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E220">
         <v>4</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G220" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="H220" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="I220" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B221">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="D221" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E221">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F221" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G221" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="H221" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="I221" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B222">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="D222" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E222">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G222" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="H222" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="I222" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B223">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C223" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D223" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E223">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F223" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G223" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H223" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="I223" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B224">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C224" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="D224" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E224">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G224" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="H224" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="I224" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B225">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="C225" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="D225" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E225">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G225" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="H225" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="I225" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B226">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="D226" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E226">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G226" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="H226" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="I226" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B227">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C227" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="D227" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E227">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F227" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G227" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="H227" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="I227" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B228">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C228" t="s">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="D228" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E228">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F228" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G228" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="H228" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="I228" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B229">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="C229" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D229" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E229">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F229" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G229" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="H229" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="I229" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B230">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D230" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E230">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F230" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G230" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="H230" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="I230" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B231">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C231" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="D231" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E231">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F231" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G231" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="H231" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="I231" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C232" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D232" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E232">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F232" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G232" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="H232" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="I232" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B233">
+        <v>22</v>
+      </c>
+      <c r="C233" t="s">
+        <v>223</v>
+      </c>
+      <c r="D233" t="s">
+        <v>232</v>
+      </c>
+      <c r="E233">
         <v>2</v>
       </c>
-      <c r="C233" t="s">
-        <v>221</v>
-      </c>
-      <c r="D233" t="s">
-        <v>226</v>
-      </c>
-      <c r="E233">
-        <v>30</v>
-      </c>
       <c r="F233" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G233" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="H233" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="I233" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B234">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C234" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D234" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E234">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F234" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G234" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="H234" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="I234" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C235" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D235" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E235">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F235" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G235" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="H235" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="I235" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B236">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="D236" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E236">
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G236" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="H236" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="I236" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B237">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="D237" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E237">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F237" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G237" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="H237" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="I237" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B238">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="C238" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="D238" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E238">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F238" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G238" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="H238" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="I238" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B239">
-        <v>425</v>
+        <v>4</v>
       </c>
       <c r="C239" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D239" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E239">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F239" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="G239" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="H239" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="I239" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B240">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>96</v>
+      </c>
+      <c r="D240" t="s">
+        <v>232</v>
+      </c>
+      <c r="E240">
+        <v>10</v>
+      </c>
+      <c r="F240" t="s">
+        <v>451</v>
+      </c>
+      <c r="G240" t="s">
+        <v>646</v>
+      </c>
+      <c r="H240" t="s">
+        <v>681</v>
+      </c>
+      <c r="I240" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" t="s">
+        <v>46</v>
+      </c>
+      <c r="B241">
+        <v>6</v>
+      </c>
+      <c r="C241" t="s">
+        <v>213</v>
+      </c>
+      <c r="D241" t="s">
+        <v>232</v>
+      </c>
+      <c r="E241">
+        <v>16</v>
+      </c>
+      <c r="F241" t="s">
+        <v>452</v>
+      </c>
+      <c r="G241" t="s">
+        <v>647</v>
+      </c>
+      <c r="H241" t="s">
+        <v>681</v>
+      </c>
+      <c r="I241" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" t="s">
+        <v>47</v>
+      </c>
+      <c r="B242">
+        <v>149</v>
+      </c>
+      <c r="C242" t="s">
+        <v>196</v>
+      </c>
+      <c r="D242" t="s">
+        <v>232</v>
+      </c>
+      <c r="E242">
+        <v>100</v>
+      </c>
+      <c r="F242" t="s">
+        <v>453</v>
+      </c>
+      <c r="G242" t="s">
+        <v>648</v>
+      </c>
+      <c r="H242" t="s">
+        <v>682</v>
+      </c>
+      <c r="I242" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" t="s">
+        <v>47</v>
+      </c>
+      <c r="B243">
+        <v>425</v>
+      </c>
+      <c r="C243" t="s">
+        <v>230</v>
+      </c>
+      <c r="D243" t="s">
+        <v>236</v>
+      </c>
+      <c r="E243">
+        <v>35</v>
+      </c>
+      <c r="F243" t="s">
+        <v>454</v>
+      </c>
+      <c r="G243" t="s">
+        <v>649</v>
+      </c>
+      <c r="H243" t="s">
+        <v>682</v>
+      </c>
+      <c r="I243" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" t="s">
+        <v>48</v>
+      </c>
+      <c r="B244">
         <v>7</v>
       </c>
-      <c r="C240" t="s">
-        <v>225</v>
-      </c>
-      <c r="D240" t="s">
-        <v>226</v>
-      </c>
-      <c r="E240">
+      <c r="C244" t="s">
+        <v>231</v>
+      </c>
+      <c r="D244" t="s">
+        <v>232</v>
+      </c>
+      <c r="E244">
         <v>3</v>
       </c>
-      <c r="F240" t="s">
-        <v>448</v>
-      </c>
-      <c r="G240" t="s">
-        <v>642</v>
-      </c>
-      <c r="H240" t="s">
-        <v>674</v>
-      </c>
-      <c r="I240" t="s">
-        <v>677</v>
+      <c r="F244" t="s">
+        <v>455</v>
+      </c>
+      <c r="G244" t="s">
+        <v>650</v>
+      </c>
+      <c r="H244" t="s">
+        <v>683</v>
+      </c>
+      <c r="I244" t="s">
+        <v>688</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/master.xlsx
+++ b/DOWNLOADS/master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
   <si>
     <t>Nº</t>
   </si>
@@ -22,6 +22,9 @@
     <t>DESCRICAO</t>
   </si>
   <si>
+    <t>REFERENCIA</t>
+  </si>
+  <si>
     <t>QTDE</t>
   </si>
   <si>
@@ -43,19 +46,217 @@
     <t>6</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Caixa som Caixa Som Potência: Por Canal 3W, Voltagem: 5 VdcV, Aplicação: Computador, Características Adicionais: Áudio 2.0 Sáida Para Fone De Ouvido E Controle De</t>
   </si>
   <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Caixa Tenor, Tamanho: 14 X 12POL, Características Adicionais: Colete,Aro Duplo E 12 Afinações Com Carrier</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Quadriton, Material: Madeira, Componentes: 1 Colete 8-10-12-13, Características Adicionais: Acabamento Em Fórmica Branca</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Quinto Tom, Material: Metal, Componentes: Colete, Tambores De 6,8,10,12E 13</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Glockenspiel, Material: Aço, Componentes: 32 Teclas, Características Adicionais: Case De Madeira Tipo Valise, Teclas Free Floating</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Bombo, Material: Alumínio, Componentes: Com Talabarte, Tamanho: 22 X 30CM</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Percursão Instrumento Musical - Percursão Tipo: Prato, Material: Bronze, Componentes: 2 Pratos, Tamanho: 18POL, Características Adicionais: Correias Em Couro E Protetores De Mão.</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Baqueta, Aplicação: Bombo</t>
+  </si>
+  <si>
+    <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Baqueta, Aplicação: Lira</t>
+  </si>
+  <si>
+    <t>Instrumento Musical - Sopro Instrumento Musical - Sopro Tipo: Escaleta, Acabamento Superficial: Plástico, Características Adicionais: 37 Teclas, Bocal, Extensão, Case</t>
+  </si>
+  <si>
+    <t>UNIDADE DE COMPRA: UNIDADE,POTENCIA DA CAIXA: 4W RMS,CONTROLES: POWER E VOLUME, SAIDA LATERAL PARA CONEXAO DE FONES DE OUVIDO E LED INDICATIVO, MANUAL: — COM MANUAL TECNICO,TIPO DE FONTE: ALIMENTACAO VIA CABO USB,COR: NA COR PRETA, COMPRIMENTO DO CABO P2: 140 OCM ( +/- 5%), COMPRIMENTO DO CABO AC: 137 CM ( +/-5%),GARANTIA: GARANTIA 12 MESES, CONJUNTO COMPOSTO POR 02 CAIXAS DE SOM, 3W POR CANAL</t>
+  </si>
+  <si>
+    <t>- O TAMBOR OU CORPO deve ser feito com lôminas natural de eucalipto transgénico, que projeta um excelente volume e timbre médio bem definido, com espessura total nas bordas de 12,00mm, somando 6,50mm, de espessura do corpo malis 5,50mm, de espessura do anel de reforço, que resultam numa borda reforçada, que suporta as altas afinações, Acabamento laqueado finissimo na cor Impermeabilizada, +«AROS e SISTEMA DE AFINAÇÃO: 12 AFINAÇÕES Individuais feitas com porcas de aço e longarinas de alumínio interligando aros batedeira e resposta, Aros especial de alumínio, com acabamento polido e verniz eletrostático cristal, parafusos de afinação com rosca M-6, de cabeça quadrada, feitos de aço e cromados. O automático deve ser feito de alumínio e aço com esteira de 16 fios de nylon e tripla regulagem de tensão, com sistema gaveta, de acionamento anatômico ágil e preciso. * PELE batedeira hibrída com filme de poliéster e tecido de Aramida, e resposta de filme de poliéster cristal 7yomicras. O COLETE tem perfis redondo retangular com regulagem livre abertura e altura, com base abdominal e apoio ergonômico, tudo feito de alumínio pintados com resina eletrostática de poliéster na cor preta, vestindo com conforto do adolescente até o adulto de alta estatura. As áreas de contato com o corpo do músico são revestidos de sintética..Instrumentos acompanhados de bag acolchoada e baqueta profissional especidfica para - GARANTIA de 2 anos contra defeitos de fabricação no corpo de madeira e 1 ano nos componentes de metais. E assistência reposição de peças por 10 anos, caso sua produção descontinuada Acompanha Bag profissional feito de acolchoado e alças - reforçadas, e par de baquetas para caixa de alta tensão. E necessário apresentação de catálogo para participação no certame e amostra num prazo de 7 dias úteis, à partir da convocação, para o participante com lance vencedor.</t>
+  </si>
+  <si>
+    <t>O TAMBOR OU CORPO deve ser feito com lâminas natural de eucalipto transgênico, que projeta um excelente volume e timbre médio bem definido , com espessura total nas bordas de 12,00mm. somando 6,50mm. de espessura do corpo mais 5,50mm. de espessura do anel de reforço, que resultam numa borda reforçada, que suporta as altas afinações Acabamento laqueado cor Preto Ebano e face interna impermeabilizada. TONS: 8x75 afinações, 10 x 8 6 afinações, 12 x 9 6 afinações e 13 x 10 8 afinações. Os AROS de chapa de aço perfilados e estampados com 2,00mm. de espessura e acabamento cromados. As CANOAS individuais de parede grossa com dupla fixação no tambor, feitas de zamac e acabamento cromado. Porcas de afinação feitas de latão ou aço com parafusos de afinação com cabeça quadrada e rosca M-6, Garras de aluminio cromadas. - PELES são Double Clear (filme laminado com 350 micras de espessura) O COLETE com perfis redondo e retangular com regulagem livre de abertura e altura, com base abdominal e apoio de costas com desenho ergonômico, tufo feito de aluminio pintados com resina eletrostática de poliéster na cor preta, vestindo com conforto do adolescente até o adulto de alta estatura. As áreas de contato com o corpo do músico são revestidos de borracha sintética. Instrumentos acompanhados de bag acolchoada e baqueta profissional especifica para QUADRITOM, GARANTIA de 2 anos contra defeitos de fabricação no corpo de madeira e 1 ano nos componentes de metais. E garantia de assistência técnica e reposição de peças por 10 anos, caso tenha sua produção descontinuada. É necessário apresentação de catálogo para participação no certame e amostra num prazo de 7 dias úteis, à partir da convocação, para o participante com lance vencedor.</t>
+  </si>
+  <si>
+    <t>O TAMBOR OU CORPO deve ser feito com lâminas natural de eucalipto transgênico, que projeta um excelente volume e timbre médio bem definido , com espessura total nas bordas de 12,00mm. somando 6,50mm. de espessura do corpo mais 5,50mm. de espessura do anel de reforço, que resultam numa borda reforçada, que suporta as altas afinações Acabamento laqueado na cor Preto Ebano, e face interna impermeabilizada. TONS: 6 x 6 4 afinações, 8 x 7 5 afinações, 10 x 8 6 afinações, 12 x 9 6 afinações e 13 x 108 afinações.Os AROS de chapa de aço perfilados e estampados com 2,00mm. de espessura e acabamento cromados. CANOAS individuais de parede grossa com dupla fixação no tambor, feitas de zamac e acabamento cromado. Porcas de afinação feitas de aço com parafusos de afinação com cabeça quadrada e rosca M-6. As PELES são Double Clear (filme laminado com 350 micras de espessura). COLETE com perfis redondo e retangular com regulagem livre de abertura e altura, com base abdominal e apoio de costas com desenho ergonômico, tufo feito de aluminio pintados com resina eletrostática de poliéster na cor preta, vestindo com conforto do adolescente até o adulto de alta estatura. As áreas de contato com o corpo do músico são revestidos de borracha sintética. Instrumentos acompanhados de bag acolchoada e baqueta profissional especiífica para QUINTOTOM. GARANTIA de 2 anos contra defeitos de fabricação no corpo de madeira e 1 ano nos componentes de metais. E garantia de assistência técnica e reposição de peças por 10 anos, caso tenha sua produção descontinuada.. E necessário apresentação de catálogo para participação no certame e amostra num prazo de 7 dias úteis, à partir da convocação, para o participante com lance vencedor.</t>
+  </si>
+  <si>
+    <t>Estrutura feita em madeira e alumínio tubular. As teclas são feitas com barras retangulares de 31,75mm. de largura e 9,52mm. de espessura, de liga de alumínio especial usinado, lixado e polido, para proporcionar a sonoridade ideal. As notas/teclas são afinadas com extensão de Dó 5/C5 a Dó 7/C7. E fixadas na estrutura de madeira com 2 parafusos revestidos com ressonadores de silicone e assentados sobre cordão de algodão natural para melhor propagação sonora e durabilidade, com rebaixo na furação das teclas. O COLETE é feito 100% de alumínio, levissimo e resistente com estrutura de perfis redondo e retangular de regulagens livres de abertura e altura e base abdominal ampla com formato anatômico. As ombreiras tem 5cms. de largura e apoio de costas, vestindo com conforto desde o adolescente até o adulto de alta estatura. Os perfis retangulares e redondos, chapas estampadas e presilhas de regulagem tem acabamento eletrostático de poliéster na cor preta. As áreas de contato com o corpo do músico são revestidos de borracha sintética. Os parafusos das presilhas são todos de cabeça quadrada com fixação através da mesma chave de afinação utilizada nos tambores. Acompanha base basculante e 2 hastes de 12,7/0mm. de diametro para encaixe e fixação da Lira. As Liras devem ter garantia contra defeitos de fabricação de 24 (vinte e quatro) meses, exceto baquetas, bag e colete. E garantia por 10 (dez) anos de reposição de peças caso qualquer produto tenha sua fabricação descontinuada, e assistência técnica permanente em todo o território brasileiro. Devem complementar esse kit: 1 bag acolchoado para Lira, feito de nylon grosso impermeabilizado e com alças e 1 par de baquetas feitas de nylon. E necessário apresentação de catálogo para participação no certame e amostra num prazo de 7 dias úteis, à partir da convocação, para o participante com lance vencedor.</t>
+  </si>
+  <si>
+    <t>O TAMBOR OU CORPO deve ser feito com lâminas natural de eucalipto transgênico, que projeta um excelente volume e timbre médio bem definido com espessura total nas bordas de 12,00mm. somando 6,50mm. de espessura do corpo mais 5,50mm. de espessura do anel de reforço, que resultam numa borda reforçada, que suporta as altas afinações. Acabamento finíssimo laqueado em diversas opções de cores, e face interna impermeabilizada. Os AROS de madeira tem 8mm. de espessura com acabamento externo na cor do tambor e interno impermeabilizado natural. As CANOAS são individuais de parede grossa com dupla fixação no tambor, feitas de zamac e acabamento cromado. Porcas de afinação feitas de latão ou aço com parafusos de afinação com cabeça quadrada e rosca M-6, Garras de zamac cromadas. As PELES são Double Clear (filme laminado com 350 micras de espessura) e anel abafador. O COLETE tem perfis redondo e retangular com regulagem livre de abertura e altura, com base abdominal e apoio de costas com desenho ergonômico, tufo feito de aluminio pintados com resina eletrostática de poliéster na cor preta, vestindo com conforto do adolescente até o adulto de alta estatura. As áreas de contato com o corpo do músico são revestidos de borracha. sintética. Acompanha bag Categoria Premium acolchoada e baqueta especifica para o bumbo 22. GARANTIA de 2 anos contra defeitos de fabricação no corpo de madeira e 1 ano nos componentes de metais. E garantia de assistência técnica e reposição de peças por 10 anos, caso tenha sua produção descontinuada. Será aceito produto de qualidade igual ou superior. É necessário apresentação de catálogo para participação no certame e amostra num prazo de 7 dias úteis, à partir da convocação, para o participante com lance vencedor.</t>
+  </si>
+  <si>
+    <t>Feito de liga de bronze B-10, martelado e laqueado natural. Acompanha Correias e bag.</t>
+  </si>
+  <si>
+    <t>Feito de madeira nobre envernizado natural com feltro na ponta.</t>
+  </si>
+  <si>
+    <t>Feito de resina nobre com 33 cms. de comprimento.</t>
+  </si>
+  <si>
+    <t>Com tessitura de fá (f) ao terceiro f (f3), com acabamento com efeito de nogueira, com o corpo revestido em fibra, com cano de Extensão bocal e case.</t>
+  </si>
+  <si>
     <t>0,00</t>
   </si>
   <si>
+    <t>6773,95</t>
+  </si>
+  <si>
+    <t>3568,97</t>
+  </si>
+  <si>
+    <t>3950,47</t>
+  </si>
+  <si>
+    <t>5052,33</t>
+  </si>
+  <si>
+    <t>3630,00</t>
+  </si>
+  <si>
+    <t>5238,00</t>
+  </si>
+  <si>
+    <t>4675,50</t>
+  </si>
+  <si>
+    <t>4693,25</t>
+  </si>
+  <si>
+    <t>4444,75</t>
+  </si>
+  <si>
+    <t>1973,27</t>
+  </si>
+  <si>
+    <t>1615,43</t>
+  </si>
+  <si>
+    <t>347,21</t>
+  </si>
+  <si>
+    <t>300,88</t>
+  </si>
+  <si>
+    <t>28,49</t>
+  </si>
+  <si>
+    <t>1265,75</t>
+  </si>
+  <si>
+    <t>54191,60</t>
+  </si>
+  <si>
+    <t>7137,94</t>
+  </si>
+  <si>
+    <t>7900,94</t>
+  </si>
+  <si>
+    <t>10104,66</t>
+  </si>
+  <si>
+    <t>54450,00</t>
+  </si>
+  <si>
+    <t>10476,00</t>
+  </si>
+  <si>
+    <t>18702,00</t>
+  </si>
+  <si>
+    <t>18773,00</t>
+  </si>
+  <si>
+    <t>17779,00</t>
+  </si>
+  <si>
+    <t>7893,08</t>
+  </si>
+  <si>
+    <t>6461,72</t>
+  </si>
+  <si>
+    <t>3472,10</t>
+  </si>
+  <si>
+    <t>3008,80</t>
+  </si>
+  <si>
+    <t>854,70</t>
+  </si>
+  <si>
+    <t>25315,00</t>
+  </si>
+  <si>
     <t>Unidade</t>
   </si>
   <si>
+    <t>Jogo</t>
+  </si>
+  <si>
     <t>São Paulo/SP</t>
   </si>
   <si>
+    <t>Jerônimo Monteiro/ES</t>
+  </si>
+  <si>
     <t>U_102150_E_902292025_18-09-2025_09h00m</t>
+  </si>
+  <si>
+    <t>U_985661_E_900202025_26-09-2025_08h30m</t>
   </si>
 </sst>
 </file>
@@ -413,13 +614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,31 +645,472 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
